--- a/database/industries/zeraat/simorgh/product/monthly_seprated.xlsx
+++ b/database/industries/zeraat/simorgh/product/monthly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\simorgh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329537B8-1F25-449F-9981-17B51B94B70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2649" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="106">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 10 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 11 منتهی به 1397/08</t>
@@ -184,6 +182,9 @@
   </si>
   <si>
     <t>ماه 11 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 12 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -342,7 +343,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -535,7 +536,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -547,7 +548,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -594,6 +595,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -629,6 +647,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -780,17 +815,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -845,7 +880,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -902,7 +937,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -959,7 +994,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1014,7 +1049,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1071,7 +1106,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1128,7 +1163,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1183,7 +1218,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1340,7 +1375,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1395,7 +1430,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1452,7 +1487,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1568,50 +1603,50 @@
       <c r="AN11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO11" s="11" t="s">
-        <v>58</v>
+      <c r="AO11" s="11">
+        <v>0</v>
       </c>
       <c r="AP11" s="11">
         <v>0</v>
       </c>
-      <c r="AQ11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="11" t="s">
-        <v>58</v>
+      <c r="AQ11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR11" s="11">
+        <v>0</v>
       </c>
       <c r="AS11" s="11">
         <v>0</v>
       </c>
       <c r="AT11" s="11">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AU11" s="11">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="AV11" s="11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AW11" s="11">
+        <v>6</v>
+      </c>
+      <c r="AX11" s="11">
+        <v>114</v>
+      </c>
+      <c r="AY11" s="11">
+        <v>9</v>
+      </c>
+      <c r="AZ11" s="11">
         <v>10</v>
       </c>
-      <c r="AX11" s="11">
-        <v>6</v>
-      </c>
-      <c r="AY11" s="11">
-        <v>114</v>
-      </c>
-      <c r="AZ11" s="11">
-        <v>9</v>
-      </c>
       <c r="BA11" s="11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB11" s="11">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1700,23 +1735,23 @@
       <c r="AE12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF12" s="13" t="s">
-        <v>58</v>
+      <c r="AF12" s="13">
+        <v>1625</v>
       </c>
       <c r="AG12" s="13">
-        <v>1625</v>
+        <v>109</v>
       </c>
       <c r="AH12" s="13">
-        <v>109</v>
+        <v>244</v>
       </c>
       <c r="AI12" s="13">
-        <v>244</v>
+        <v>1163</v>
       </c>
       <c r="AJ12" s="13">
-        <v>1163</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL12" s="13" t="s">
         <v>58</v>
@@ -1727,14 +1762,14 @@
       <c r="AN12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO12" s="13" t="s">
-        <v>58</v>
+      <c r="AO12" s="13">
+        <v>0</v>
       </c>
       <c r="AP12" s="13">
         <v>0</v>
       </c>
-      <c r="AQ12" s="13">
-        <v>0</v>
+      <c r="AQ12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR12" s="13" t="s">
         <v>58</v>
@@ -1770,7 +1805,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>61</v>
       </c>
@@ -1856,47 +1891,47 @@
       <c r="AD13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE13" s="11" t="s">
-        <v>58</v>
+      <c r="AE13" s="11">
+        <v>0</v>
       </c>
       <c r="AF13" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH13" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI13" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ13" s="11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AK13" s="11">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="AL13" s="11">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="AM13" s="11">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="AN13" s="11">
-        <v>221</v>
+        <v>650</v>
       </c>
       <c r="AO13" s="11">
-        <v>650</v>
+        <v>91</v>
       </c>
       <c r="AP13" s="11">
-        <v>91</v>
-      </c>
-      <c r="AQ13" s="11">
         <v>12</v>
       </c>
-      <c r="AR13" s="11" t="s">
-        <v>58</v>
+      <c r="AQ13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>0</v>
       </c>
       <c r="AS13" s="11">
         <v>0</v>
@@ -1911,25 +1946,25 @@
         <v>0</v>
       </c>
       <c r="AW13" s="11">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="AX13" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AY13" s="11">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="AZ13" s="11">
-        <v>68</v>
+        <v>465</v>
       </c>
       <c r="BA13" s="11">
-        <v>465</v>
+        <v>35</v>
       </c>
       <c r="BB13" s="11">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>62</v>
       </c>
@@ -2015,80 +2050,80 @@
       <c r="AD14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE14" s="13" t="s">
-        <v>58</v>
+      <c r="AE14" s="13">
+        <v>1707</v>
       </c>
       <c r="AF14" s="13">
-        <v>1707</v>
+        <v>1923</v>
       </c>
       <c r="AG14" s="13">
-        <v>1923</v>
+        <v>2389</v>
       </c>
       <c r="AH14" s="13">
-        <v>2389</v>
+        <v>1998</v>
       </c>
       <c r="AI14" s="13">
-        <v>1998</v>
+        <v>1918</v>
       </c>
       <c r="AJ14" s="13">
-        <v>1918</v>
+        <v>1644</v>
       </c>
       <c r="AK14" s="13">
-        <v>1644</v>
+        <v>1539</v>
       </c>
       <c r="AL14" s="13">
-        <v>1539</v>
+        <v>1747</v>
       </c>
       <c r="AM14" s="13">
-        <v>1747</v>
+        <v>1149</v>
       </c>
       <c r="AN14" s="13">
-        <v>1149</v>
+        <v>1315</v>
       </c>
       <c r="AO14" s="13">
-        <v>1315</v>
+        <v>1546</v>
       </c>
       <c r="AP14" s="13">
-        <v>1546</v>
+        <v>1638</v>
       </c>
       <c r="AQ14" s="13">
-        <v>1638</v>
+        <v>1854</v>
       </c>
       <c r="AR14" s="13">
-        <v>1854</v>
+        <v>2336</v>
       </c>
       <c r="AS14" s="13">
-        <v>2336</v>
+        <v>2423</v>
       </c>
       <c r="AT14" s="13">
-        <v>2423</v>
+        <v>1462</v>
       </c>
       <c r="AU14" s="13">
-        <v>1462</v>
+        <v>1303</v>
       </c>
       <c r="AV14" s="13">
-        <v>1303</v>
+        <v>1380</v>
       </c>
       <c r="AW14" s="13">
-        <v>1380</v>
+        <v>1591</v>
       </c>
       <c r="AX14" s="13">
-        <v>1591</v>
+        <v>1466</v>
       </c>
       <c r="AY14" s="13">
-        <v>1466</v>
+        <v>879</v>
       </c>
       <c r="AZ14" s="13">
-        <v>879</v>
+        <v>754</v>
       </c>
       <c r="BA14" s="13">
-        <v>754</v>
+        <v>1772</v>
       </c>
       <c r="BB14" s="13">
-        <v>1772</v>
+        <v>1706</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>63</v>
       </c>
@@ -2174,80 +2209,80 @@
       <c r="AD15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE15" s="11" t="s">
-        <v>58</v>
+      <c r="AE15" s="11">
+        <v>4784</v>
       </c>
       <c r="AF15" s="11">
-        <v>4784</v>
+        <v>5825</v>
       </c>
       <c r="AG15" s="11">
-        <v>5825</v>
+        <v>4998</v>
       </c>
       <c r="AH15" s="11">
-        <v>4998</v>
+        <v>8309</v>
       </c>
       <c r="AI15" s="11">
-        <v>8309</v>
+        <v>4622</v>
       </c>
       <c r="AJ15" s="11">
-        <v>4622</v>
+        <v>5655</v>
       </c>
       <c r="AK15" s="11">
-        <v>5655</v>
+        <v>5902</v>
       </c>
       <c r="AL15" s="11">
-        <v>5902</v>
+        <v>5281</v>
       </c>
       <c r="AM15" s="11">
-        <v>5281</v>
+        <v>6437</v>
       </c>
       <c r="AN15" s="11">
-        <v>6437</v>
+        <v>5880</v>
       </c>
       <c r="AO15" s="11">
-        <v>5880</v>
+        <v>5620</v>
       </c>
       <c r="AP15" s="11">
-        <v>5620</v>
+        <v>8209</v>
       </c>
       <c r="AQ15" s="11">
-        <v>8209</v>
+        <v>4779</v>
       </c>
       <c r="AR15" s="11">
-        <v>4779</v>
+        <v>6636</v>
       </c>
       <c r="AS15" s="11">
-        <v>6636</v>
+        <v>5435</v>
       </c>
       <c r="AT15" s="11">
-        <v>5435</v>
+        <v>4809</v>
       </c>
       <c r="AU15" s="11">
-        <v>4809</v>
+        <v>6108</v>
       </c>
       <c r="AV15" s="11">
-        <v>6108</v>
+        <v>11809</v>
       </c>
       <c r="AW15" s="11">
-        <v>11809</v>
+        <v>3948</v>
       </c>
       <c r="AX15" s="11">
-        <v>3948</v>
+        <v>7747</v>
       </c>
       <c r="AY15" s="11">
-        <v>7747</v>
+        <v>5848</v>
       </c>
       <c r="AZ15" s="11">
-        <v>5848</v>
+        <v>5357</v>
       </c>
       <c r="BA15" s="11">
-        <v>5357</v>
+        <v>5789</v>
       </c>
       <c r="BB15" s="11">
-        <v>5789</v>
+        <v>12023</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>64</v>
       </c>
@@ -2333,80 +2368,80 @@
       <c r="AD16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE16" s="13" t="s">
-        <v>58</v>
+      <c r="AE16" s="13">
+        <v>4940</v>
       </c>
       <c r="AF16" s="13">
-        <v>4940</v>
+        <v>4975</v>
       </c>
       <c r="AG16" s="13">
-        <v>4975</v>
+        <v>4669</v>
       </c>
       <c r="AH16" s="13">
-        <v>4669</v>
+        <v>5074</v>
       </c>
       <c r="AI16" s="13">
-        <v>5074</v>
+        <v>5603</v>
       </c>
       <c r="AJ16" s="13">
-        <v>5603</v>
+        <v>5818</v>
       </c>
       <c r="AK16" s="13">
-        <v>5818</v>
+        <v>6082</v>
       </c>
       <c r="AL16" s="13">
-        <v>6082</v>
+        <v>6338</v>
       </c>
       <c r="AM16" s="13">
-        <v>6338</v>
+        <v>6747</v>
       </c>
       <c r="AN16" s="13">
-        <v>6747</v>
+        <v>6681</v>
       </c>
       <c r="AO16" s="13">
-        <v>6681</v>
+        <v>6701</v>
       </c>
       <c r="AP16" s="13">
-        <v>6701</v>
+        <v>6215</v>
       </c>
       <c r="AQ16" s="13">
-        <v>6215</v>
+        <v>6354</v>
       </c>
       <c r="AR16" s="13">
-        <v>6354</v>
+        <v>6138</v>
       </c>
       <c r="AS16" s="13">
-        <v>6138</v>
+        <v>5667</v>
       </c>
       <c r="AT16" s="13">
-        <v>5667</v>
+        <v>5212</v>
       </c>
       <c r="AU16" s="13">
-        <v>5212</v>
+        <v>4661</v>
       </c>
       <c r="AV16" s="13">
-        <v>4661</v>
+        <v>4315</v>
       </c>
       <c r="AW16" s="13">
-        <v>4315</v>
+        <v>4609</v>
       </c>
       <c r="AX16" s="13">
-        <v>4609</v>
+        <v>4828</v>
       </c>
       <c r="AY16" s="13">
-        <v>4828</v>
+        <v>5217</v>
       </c>
       <c r="AZ16" s="13">
-        <v>5217</v>
+        <v>5162</v>
       </c>
       <c r="BA16" s="13">
-        <v>5162</v>
+        <v>5039</v>
       </c>
       <c r="BB16" s="13">
-        <v>5039</v>
+        <v>4905</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>65</v>
       </c>
@@ -2492,80 +2527,80 @@
       <c r="AD17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE17" s="11" t="s">
-        <v>58</v>
+      <c r="AE17" s="11">
+        <v>946</v>
       </c>
       <c r="AF17" s="11">
-        <v>946</v>
+        <v>1549</v>
       </c>
       <c r="AG17" s="11">
-        <v>1549</v>
+        <v>1213</v>
       </c>
       <c r="AH17" s="11">
-        <v>1213</v>
+        <v>1325</v>
       </c>
       <c r="AI17" s="11">
-        <v>1325</v>
+        <v>1577</v>
       </c>
       <c r="AJ17" s="11">
-        <v>1577</v>
+        <v>1758</v>
       </c>
       <c r="AK17" s="11">
-        <v>1758</v>
+        <v>1683</v>
       </c>
       <c r="AL17" s="11">
-        <v>1683</v>
+        <v>1784</v>
       </c>
       <c r="AM17" s="11">
-        <v>1784</v>
+        <v>1791</v>
       </c>
       <c r="AN17" s="11">
-        <v>1791</v>
+        <v>1511</v>
       </c>
       <c r="AO17" s="11">
-        <v>1511</v>
+        <v>1695</v>
       </c>
       <c r="AP17" s="11">
-        <v>1695</v>
+        <v>1406</v>
       </c>
       <c r="AQ17" s="11">
-        <v>1406</v>
+        <v>1105</v>
       </c>
       <c r="AR17" s="11">
-        <v>1105</v>
+        <v>722</v>
       </c>
       <c r="AS17" s="11">
-        <v>722</v>
+        <v>1544</v>
       </c>
       <c r="AT17" s="11">
-        <v>1544</v>
+        <v>1567</v>
       </c>
       <c r="AU17" s="11">
-        <v>1567</v>
+        <v>2229</v>
       </c>
       <c r="AV17" s="11">
-        <v>2229</v>
+        <v>1333</v>
       </c>
       <c r="AW17" s="11">
-        <v>1333</v>
+        <v>241</v>
       </c>
       <c r="AX17" s="11">
-        <v>241</v>
+        <v>1207</v>
       </c>
       <c r="AY17" s="11">
-        <v>1207</v>
+        <v>750</v>
       </c>
       <c r="AZ17" s="11">
-        <v>750</v>
+        <v>943</v>
       </c>
       <c r="BA17" s="11">
-        <v>943</v>
+        <v>1227</v>
       </c>
       <c r="BB17" s="11">
-        <v>1227</v>
+        <v>1008</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>67</v>
       </c>
@@ -2651,8 +2686,8 @@
       <c r="AD18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE18" s="13" t="s">
-        <v>58</v>
+      <c r="AE18" s="13">
+        <v>0</v>
       </c>
       <c r="AF18" s="13">
         <v>0</v>
@@ -2664,22 +2699,22 @@
         <v>0</v>
       </c>
       <c r="AI18" s="13">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ18" s="13">
-        <v>25</v>
-      </c>
-      <c r="AK18" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM18" s="13" t="s">
-        <v>58</v>
+      <c r="AM18" s="13">
+        <v>198</v>
       </c>
       <c r="AN18" s="13">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="13">
         <v>0</v>
@@ -2688,43 +2723,43 @@
         <v>0</v>
       </c>
       <c r="AQ18" s="13">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AR18" s="13">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="AS18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="13">
+        <v>258</v>
+      </c>
+      <c r="AU18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="13">
         <v>30</v>
       </c>
-      <c r="AT18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="13">
-        <v>258</v>
-      </c>
-      <c r="AV18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX18" s="13">
-        <v>0</v>
-      </c>
       <c r="AY18" s="13">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AZ18" s="13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="BA18" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BB18" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>68</v>
       </c>
@@ -2849,8 +2884,8 @@
       <c r="AQ19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR19" s="11" t="s">
-        <v>58</v>
+      <c r="AR19" s="11">
+        <v>0</v>
       </c>
       <c r="AS19" s="11">
         <v>0</v>
@@ -2883,7 +2918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>69</v>
       </c>
@@ -3008,8 +3043,8 @@
       <c r="AQ20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR20" s="13" t="s">
-        <v>58</v>
+      <c r="AR20" s="13">
+        <v>0</v>
       </c>
       <c r="AS20" s="13">
         <v>0</v>
@@ -3042,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>70</v>
       </c>
@@ -3128,80 +3163,80 @@
       <c r="AD21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE21" s="11" t="s">
-        <v>58</v>
+      <c r="AE21" s="11">
+        <v>480</v>
       </c>
       <c r="AF21" s="11">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="AG21" s="11">
-        <v>488</v>
+        <v>406</v>
       </c>
       <c r="AH21" s="11">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="AI21" s="11">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="AJ21" s="11">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="AK21" s="11">
-        <v>348</v>
+        <v>468</v>
       </c>
       <c r="AL21" s="11">
-        <v>468</v>
+        <v>511</v>
       </c>
       <c r="AM21" s="11">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="AN21" s="11">
-        <v>477</v>
+        <v>378</v>
       </c>
       <c r="AO21" s="11">
-        <v>378</v>
+        <v>497</v>
       </c>
       <c r="AP21" s="11">
-        <v>497</v>
+        <v>534</v>
       </c>
       <c r="AQ21" s="11">
-        <v>534</v>
+        <v>569</v>
       </c>
       <c r="AR21" s="11">
-        <v>569</v>
+        <v>506</v>
       </c>
       <c r="AS21" s="11">
-        <v>506</v>
+        <v>422</v>
       </c>
       <c r="AT21" s="11">
-        <v>422</v>
+        <v>1034</v>
       </c>
       <c r="AU21" s="11">
-        <v>1034</v>
+        <v>83</v>
       </c>
       <c r="AV21" s="11">
-        <v>83</v>
+        <v>559</v>
       </c>
       <c r="AW21" s="11">
-        <v>559</v>
+        <v>520</v>
       </c>
       <c r="AX21" s="11">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="AY21" s="11">
-        <v>524</v>
+        <v>414</v>
       </c>
       <c r="AZ21" s="11">
-        <v>414</v>
+        <v>312</v>
       </c>
       <c r="BA21" s="11">
-        <v>312</v>
+        <v>597</v>
       </c>
       <c r="BB21" s="11">
-        <v>599</v>
+        <v>473</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>71</v>
       </c>
@@ -3326,8 +3361,8 @@
       <c r="AQ22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR22" s="13" t="s">
-        <v>58</v>
+      <c r="AR22" s="13">
+        <v>0</v>
       </c>
       <c r="AS22" s="13">
         <v>0</v>
@@ -3360,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>72</v>
       </c>
@@ -3485,8 +3520,8 @@
       <c r="AQ23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR23" s="11" t="s">
-        <v>58</v>
+      <c r="AR23" s="11">
+        <v>0</v>
       </c>
       <c r="AS23" s="11">
         <v>0</v>
@@ -3519,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>74</v>
       </c>
@@ -3644,8 +3679,8 @@
       <c r="AQ24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR24" s="13" t="s">
-        <v>58</v>
+      <c r="AR24" s="13">
+        <v>0</v>
       </c>
       <c r="AS24" s="13">
         <v>0</v>
@@ -3678,7 +3713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>75</v>
       </c>
@@ -3763,79 +3798,79 @@
         <v>0</v>
       </c>
       <c r="AE25" s="15">
-        <v>0</v>
+        <v>12857</v>
       </c>
       <c r="AF25" s="15">
-        <v>12857</v>
+        <v>16386</v>
       </c>
       <c r="AG25" s="15">
-        <v>16386</v>
+        <v>13784</v>
       </c>
       <c r="AH25" s="15">
-        <v>13784</v>
+        <v>17336</v>
       </c>
       <c r="AI25" s="15">
-        <v>17336</v>
+        <v>15273</v>
       </c>
       <c r="AJ25" s="15">
-        <v>15273</v>
+        <v>15223</v>
       </c>
       <c r="AK25" s="15">
-        <v>15223</v>
+        <v>15793</v>
       </c>
       <c r="AL25" s="15">
-        <v>15793</v>
+        <v>15669</v>
       </c>
       <c r="AM25" s="15">
-        <v>15669</v>
+        <v>17020</v>
       </c>
       <c r="AN25" s="15">
-        <v>17020</v>
+        <v>16415</v>
       </c>
       <c r="AO25" s="15">
-        <v>16415</v>
+        <v>16150</v>
       </c>
       <c r="AP25" s="15">
-        <v>16150</v>
+        <v>18014</v>
       </c>
       <c r="AQ25" s="15">
-        <v>18014</v>
+        <v>14732</v>
       </c>
       <c r="AR25" s="15">
-        <v>14732</v>
+        <v>16368</v>
       </c>
       <c r="AS25" s="15">
-        <v>16368</v>
+        <v>15491</v>
       </c>
       <c r="AT25" s="15">
-        <v>15491</v>
+        <v>14371</v>
       </c>
       <c r="AU25" s="15">
-        <v>14371</v>
+        <v>14388</v>
       </c>
       <c r="AV25" s="15">
-        <v>14388</v>
+        <v>19406</v>
       </c>
       <c r="AW25" s="15">
-        <v>19406</v>
+        <v>11053</v>
       </c>
       <c r="AX25" s="15">
-        <v>11053</v>
+        <v>16055</v>
       </c>
       <c r="AY25" s="15">
-        <v>16055</v>
+        <v>13200</v>
       </c>
       <c r="AZ25" s="15">
-        <v>13200</v>
+        <v>13008</v>
       </c>
       <c r="BA25" s="15">
-        <v>13008</v>
+        <v>14467</v>
       </c>
       <c r="BB25" s="15">
-        <v>14469</v>
+        <v>20138</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>76</v>
       </c>
@@ -3892,7 +3927,7 @@
       <c r="BA26" s="17"/>
       <c r="BB26" s="17"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>77</v>
       </c>
@@ -4049,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>78</v>
       </c>
@@ -4106,7 +4141,7 @@
       <c r="BA28" s="17"/>
       <c r="BB28" s="17"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>79</v>
       </c>
@@ -4190,8 +4225,8 @@
       <c r="AD29" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AE29" s="15" t="s">
-        <v>58</v>
+      <c r="AE29" s="15">
+        <v>0</v>
       </c>
       <c r="AF29" s="15">
         <v>0</v>
@@ -4232,8 +4267,8 @@
       <c r="AR29" s="15">
         <v>0</v>
       </c>
-      <c r="AS29" s="15">
-        <v>0</v>
+      <c r="AS29" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AT29" s="15" t="s">
         <v>58</v>
@@ -4263,7 +4298,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="18" t="s">
         <v>80</v>
       </c>
@@ -4348,79 +4383,79 @@
         <v>0</v>
       </c>
       <c r="AE30" s="19">
-        <v>0</v>
+        <v>12857</v>
       </c>
       <c r="AF30" s="19">
-        <v>12857</v>
+        <v>16386</v>
       </c>
       <c r="AG30" s="19">
-        <v>16386</v>
+        <v>13784</v>
       </c>
       <c r="AH30" s="19">
-        <v>13784</v>
+        <v>17336</v>
       </c>
       <c r="AI30" s="19">
-        <v>17336</v>
+        <v>15273</v>
       </c>
       <c r="AJ30" s="19">
-        <v>15273</v>
+        <v>15223</v>
       </c>
       <c r="AK30" s="19">
-        <v>15223</v>
+        <v>15793</v>
       </c>
       <c r="AL30" s="19">
-        <v>15793</v>
+        <v>15669</v>
       </c>
       <c r="AM30" s="19">
-        <v>15669</v>
+        <v>17020</v>
       </c>
       <c r="AN30" s="19">
-        <v>17020</v>
+        <v>16415</v>
       </c>
       <c r="AO30" s="19">
-        <v>16415</v>
+        <v>16150</v>
       </c>
       <c r="AP30" s="19">
-        <v>16150</v>
+        <v>18014</v>
       </c>
       <c r="AQ30" s="19">
-        <v>18014</v>
+        <v>14732</v>
       </c>
       <c r="AR30" s="19">
-        <v>14732</v>
+        <v>16368</v>
       </c>
       <c r="AS30" s="19">
-        <v>16368</v>
+        <v>15491</v>
       </c>
       <c r="AT30" s="19">
-        <v>15491</v>
+        <v>14371</v>
       </c>
       <c r="AU30" s="19">
-        <v>14371</v>
+        <v>14388</v>
       </c>
       <c r="AV30" s="19">
-        <v>14388</v>
+        <v>19406</v>
       </c>
       <c r="AW30" s="19">
-        <v>19406</v>
+        <v>11053</v>
       </c>
       <c r="AX30" s="19">
-        <v>11053</v>
+        <v>16055</v>
       </c>
       <c r="AY30" s="19">
-        <v>16055</v>
+        <v>13200</v>
       </c>
       <c r="AZ30" s="19">
-        <v>13200</v>
+        <v>13008</v>
       </c>
       <c r="BA30" s="19">
-        <v>13008</v>
+        <v>14467</v>
       </c>
       <c r="BB30" s="19">
-        <v>14469</v>
+        <v>20138</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4475,7 +4510,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4530,7 +4565,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4585,7 +4620,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>81</v>
       </c>
@@ -4742,7 +4777,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4797,7 +4832,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>82</v>
       </c>
@@ -4854,7 +4889,7 @@
       <c r="BA36" s="9"/>
       <c r="BB36" s="9"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>56</v>
       </c>
@@ -4970,50 +5005,50 @@
       <c r="AN37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO37" s="11" t="s">
-        <v>58</v>
+      <c r="AO37" s="11">
+        <v>0</v>
       </c>
       <c r="AP37" s="11">
         <v>0</v>
       </c>
-      <c r="AQ37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR37" s="11" t="s">
-        <v>58</v>
+      <c r="AQ37" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR37" s="11">
+        <v>0</v>
       </c>
       <c r="AS37" s="11">
         <v>0</v>
       </c>
       <c r="AT37" s="11">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AU37" s="11">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="AV37" s="11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AW37" s="11">
+        <v>6</v>
+      </c>
+      <c r="AX37" s="11">
+        <v>114</v>
+      </c>
+      <c r="AY37" s="11">
+        <v>9</v>
+      </c>
+      <c r="AZ37" s="11">
         <v>10</v>
       </c>
-      <c r="AX37" s="11">
-        <v>6</v>
-      </c>
-      <c r="AY37" s="11">
-        <v>114</v>
-      </c>
-      <c r="AZ37" s="11">
-        <v>9</v>
-      </c>
       <c r="BA37" s="11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB37" s="11">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -5102,23 +5137,23 @@
       <c r="AE38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF38" s="13" t="s">
-        <v>58</v>
+      <c r="AF38" s="13">
+        <v>1625</v>
       </c>
       <c r="AG38" s="13">
-        <v>1625</v>
+        <v>109</v>
       </c>
       <c r="AH38" s="13">
-        <v>109</v>
+        <v>244</v>
       </c>
       <c r="AI38" s="13">
-        <v>244</v>
+        <v>1163</v>
       </c>
       <c r="AJ38" s="13">
-        <v>1163</v>
-      </c>
-      <c r="AK38" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AK38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL38" s="13" t="s">
         <v>58</v>
@@ -5129,14 +5164,14 @@
       <c r="AN38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO38" s="13" t="s">
-        <v>58</v>
+      <c r="AO38" s="13">
+        <v>0</v>
       </c>
       <c r="AP38" s="13">
         <v>0</v>
       </c>
-      <c r="AQ38" s="13">
-        <v>0</v>
+      <c r="AQ38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR38" s="13" t="s">
         <v>58</v>
@@ -5172,7 +5207,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>61</v>
       </c>
@@ -5258,80 +5293,80 @@
       <c r="AD39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE39" s="11" t="s">
-        <v>58</v>
+      <c r="AE39" s="11">
+        <v>0</v>
       </c>
       <c r="AF39" s="11">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG39" s="11">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AH39" s="11">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="AI39" s="11">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="AJ39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="11">
+        <v>119</v>
+      </c>
+      <c r="AL39" s="11">
+        <v>8</v>
+      </c>
+      <c r="AM39" s="11">
+        <v>128</v>
+      </c>
+      <c r="AN39" s="11">
+        <v>590</v>
+      </c>
+      <c r="AO39" s="11">
+        <v>76</v>
+      </c>
+      <c r="AP39" s="11">
+        <v>39</v>
+      </c>
+      <c r="AQ39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="11">
+        <v>119</v>
+      </c>
+      <c r="AT39" s="11">
+        <v>7</v>
+      </c>
+      <c r="AU39" s="11">
+        <v>-18</v>
+      </c>
+      <c r="AV39" s="11">
         <v>5</v>
       </c>
-      <c r="AK39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL39" s="11">
-        <v>119</v>
-      </c>
-      <c r="AM39" s="11">
-        <v>8</v>
-      </c>
-      <c r="AN39" s="11">
-        <v>128</v>
-      </c>
-      <c r="AO39" s="11">
-        <v>590</v>
-      </c>
-      <c r="AP39" s="11">
-        <v>76</v>
-      </c>
-      <c r="AQ39" s="11">
-        <v>39</v>
-      </c>
-      <c r="AR39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT39" s="11">
-        <v>119</v>
-      </c>
-      <c r="AU39" s="11">
-        <v>7</v>
-      </c>
-      <c r="AV39" s="11">
-        <v>-18</v>
-      </c>
       <c r="AW39" s="11">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="AX39" s="11">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="AY39" s="11">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="AZ39" s="11">
-        <v>18</v>
+        <v>430</v>
       </c>
       <c r="BA39" s="11">
-        <v>430</v>
+        <v>37</v>
       </c>
       <c r="BB39" s="11">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>62</v>
       </c>
@@ -5417,80 +5452,80 @@
       <c r="AD40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE40" s="13" t="s">
-        <v>58</v>
+      <c r="AE40" s="13">
+        <v>76</v>
       </c>
       <c r="AF40" s="13">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="AG40" s="13">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AH40" s="13">
+        <v>34</v>
+      </c>
+      <c r="AI40" s="13">
+        <v>94</v>
+      </c>
+      <c r="AJ40" s="13">
+        <v>59</v>
+      </c>
+      <c r="AK40" s="13">
+        <v>104</v>
+      </c>
+      <c r="AL40" s="13">
+        <v>53</v>
+      </c>
+      <c r="AM40" s="13">
+        <v>34</v>
+      </c>
+      <c r="AN40" s="13">
+        <v>73</v>
+      </c>
+      <c r="AO40" s="13">
+        <v>157</v>
+      </c>
+      <c r="AP40" s="13">
+        <v>105</v>
+      </c>
+      <c r="AQ40" s="13">
+        <v>138</v>
+      </c>
+      <c r="AR40" s="13">
         <v>110</v>
       </c>
-      <c r="AI40" s="13">
-        <v>34</v>
-      </c>
-      <c r="AJ40" s="13">
-        <v>94</v>
-      </c>
-      <c r="AK40" s="13">
-        <v>59</v>
-      </c>
-      <c r="AL40" s="13">
-        <v>104</v>
-      </c>
-      <c r="AM40" s="13">
-        <v>53</v>
-      </c>
-      <c r="AN40" s="13">
-        <v>34</v>
-      </c>
-      <c r="AO40" s="13">
-        <v>73</v>
-      </c>
-      <c r="AP40" s="13">
-        <v>157</v>
-      </c>
-      <c r="AQ40" s="13">
-        <v>105</v>
-      </c>
-      <c r="AR40" s="13">
-        <v>138</v>
-      </c>
       <c r="AS40" s="13">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="AT40" s="13">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="AU40" s="13">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="AV40" s="13">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="AW40" s="13">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AX40" s="13">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="AY40" s="13">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AZ40" s="13">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="BA40" s="13">
-        <v>118</v>
+        <v>319</v>
       </c>
       <c r="BB40" s="13">
-        <v>319</v>
+        <v>262</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>63</v>
       </c>
@@ -5576,80 +5611,80 @@
       <c r="AD41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE41" s="11" t="s">
-        <v>58</v>
+      <c r="AE41" s="11">
+        <v>4583</v>
       </c>
       <c r="AF41" s="11">
-        <v>4583</v>
+        <v>6039</v>
       </c>
       <c r="AG41" s="11">
-        <v>6039</v>
+        <v>7333</v>
       </c>
       <c r="AH41" s="11">
-        <v>7333</v>
+        <v>9209</v>
       </c>
       <c r="AI41" s="11">
-        <v>9209</v>
+        <v>4504</v>
       </c>
       <c r="AJ41" s="11">
-        <v>4504</v>
+        <v>5452</v>
       </c>
       <c r="AK41" s="11">
-        <v>5452</v>
+        <v>5674</v>
       </c>
       <c r="AL41" s="11">
-        <v>5674</v>
+        <v>5052</v>
       </c>
       <c r="AM41" s="11">
-        <v>5052</v>
+        <v>6215</v>
       </c>
       <c r="AN41" s="11">
-        <v>6215</v>
+        <v>5661</v>
       </c>
       <c r="AO41" s="11">
-        <v>5661</v>
+        <v>5396</v>
       </c>
       <c r="AP41" s="11">
-        <v>5396</v>
+        <v>8097</v>
       </c>
       <c r="AQ41" s="11">
-        <v>8097</v>
+        <v>4636</v>
       </c>
       <c r="AR41" s="11">
-        <v>4636</v>
+        <v>6402</v>
       </c>
       <c r="AS41" s="11">
-        <v>6402</v>
+        <v>5678</v>
       </c>
       <c r="AT41" s="11">
-        <v>5678</v>
+        <v>4125</v>
       </c>
       <c r="AU41" s="11">
-        <v>4125</v>
+        <v>5874</v>
       </c>
       <c r="AV41" s="11">
-        <v>5874</v>
+        <v>11586</v>
       </c>
       <c r="AW41" s="11">
-        <v>11586</v>
+        <v>3695</v>
       </c>
       <c r="AX41" s="11">
-        <v>3695</v>
+        <v>7498</v>
       </c>
       <c r="AY41" s="11">
-        <v>7498</v>
+        <v>5631</v>
       </c>
       <c r="AZ41" s="11">
-        <v>5631</v>
+        <v>7783</v>
       </c>
       <c r="BA41" s="11">
-        <v>7783</v>
+        <v>7649</v>
       </c>
       <c r="BB41" s="11">
-        <v>7649</v>
+        <v>11812</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>64</v>
       </c>
@@ -5735,80 +5770,80 @@
       <c r="AD42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE42" s="13" t="s">
-        <v>58</v>
+      <c r="AE42" s="13">
+        <v>5422</v>
       </c>
       <c r="AF42" s="13">
-        <v>5422</v>
+        <v>5089</v>
       </c>
       <c r="AG42" s="13">
-        <v>5089</v>
+        <v>4699</v>
       </c>
       <c r="AH42" s="13">
-        <v>4699</v>
+        <v>4734</v>
       </c>
       <c r="AI42" s="13">
-        <v>4734</v>
+        <v>5849</v>
       </c>
       <c r="AJ42" s="13">
-        <v>5849</v>
+        <v>6095</v>
       </c>
       <c r="AK42" s="13">
-        <v>6095</v>
+        <v>5933</v>
       </c>
       <c r="AL42" s="13">
-        <v>5933</v>
+        <v>6295</v>
       </c>
       <c r="AM42" s="13">
-        <v>6295</v>
+        <v>6928</v>
       </c>
       <c r="AN42" s="13">
-        <v>6928</v>
+        <v>6374</v>
       </c>
       <c r="AO42" s="13">
-        <v>6374</v>
+        <v>6697</v>
       </c>
       <c r="AP42" s="13">
-        <v>6697</v>
+        <v>6458</v>
       </c>
       <c r="AQ42" s="13">
-        <v>6458</v>
+        <v>6204</v>
       </c>
       <c r="AR42" s="13">
-        <v>6204</v>
+        <v>5943</v>
       </c>
       <c r="AS42" s="13">
-        <v>5943</v>
+        <v>5822</v>
       </c>
       <c r="AT42" s="13">
-        <v>5822</v>
+        <v>5109</v>
       </c>
       <c r="AU42" s="13">
-        <v>5109</v>
+        <v>4303</v>
       </c>
       <c r="AV42" s="13">
-        <v>4303</v>
+        <v>4737</v>
       </c>
       <c r="AW42" s="13">
-        <v>4737</v>
+        <v>4389</v>
       </c>
       <c r="AX42" s="13">
-        <v>4389</v>
+        <v>4768</v>
       </c>
       <c r="AY42" s="13">
-        <v>4768</v>
+        <v>5274</v>
       </c>
       <c r="AZ42" s="13">
-        <v>5274</v>
+        <v>4918</v>
       </c>
       <c r="BA42" s="13">
-        <v>4918</v>
+        <v>5123</v>
       </c>
       <c r="BB42" s="13">
-        <v>5125</v>
+        <v>4959</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>65</v>
       </c>
@@ -5894,80 +5929,80 @@
       <c r="AD43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE43" s="11" t="s">
-        <v>58</v>
+      <c r="AE43" s="11">
+        <v>946</v>
       </c>
       <c r="AF43" s="11">
-        <v>946</v>
+        <v>1549</v>
       </c>
       <c r="AG43" s="11">
-        <v>1549</v>
+        <v>1213</v>
       </c>
       <c r="AH43" s="11">
-        <v>1213</v>
+        <v>1325</v>
       </c>
       <c r="AI43" s="11">
-        <v>1325</v>
+        <v>1577</v>
       </c>
       <c r="AJ43" s="11">
-        <v>1577</v>
+        <v>1758</v>
       </c>
       <c r="AK43" s="11">
-        <v>1758</v>
+        <v>1087</v>
       </c>
       <c r="AL43" s="11">
-        <v>1087</v>
+        <v>2379</v>
       </c>
       <c r="AM43" s="11">
-        <v>2379</v>
+        <v>1791</v>
       </c>
       <c r="AN43" s="11">
-        <v>1791</v>
+        <v>1511</v>
       </c>
       <c r="AO43" s="11">
-        <v>1511</v>
+        <v>1695</v>
       </c>
       <c r="AP43" s="11">
-        <v>1695</v>
+        <v>1406</v>
       </c>
       <c r="AQ43" s="11">
-        <v>1406</v>
+        <v>1105</v>
       </c>
       <c r="AR43" s="11">
-        <v>1105</v>
+        <v>722</v>
       </c>
       <c r="AS43" s="11">
-        <v>722</v>
+        <v>1544</v>
       </c>
       <c r="AT43" s="11">
-        <v>1544</v>
+        <v>648</v>
       </c>
       <c r="AU43" s="11">
-        <v>648</v>
+        <v>3148</v>
       </c>
       <c r="AV43" s="11">
-        <v>3148</v>
+        <v>1092</v>
       </c>
       <c r="AW43" s="11">
-        <v>1092</v>
+        <v>241</v>
       </c>
       <c r="AX43" s="11">
-        <v>241</v>
+        <v>1156</v>
       </c>
       <c r="AY43" s="11">
-        <v>1156</v>
+        <v>750</v>
       </c>
       <c r="AZ43" s="11">
-        <v>750</v>
+        <v>943</v>
       </c>
       <c r="BA43" s="11">
-        <v>943</v>
+        <v>1227</v>
       </c>
       <c r="BB43" s="11">
-        <v>1227</v>
+        <v>1000</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>67</v>
       </c>
@@ -6053,80 +6088,80 @@
       <c r="AD44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE44" s="13" t="s">
-        <v>58</v>
+      <c r="AE44" s="13">
+        <v>0</v>
       </c>
       <c r="AF44" s="13">
         <v>0</v>
       </c>
       <c r="AG44" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH44" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI44" s="13">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ44" s="13">
-        <v>25</v>
-      </c>
-      <c r="AK44" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AK44" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM44" s="13" t="s">
-        <v>58</v>
+      <c r="AM44" s="13">
+        <v>198</v>
       </c>
       <c r="AN44" s="13">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="AO44" s="13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AP44" s="13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="13">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AR44" s="13">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="AS44" s="13">
+        <v>230</v>
+      </c>
+      <c r="AT44" s="13">
+        <v>28</v>
+      </c>
+      <c r="AU44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX44" s="13">
         <v>30</v>
       </c>
-      <c r="AT44" s="13">
-        <v>230</v>
-      </c>
-      <c r="AU44" s="13">
-        <v>28</v>
-      </c>
-      <c r="AV44" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW44" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX44" s="13">
-        <v>0</v>
-      </c>
       <c r="AY44" s="13">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AZ44" s="13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="BA44" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BB44" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>68</v>
       </c>
@@ -6251,8 +6286,8 @@
       <c r="AQ45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR45" s="11" t="s">
-        <v>58</v>
+      <c r="AR45" s="11">
+        <v>0</v>
       </c>
       <c r="AS45" s="11">
         <v>0</v>
@@ -6285,7 +6320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>69</v>
       </c>
@@ -6410,8 +6445,8 @@
       <c r="AQ46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR46" s="13" t="s">
-        <v>58</v>
+      <c r="AR46" s="13">
+        <v>0</v>
       </c>
       <c r="AS46" s="13">
         <v>0</v>
@@ -6444,7 +6479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>70</v>
       </c>
@@ -6530,80 +6565,80 @@
       <c r="AD47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE47" s="11" t="s">
-        <v>58</v>
+      <c r="AE47" s="11">
+        <v>292</v>
       </c>
       <c r="AF47" s="11">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="AG47" s="11">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="AH47" s="11">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="AI47" s="11">
-        <v>138</v>
+        <v>239</v>
       </c>
       <c r="AJ47" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK47" s="11">
-        <v>240</v>
+        <v>353</v>
       </c>
       <c r="AL47" s="11">
-        <v>353</v>
+        <v>627</v>
       </c>
       <c r="AM47" s="11">
-        <v>627</v>
+        <v>469</v>
       </c>
       <c r="AN47" s="11">
-        <v>469</v>
+        <v>77</v>
       </c>
       <c r="AO47" s="11">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="AP47" s="11">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="AQ47" s="11">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="AR47" s="11">
-        <v>316</v>
+        <v>51</v>
       </c>
       <c r="AS47" s="11">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="AT47" s="11">
-        <v>84</v>
+        <v>1668</v>
       </c>
       <c r="AU47" s="11">
-        <v>1668</v>
+        <v>-1166</v>
       </c>
       <c r="AV47" s="11">
-        <v>-1166</v>
+        <v>156</v>
       </c>
       <c r="AW47" s="11">
-        <v>156</v>
+        <v>520</v>
       </c>
       <c r="AX47" s="11">
-        <v>520</v>
+        <v>157</v>
       </c>
       <c r="AY47" s="11">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AZ47" s="11">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="BA47" s="11">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="BB47" s="11">
-        <v>126</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
         <v>71</v>
       </c>
@@ -6728,8 +6763,8 @@
       <c r="AQ48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR48" s="13" t="s">
-        <v>58</v>
+      <c r="AR48" s="13">
+        <v>0</v>
       </c>
       <c r="AS48" s="13">
         <v>0</v>
@@ -6762,7 +6797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>72</v>
       </c>
@@ -6887,8 +6922,8 @@
       <c r="AQ49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR49" s="11" t="s">
-        <v>58</v>
+      <c r="AR49" s="11">
+        <v>0</v>
       </c>
       <c r="AS49" s="11">
         <v>0</v>
@@ -6921,7 +6956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>74</v>
       </c>
@@ -7046,8 +7081,8 @@
       <c r="AQ50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR50" s="13" t="s">
-        <v>58</v>
+      <c r="AR50" s="13">
+        <v>0</v>
       </c>
       <c r="AS50" s="13">
         <v>0</v>
@@ -7080,7 +7115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>83</v>
       </c>
@@ -7165,79 +7200,79 @@
         <v>0</v>
       </c>
       <c r="AE51" s="15">
-        <v>0</v>
+        <v>11319</v>
       </c>
       <c r="AF51" s="15">
-        <v>11319</v>
+        <v>14412</v>
       </c>
       <c r="AG51" s="15">
-        <v>14412</v>
+        <v>13621</v>
       </c>
       <c r="AH51" s="15">
-        <v>13621</v>
+        <v>15713</v>
       </c>
       <c r="AI51" s="15">
-        <v>15713</v>
+        <v>13456</v>
       </c>
       <c r="AJ51" s="15">
-        <v>13456</v>
+        <v>13604</v>
       </c>
       <c r="AK51" s="15">
-        <v>13604</v>
+        <v>13270</v>
       </c>
       <c r="AL51" s="15">
-        <v>13270</v>
+        <v>14414</v>
       </c>
       <c r="AM51" s="15">
-        <v>14414</v>
+        <v>15763</v>
       </c>
       <c r="AN51" s="15">
-        <v>15763</v>
+        <v>14286</v>
       </c>
       <c r="AO51" s="15">
-        <v>14286</v>
+        <v>14269</v>
       </c>
       <c r="AP51" s="15">
-        <v>14269</v>
+        <v>16393</v>
       </c>
       <c r="AQ51" s="15">
-        <v>16393</v>
+        <v>12470</v>
       </c>
       <c r="AR51" s="15">
-        <v>12470</v>
+        <v>13258</v>
       </c>
       <c r="AS51" s="15">
-        <v>13258</v>
+        <v>13603</v>
       </c>
       <c r="AT51" s="15">
-        <v>13603</v>
+        <v>11639</v>
       </c>
       <c r="AU51" s="15">
-        <v>11639</v>
+        <v>12288</v>
       </c>
       <c r="AV51" s="15">
-        <v>12288</v>
+        <v>17658</v>
       </c>
       <c r="AW51" s="15">
-        <v>17658</v>
+        <v>9066</v>
       </c>
       <c r="AX51" s="15">
-        <v>9066</v>
+        <v>13921</v>
       </c>
       <c r="AY51" s="15">
-        <v>13921</v>
+        <v>11734</v>
       </c>
       <c r="AZ51" s="15">
-        <v>11734</v>
+        <v>14260</v>
       </c>
       <c r="BA51" s="15">
-        <v>14260</v>
+        <v>14489</v>
       </c>
       <c r="BB51" s="15">
-        <v>14492</v>
+        <v>18136</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="16" t="s">
         <v>84</v>
       </c>
@@ -7294,7 +7329,7 @@
       <c r="BA52" s="17"/>
       <c r="BB52" s="17"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>85</v>
       </c>
@@ -7451,7 +7486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="16" t="s">
         <v>78</v>
       </c>
@@ -7508,7 +7543,7 @@
       <c r="BA54" s="17"/>
       <c r="BB54" s="17"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
         <v>79</v>
       </c>
@@ -7592,8 +7627,8 @@
       <c r="AD55" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AE55" s="15" t="s">
-        <v>58</v>
+      <c r="AE55" s="15">
+        <v>0</v>
       </c>
       <c r="AF55" s="15">
         <v>0</v>
@@ -7634,8 +7669,8 @@
       <c r="AR55" s="15">
         <v>0</v>
       </c>
-      <c r="AS55" s="15">
-        <v>0</v>
+      <c r="AS55" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AT55" s="15" t="s">
         <v>58</v>
@@ -7665,7 +7700,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>86</v>
       </c>
@@ -7722,7 +7757,7 @@
       <c r="BA56" s="9"/>
       <c r="BB56" s="9"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>56</v>
       </c>
@@ -7847,11 +7882,11 @@
       <c r="AQ57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS57" s="11">
-        <v>0</v>
+      <c r="AR57" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS57" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT57" s="11" t="s">
         <v>58</v>
@@ -7881,7 +7916,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>64</v>
       </c>
@@ -7970,47 +8005,47 @@
       <c r="AE58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF58" s="13" t="s">
-        <v>58</v>
+      <c r="AF58" s="13">
+        <v>-1</v>
       </c>
       <c r="AG58" s="13">
+        <v>-2</v>
+      </c>
+      <c r="AH58" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="13">
         <v>-1</v>
-      </c>
-      <c r="AH58" s="13">
-        <v>-2</v>
-      </c>
-      <c r="AI58" s="13">
-        <v>0</v>
       </c>
       <c r="AJ58" s="13">
         <v>-1</v>
       </c>
-      <c r="AK58" s="13">
+      <c r="AK58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL58" s="13">
+        <v>-41</v>
+      </c>
+      <c r="AM58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO58" s="13">
+        <v>-4</v>
+      </c>
+      <c r="AP58" s="13">
         <v>-1</v>
       </c>
-      <c r="AL58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM58" s="13">
-        <v>-41</v>
-      </c>
-      <c r="AN58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP58" s="13">
-        <v>-4</v>
-      </c>
-      <c r="AQ58" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AR58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS58" s="13">
-        <v>0</v>
+      <c r="AQ58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR58" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS58" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT58" s="13" t="s">
         <v>58</v>
@@ -8040,7 +8075,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>87</v>
       </c>
@@ -8129,48 +8164,48 @@
       <c r="AE59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF59" s="11" t="s">
-        <v>58</v>
+      <c r="AF59" s="11">
+        <v>-16</v>
       </c>
       <c r="AG59" s="11">
-        <v>-16</v>
+        <v>-3370</v>
       </c>
       <c r="AH59" s="11">
-        <v>-3370</v>
+        <v>0</v>
       </c>
       <c r="AI59" s="11">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AJ59" s="11">
         <v>-2</v>
       </c>
-      <c r="AK59" s="11">
+      <c r="AK59" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL59" s="11">
+        <v>-80</v>
+      </c>
+      <c r="AM59" s="11">
+        <v>-100</v>
+      </c>
+      <c r="AN59" s="11">
+        <v>-10</v>
+      </c>
+      <c r="AO59" s="11">
+        <v>-175</v>
+      </c>
+      <c r="AP59" s="11">
+        <v>-28</v>
+      </c>
+      <c r="AQ59" s="11">
         <v>-2</v>
       </c>
-      <c r="AL59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM59" s="11">
-        <v>-80</v>
-      </c>
-      <c r="AN59" s="11">
-        <v>-100</v>
-      </c>
-      <c r="AO59" s="11">
-        <v>-10</v>
-      </c>
-      <c r="AP59" s="11">
-        <v>-175</v>
-      </c>
-      <c r="AQ59" s="11">
-        <v>-28</v>
-      </c>
       <c r="AR59" s="11">
-        <v>-2</v>
-      </c>
-      <c r="AS59" s="11">
         <v>-1</v>
       </c>
+      <c r="AS59" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT59" s="11" t="s">
         <v>58</v>
       </c>
@@ -8199,7 +8234,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="18" t="s">
         <v>88</v>
       </c>
@@ -8283,51 +8318,51 @@
       <c r="AD60" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AE60" s="19" t="s">
-        <v>58</v>
+      <c r="AE60" s="19">
+        <v>0</v>
       </c>
       <c r="AF60" s="19">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="AG60" s="19">
-        <v>-17</v>
+        <v>-3372</v>
       </c>
       <c r="AH60" s="19">
-        <v>-3372</v>
+        <v>0</v>
       </c>
       <c r="AI60" s="19">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AJ60" s="19">
         <v>-3</v>
       </c>
       <c r="AK60" s="19">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AL60" s="19">
-        <v>0</v>
+        <v>-121</v>
       </c>
       <c r="AM60" s="19">
-        <v>-121</v>
+        <v>-100</v>
       </c>
       <c r="AN60" s="19">
-        <v>-100</v>
+        <v>-10</v>
       </c>
       <c r="AO60" s="19">
-        <v>-10</v>
+        <v>-179</v>
       </c>
       <c r="AP60" s="19">
-        <v>-179</v>
+        <v>-29</v>
       </c>
       <c r="AQ60" s="19">
-        <v>-29</v>
+        <v>-2</v>
       </c>
       <c r="AR60" s="19">
-        <v>-2</v>
-      </c>
-      <c r="AS60" s="19">
         <v>-1</v>
       </c>
+      <c r="AS60" s="19" t="s">
+        <v>58</v>
+      </c>
       <c r="AT60" s="19" t="s">
         <v>58</v>
       </c>
@@ -8356,7 +8391,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="14" t="s">
         <v>80</v>
       </c>
@@ -8441,79 +8476,79 @@
         <v>0</v>
       </c>
       <c r="AE61" s="15">
-        <v>0</v>
+        <v>11319</v>
       </c>
       <c r="AF61" s="15">
-        <v>11319</v>
+        <v>14395</v>
       </c>
       <c r="AG61" s="15">
-        <v>14395</v>
+        <v>10249</v>
       </c>
       <c r="AH61" s="15">
-        <v>10249</v>
+        <v>15713</v>
       </c>
       <c r="AI61" s="15">
-        <v>15713</v>
+        <v>13453</v>
       </c>
       <c r="AJ61" s="15">
-        <v>13453</v>
+        <v>13601</v>
       </c>
       <c r="AK61" s="15">
-        <v>13601</v>
+        <v>13270</v>
       </c>
       <c r="AL61" s="15">
-        <v>13270</v>
+        <v>14293</v>
       </c>
       <c r="AM61" s="15">
-        <v>14293</v>
+        <v>15663</v>
       </c>
       <c r="AN61" s="15">
-        <v>15663</v>
+        <v>14276</v>
       </c>
       <c r="AO61" s="15">
-        <v>14276</v>
+        <v>14090</v>
       </c>
       <c r="AP61" s="15">
-        <v>14090</v>
+        <v>16364</v>
       </c>
       <c r="AQ61" s="15">
-        <v>16364</v>
+        <v>12468</v>
       </c>
       <c r="AR61" s="15">
-        <v>12468</v>
+        <v>13257</v>
       </c>
       <c r="AS61" s="15">
-        <v>13257</v>
+        <v>13603</v>
       </c>
       <c r="AT61" s="15">
-        <v>13603</v>
+        <v>11639</v>
       </c>
       <c r="AU61" s="15">
-        <v>11639</v>
+        <v>12288</v>
       </c>
       <c r="AV61" s="15">
-        <v>12288</v>
+        <v>17658</v>
       </c>
       <c r="AW61" s="15">
-        <v>17658</v>
+        <v>9066</v>
       </c>
       <c r="AX61" s="15">
-        <v>9066</v>
+        <v>13921</v>
       </c>
       <c r="AY61" s="15">
-        <v>13921</v>
+        <v>11734</v>
       </c>
       <c r="AZ61" s="15">
-        <v>11734</v>
+        <v>14260</v>
       </c>
       <c r="BA61" s="15">
-        <v>14260</v>
+        <v>14489</v>
       </c>
       <c r="BB61" s="15">
-        <v>14492</v>
+        <v>18136</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -8568,7 +8603,7 @@
       <c r="BA62" s="1"/>
       <c r="BB62" s="1"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -8623,7 +8658,7 @@
       <c r="BA63" s="1"/>
       <c r="BB63" s="1"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -8678,7 +8713,7 @@
       <c r="BA64" s="1"/>
       <c r="BB64" s="1"/>
     </row>
-    <row r="65" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
         <v>89</v>
       </c>
@@ -8835,7 +8870,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -8890,7 +8925,7 @@
       <c r="BA66" s="1"/>
       <c r="BB66" s="1"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>90</v>
       </c>
@@ -8947,7 +8982,7 @@
       <c r="BA67" s="9"/>
       <c r="BB67" s="9"/>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>56</v>
       </c>
@@ -9063,14 +9098,14 @@
       <c r="AN68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO68" s="11" t="s">
-        <v>58</v>
+      <c r="AO68" s="11">
+        <v>0</v>
       </c>
       <c r="AP68" s="11">
-        <v>0</v>
+        <v>202204</v>
       </c>
       <c r="AQ68" s="11">
-        <v>202204</v>
+        <v>0</v>
       </c>
       <c r="AR68" s="11">
         <v>0</v>
@@ -9079,34 +9114,34 @@
         <v>0</v>
       </c>
       <c r="AT68" s="11">
-        <v>0</v>
+        <v>2369</v>
       </c>
       <c r="AU68" s="11">
-        <v>2369</v>
+        <v>312</v>
       </c>
       <c r="AV68" s="11">
-        <v>312</v>
+        <v>765</v>
       </c>
       <c r="AW68" s="11">
+        <v>442</v>
+      </c>
+      <c r="AX68" s="11">
+        <v>24409</v>
+      </c>
+      <c r="AY68" s="11">
         <v>765</v>
       </c>
-      <c r="AX68" s="11">
-        <v>442</v>
-      </c>
-      <c r="AY68" s="11">
-        <v>24409</v>
-      </c>
       <c r="AZ68" s="11">
-        <v>765</v>
+        <v>693</v>
       </c>
       <c r="BA68" s="11">
-        <v>693</v>
+        <v>601</v>
       </c>
       <c r="BB68" s="11">
-        <v>601</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
         <v>59</v>
       </c>
@@ -9195,20 +9230,20 @@
       <c r="AE69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF69" s="13" t="s">
-        <v>58</v>
+      <c r="AF69" s="13">
+        <v>2623</v>
       </c>
       <c r="AG69" s="13">
-        <v>2623</v>
+        <v>413</v>
       </c>
       <c r="AH69" s="13">
-        <v>413</v>
+        <v>1305</v>
       </c>
       <c r="AI69" s="13">
-        <v>1305</v>
+        <v>6862</v>
       </c>
       <c r="AJ69" s="13">
-        <v>6862</v>
+        <v>0</v>
       </c>
       <c r="AK69" s="13">
         <v>0</v>
@@ -9228,8 +9263,8 @@
       <c r="AP69" s="13">
         <v>0</v>
       </c>
-      <c r="AQ69" s="13">
-        <v>0</v>
+      <c r="AQ69" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR69" s="13" t="s">
         <v>58</v>
@@ -9265,7 +9300,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>61</v>
       </c>
@@ -9351,80 +9386,80 @@
       <c r="AD70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE70" s="11" t="s">
-        <v>58</v>
+      <c r="AE70" s="11">
+        <v>0</v>
       </c>
       <c r="AF70" s="11">
-        <v>0</v>
+        <v>15289</v>
       </c>
       <c r="AG70" s="11">
-        <v>15289</v>
+        <v>526</v>
       </c>
       <c r="AH70" s="11">
-        <v>526</v>
+        <v>23786</v>
       </c>
       <c r="AI70" s="11">
-        <v>23786</v>
+        <v>17</v>
       </c>
       <c r="AJ70" s="11">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AK70" s="11">
-        <v>0</v>
+        <v>5518</v>
       </c>
       <c r="AL70" s="11">
-        <v>5518</v>
+        <v>390</v>
       </c>
       <c r="AM70" s="11">
-        <v>390</v>
+        <v>33338</v>
       </c>
       <c r="AN70" s="11">
-        <v>33338</v>
+        <v>40127</v>
       </c>
       <c r="AO70" s="11">
-        <v>40127</v>
+        <v>68589</v>
       </c>
       <c r="AP70" s="11">
-        <v>68589</v>
+        <v>52971</v>
       </c>
       <c r="AQ70" s="11">
-        <v>52971</v>
+        <v>0</v>
       </c>
       <c r="AR70" s="11">
         <v>0</v>
       </c>
       <c r="AS70" s="11">
-        <v>0</v>
+        <v>70141</v>
       </c>
       <c r="AT70" s="11">
-        <v>70141</v>
+        <v>61403</v>
       </c>
       <c r="AU70" s="11">
-        <v>61403</v>
+        <v>36027</v>
       </c>
       <c r="AV70" s="11">
-        <v>36027</v>
+        <v>12665</v>
       </c>
       <c r="AW70" s="11">
-        <v>12665</v>
+        <v>41713</v>
       </c>
       <c r="AX70" s="11">
-        <v>41713</v>
+        <v>11465</v>
       </c>
       <c r="AY70" s="11">
-        <v>11465</v>
+        <v>27928</v>
       </c>
       <c r="AZ70" s="11">
-        <v>27928</v>
+        <v>35739</v>
       </c>
       <c r="BA70" s="11">
-        <v>35739</v>
+        <v>40808</v>
       </c>
       <c r="BB70" s="11">
-        <v>40929</v>
+        <v>23516</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="12" t="s">
         <v>62</v>
       </c>
@@ -9510,80 +9545,80 @@
       <c r="AD71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE71" s="13" t="s">
-        <v>58</v>
+      <c r="AE71" s="13">
+        <v>4641</v>
       </c>
       <c r="AF71" s="13">
-        <v>4641</v>
+        <v>5695</v>
       </c>
       <c r="AG71" s="13">
-        <v>5695</v>
+        <v>6436</v>
       </c>
       <c r="AH71" s="13">
-        <v>6436</v>
+        <v>2033</v>
       </c>
       <c r="AI71" s="13">
-        <v>2033</v>
+        <v>5828</v>
       </c>
       <c r="AJ71" s="13">
-        <v>5828</v>
+        <v>3588</v>
       </c>
       <c r="AK71" s="13">
-        <v>3588</v>
+        <v>6161</v>
       </c>
       <c r="AL71" s="13">
-        <v>6161</v>
+        <v>3187</v>
       </c>
       <c r="AM71" s="13">
-        <v>3187</v>
+        <v>2148</v>
       </c>
       <c r="AN71" s="13">
-        <v>2148</v>
+        <v>4480</v>
       </c>
       <c r="AO71" s="13">
-        <v>4480</v>
+        <v>9474</v>
       </c>
       <c r="AP71" s="13">
-        <v>9474</v>
+        <v>6352</v>
       </c>
       <c r="AQ71" s="13">
-        <v>6352</v>
+        <v>9214</v>
       </c>
       <c r="AR71" s="13">
-        <v>9214</v>
+        <v>7808</v>
       </c>
       <c r="AS71" s="13">
-        <v>7808</v>
+        <v>10939</v>
       </c>
       <c r="AT71" s="13">
-        <v>10939</v>
+        <v>2451</v>
       </c>
       <c r="AU71" s="13">
-        <v>2451</v>
+        <v>13980</v>
       </c>
       <c r="AV71" s="13">
-        <v>13980</v>
+        <v>11774</v>
       </c>
       <c r="AW71" s="13">
-        <v>11774</v>
+        <v>10660</v>
       </c>
       <c r="AX71" s="13">
-        <v>10660</v>
+        <v>9227</v>
       </c>
       <c r="AY71" s="13">
-        <v>9227</v>
+        <v>5752</v>
       </c>
       <c r="AZ71" s="13">
-        <v>5752</v>
+        <v>17765</v>
       </c>
       <c r="BA71" s="13">
-        <v>17765</v>
+        <v>48705</v>
       </c>
       <c r="BB71" s="13">
-        <v>48705</v>
+        <v>40981</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>63</v>
       </c>
@@ -9669,80 +9704,80 @@
       <c r="AD72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE72" s="11" t="s">
-        <v>58</v>
+      <c r="AE72" s="11">
+        <v>10916</v>
       </c>
       <c r="AF72" s="11">
-        <v>10916</v>
+        <v>20075</v>
       </c>
       <c r="AG72" s="11">
-        <v>20075</v>
+        <v>39049</v>
       </c>
       <c r="AH72" s="11">
-        <v>39049</v>
+        <v>48529</v>
       </c>
       <c r="AI72" s="11">
-        <v>48529</v>
+        <v>14368</v>
       </c>
       <c r="AJ72" s="11">
-        <v>14368</v>
+        <v>22143</v>
       </c>
       <c r="AK72" s="11">
-        <v>22143</v>
+        <v>23716</v>
       </c>
       <c r="AL72" s="11">
-        <v>23716</v>
+        <v>19191</v>
       </c>
       <c r="AM72" s="11">
-        <v>19191</v>
+        <v>27200</v>
       </c>
       <c r="AN72" s="11">
-        <v>27200</v>
+        <v>26365</v>
       </c>
       <c r="AO72" s="11">
-        <v>26365</v>
+        <v>25246</v>
       </c>
       <c r="AP72" s="11">
-        <v>25246</v>
+        <v>37888</v>
       </c>
       <c r="AQ72" s="11">
-        <v>37888</v>
+        <v>23369</v>
       </c>
       <c r="AR72" s="11">
-        <v>23369</v>
+        <v>19985</v>
       </c>
       <c r="AS72" s="11">
-        <v>19985</v>
+        <v>24602</v>
       </c>
       <c r="AT72" s="11">
-        <v>24602</v>
+        <v>15955</v>
       </c>
       <c r="AU72" s="11">
-        <v>15955</v>
+        <v>20829</v>
       </c>
       <c r="AV72" s="11">
-        <v>20829</v>
+        <v>66451</v>
       </c>
       <c r="AW72" s="11">
-        <v>66451</v>
+        <v>15361</v>
       </c>
       <c r="AX72" s="11">
-        <v>15361</v>
+        <v>45289</v>
       </c>
       <c r="AY72" s="11">
-        <v>45289</v>
+        <v>27824</v>
       </c>
       <c r="AZ72" s="11">
-        <v>27824</v>
+        <v>44645</v>
       </c>
       <c r="BA72" s="11">
-        <v>44645</v>
+        <v>43345</v>
       </c>
       <c r="BB72" s="11">
-        <v>43345</v>
+        <v>83074</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
         <v>64</v>
       </c>
@@ -9828,80 +9863,80 @@
       <c r="AD73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE73" s="13" t="s">
-        <v>58</v>
+      <c r="AE73" s="13">
+        <v>805480</v>
       </c>
       <c r="AF73" s="13">
-        <v>805480</v>
+        <v>789675</v>
       </c>
       <c r="AG73" s="13">
-        <v>789675</v>
+        <v>723495</v>
       </c>
       <c r="AH73" s="13">
-        <v>723495</v>
+        <v>615606</v>
       </c>
       <c r="AI73" s="13">
-        <v>615606</v>
+        <v>703849</v>
       </c>
       <c r="AJ73" s="13">
-        <v>703849</v>
+        <v>899754</v>
       </c>
       <c r="AK73" s="13">
-        <v>899754</v>
+        <v>973523</v>
       </c>
       <c r="AL73" s="13">
-        <v>973523</v>
+        <v>1134605</v>
       </c>
       <c r="AM73" s="13">
-        <v>1134605</v>
+        <v>1376566</v>
       </c>
       <c r="AN73" s="13">
-        <v>1376566</v>
+        <v>1434485</v>
       </c>
       <c r="AO73" s="13">
-        <v>1434485</v>
+        <v>1445763</v>
       </c>
       <c r="AP73" s="13">
-        <v>1445763</v>
+        <v>1272054</v>
       </c>
       <c r="AQ73" s="13">
-        <v>1272054</v>
+        <v>1250935</v>
       </c>
       <c r="AR73" s="13">
-        <v>1250935</v>
+        <v>1175415</v>
       </c>
       <c r="AS73" s="13">
-        <v>1175415</v>
+        <v>1180140</v>
       </c>
       <c r="AT73" s="13">
-        <v>1180140</v>
+        <v>1023683</v>
       </c>
       <c r="AU73" s="13">
-        <v>1023683</v>
+        <v>1005552</v>
       </c>
       <c r="AV73" s="13">
-        <v>1005552</v>
+        <v>1462938</v>
       </c>
       <c r="AW73" s="13">
-        <v>1462938</v>
+        <v>1564356</v>
       </c>
       <c r="AX73" s="13">
-        <v>1564356</v>
+        <v>1720622</v>
       </c>
       <c r="AY73" s="13">
-        <v>1720622</v>
+        <v>1927498</v>
       </c>
       <c r="AZ73" s="13">
-        <v>1927498</v>
+        <v>1926768</v>
       </c>
       <c r="BA73" s="13">
-        <v>1926768</v>
+        <v>2019409</v>
       </c>
       <c r="BB73" s="13">
-        <v>2020241</v>
+        <v>2035508</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>65</v>
       </c>
@@ -9987,80 +10022,80 @@
       <c r="AD74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE74" s="11" t="s">
-        <v>58</v>
+      <c r="AE74" s="11">
+        <v>36616</v>
       </c>
       <c r="AF74" s="11">
-        <v>36616</v>
+        <v>64672</v>
       </c>
       <c r="AG74" s="11">
-        <v>64672</v>
+        <v>47625</v>
       </c>
       <c r="AH74" s="11">
-        <v>47625</v>
+        <v>70891</v>
       </c>
       <c r="AI74" s="11">
-        <v>70891</v>
+        <v>100962</v>
       </c>
       <c r="AJ74" s="11">
-        <v>100962</v>
+        <v>106499</v>
       </c>
       <c r="AK74" s="11">
-        <v>106499</v>
+        <v>63343</v>
       </c>
       <c r="AL74" s="11">
-        <v>63343</v>
+        <v>155271</v>
       </c>
       <c r="AM74" s="11">
-        <v>155271</v>
+        <v>135826</v>
       </c>
       <c r="AN74" s="11">
-        <v>135826</v>
+        <v>102755</v>
       </c>
       <c r="AO74" s="11">
-        <v>102755</v>
+        <v>123826</v>
       </c>
       <c r="AP74" s="11">
-        <v>123826</v>
+        <v>94962</v>
       </c>
       <c r="AQ74" s="11">
-        <v>94962</v>
+        <v>71986</v>
       </c>
       <c r="AR74" s="11">
-        <v>71986</v>
+        <v>52292</v>
       </c>
       <c r="AS74" s="11">
-        <v>52292</v>
+        <v>59155</v>
       </c>
       <c r="AT74" s="11">
-        <v>59155</v>
+        <v>105848</v>
       </c>
       <c r="AU74" s="11">
-        <v>105848</v>
+        <v>172087</v>
       </c>
       <c r="AV74" s="11">
-        <v>172087</v>
+        <v>24541</v>
       </c>
       <c r="AW74" s="11">
-        <v>24541</v>
+        <v>10498</v>
       </c>
       <c r="AX74" s="11">
-        <v>10498</v>
+        <v>28394</v>
       </c>
       <c r="AY74" s="11">
-        <v>28394</v>
+        <v>75331</v>
       </c>
       <c r="AZ74" s="11">
-        <v>75331</v>
+        <v>115669</v>
       </c>
       <c r="BA74" s="11">
-        <v>115669</v>
+        <v>130196</v>
       </c>
       <c r="BB74" s="11">
-        <v>130196</v>
+        <v>51222</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>67</v>
       </c>
@@ -10146,23 +10181,23 @@
       <c r="AD75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE75" s="13" t="s">
-        <v>58</v>
+      <c r="AE75" s="13">
+        <v>0</v>
       </c>
       <c r="AF75" s="13">
         <v>0</v>
       </c>
       <c r="AG75" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH75" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AI75" s="13">
-        <v>0</v>
+        <v>11115</v>
       </c>
       <c r="AJ75" s="13">
-        <v>11115</v>
+        <v>0</v>
       </c>
       <c r="AK75" s="13">
         <v>0</v>
@@ -10171,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="AM75" s="13">
-        <v>0</v>
+        <v>107988</v>
       </c>
       <c r="AN75" s="13">
-        <v>107988</v>
+        <v>0</v>
       </c>
       <c r="AO75" s="13">
         <v>0</v>
@@ -10183,43 +10218,43 @@
         <v>0</v>
       </c>
       <c r="AQ75" s="13">
-        <v>0</v>
+        <v>42310</v>
       </c>
       <c r="AR75" s="13">
-        <v>42310</v>
+        <v>18707</v>
       </c>
       <c r="AS75" s="13">
-        <v>18707</v>
+        <v>146970</v>
       </c>
       <c r="AT75" s="13">
-        <v>146970</v>
+        <v>21243</v>
       </c>
       <c r="AU75" s="13">
-        <v>21243</v>
+        <v>6</v>
       </c>
       <c r="AV75" s="13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW75" s="13">
         <v>0</v>
       </c>
       <c r="AX75" s="13">
-        <v>0</v>
+        <v>24353</v>
       </c>
       <c r="AY75" s="13">
-        <v>24353</v>
+        <v>14550</v>
       </c>
       <c r="AZ75" s="13">
-        <v>14550</v>
+        <v>9450</v>
       </c>
       <c r="BA75" s="13">
-        <v>9450</v>
+        <v>0</v>
       </c>
       <c r="BB75" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>68</v>
       </c>
@@ -10341,8 +10376,8 @@
       <c r="AP76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ76" s="11" t="s">
-        <v>58</v>
+      <c r="AQ76" s="11">
+        <v>0</v>
       </c>
       <c r="AR76" s="11">
         <v>0</v>
@@ -10378,7 +10413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>69</v>
       </c>
@@ -10500,8 +10535,8 @@
       <c r="AP77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ77" s="13" t="s">
-        <v>58</v>
+      <c r="AQ77" s="13">
+        <v>0</v>
       </c>
       <c r="AR77" s="13">
         <v>0</v>
@@ -10537,7 +10572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>70</v>
       </c>
@@ -10623,80 +10658,80 @@
       <c r="AD78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE78" s="11" t="s">
-        <v>58</v>
+      <c r="AE78" s="11">
+        <v>21871</v>
       </c>
       <c r="AF78" s="11">
-        <v>21871</v>
+        <v>0</v>
       </c>
       <c r="AG78" s="11">
-        <v>0</v>
+        <v>18649</v>
       </c>
       <c r="AH78" s="11">
-        <v>18649</v>
+        <v>16575</v>
       </c>
       <c r="AI78" s="11">
-        <v>16575</v>
+        <v>28660</v>
       </c>
       <c r="AJ78" s="11">
-        <v>28660</v>
+        <v>28880</v>
       </c>
       <c r="AK78" s="11">
-        <v>28880</v>
+        <v>42262</v>
       </c>
       <c r="AL78" s="11">
-        <v>42262</v>
+        <v>75148</v>
       </c>
       <c r="AM78" s="11">
-        <v>75148</v>
+        <v>57154</v>
       </c>
       <c r="AN78" s="11">
-        <v>57154</v>
+        <v>10307</v>
       </c>
       <c r="AO78" s="11">
-        <v>10307</v>
+        <v>34900</v>
       </c>
       <c r="AP78" s="11">
-        <v>34900</v>
+        <v>40415</v>
       </c>
       <c r="AQ78" s="11">
-        <v>40415</v>
+        <v>44271</v>
       </c>
       <c r="AR78" s="11">
-        <v>44271</v>
+        <v>7140</v>
       </c>
       <c r="AS78" s="11">
-        <v>7140</v>
+        <v>11648</v>
       </c>
       <c r="AT78" s="11">
-        <v>11648</v>
+        <v>96231</v>
       </c>
       <c r="AU78" s="11">
-        <v>96231</v>
+        <v>-28645</v>
       </c>
       <c r="AV78" s="11">
-        <v>-28645</v>
+        <v>27424</v>
       </c>
       <c r="AW78" s="11">
-        <v>27424</v>
+        <v>91757</v>
       </c>
       <c r="AX78" s="11">
-        <v>91757</v>
+        <v>27602</v>
       </c>
       <c r="AY78" s="11">
-        <v>27602</v>
+        <v>0</v>
       </c>
       <c r="AZ78" s="11">
-        <v>0</v>
+        <v>12964</v>
       </c>
       <c r="BA78" s="11">
-        <v>12964</v>
+        <v>30950</v>
       </c>
       <c r="BB78" s="11">
-        <v>31132</v>
+        <v>17429</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>71</v>
       </c>
@@ -10818,8 +10853,8 @@
       <c r="AP79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ79" s="13" t="s">
-        <v>58</v>
+      <c r="AQ79" s="13">
+        <v>0</v>
       </c>
       <c r="AR79" s="13">
         <v>0</v>
@@ -10855,7 +10890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>72</v>
       </c>
@@ -10977,8 +11012,8 @@
       <c r="AP80" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ80" s="11" t="s">
-        <v>58</v>
+      <c r="AQ80" s="11">
+        <v>0</v>
       </c>
       <c r="AR80" s="11">
         <v>0</v>
@@ -11014,7 +11049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B81" s="12" t="s">
         <v>74</v>
       </c>
@@ -11136,8 +11171,8 @@
       <c r="AP81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ81" s="13" t="s">
-        <v>58</v>
+      <c r="AQ81" s="13">
+        <v>0</v>
       </c>
       <c r="AR81" s="13">
         <v>0</v>
@@ -11173,7 +11208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B82" s="14" t="s">
         <v>83</v>
       </c>
@@ -11258,79 +11293,79 @@
         <v>0</v>
       </c>
       <c r="AE82" s="15">
-        <v>0</v>
+        <v>879524</v>
       </c>
       <c r="AF82" s="15">
-        <v>879524</v>
+        <v>898029</v>
       </c>
       <c r="AG82" s="15">
-        <v>898029</v>
+        <v>836205</v>
       </c>
       <c r="AH82" s="15">
-        <v>836205</v>
+        <v>778725</v>
       </c>
       <c r="AI82" s="15">
-        <v>778725</v>
+        <v>871661</v>
       </c>
       <c r="AJ82" s="15">
-        <v>871661</v>
+        <v>1060864</v>
       </c>
       <c r="AK82" s="15">
-        <v>1060864</v>
+        <v>1114523</v>
       </c>
       <c r="AL82" s="15">
-        <v>1114523</v>
+        <v>1387792</v>
       </c>
       <c r="AM82" s="15">
-        <v>1387792</v>
+        <v>1740220</v>
       </c>
       <c r="AN82" s="15">
-        <v>1740220</v>
+        <v>1618519</v>
       </c>
       <c r="AO82" s="15">
-        <v>1618519</v>
+        <v>1707798</v>
       </c>
       <c r="AP82" s="15">
-        <v>1707798</v>
+        <v>1706846</v>
       </c>
       <c r="AQ82" s="15">
-        <v>1706846</v>
+        <v>1442085</v>
       </c>
       <c r="AR82" s="15">
-        <v>1442085</v>
+        <v>1281347</v>
       </c>
       <c r="AS82" s="15">
-        <v>1281347</v>
+        <v>1503595</v>
       </c>
       <c r="AT82" s="15">
-        <v>1503595</v>
+        <v>1329183</v>
       </c>
       <c r="AU82" s="15">
-        <v>1329183</v>
+        <v>1220148</v>
       </c>
       <c r="AV82" s="15">
-        <v>1220148</v>
+        <v>1606558</v>
       </c>
       <c r="AW82" s="15">
-        <v>1606558</v>
+        <v>1734787</v>
       </c>
       <c r="AX82" s="15">
-        <v>1734787</v>
+        <v>1891361</v>
       </c>
       <c r="AY82" s="15">
-        <v>1891361</v>
+        <v>2079648</v>
       </c>
       <c r="AZ82" s="15">
-        <v>2079648</v>
+        <v>2163693</v>
       </c>
       <c r="BA82" s="15">
-        <v>2163693</v>
+        <v>2314014</v>
       </c>
       <c r="BB82" s="15">
-        <v>2315149</v>
+        <v>2251853</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B83" s="16" t="s">
         <v>92</v>
       </c>
@@ -11387,7 +11422,7 @@
       <c r="BA83" s="17"/>
       <c r="BB83" s="17"/>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B84" s="14" t="s">
         <v>85</v>
       </c>
@@ -11544,7 +11579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>93</v>
       </c>
@@ -11601,7 +11636,7 @@
       <c r="BA85" s="9"/>
       <c r="BB85" s="9"/>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>94</v>
       </c>
@@ -11729,8 +11764,8 @@
       <c r="AR86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS86" s="11" t="s">
-        <v>58</v>
+      <c r="AS86" s="11">
+        <v>0</v>
       </c>
       <c r="AT86" s="11">
         <v>0</v>
@@ -11760,7 +11795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B87" s="12" t="s">
         <v>95</v>
       </c>
@@ -11888,8 +11923,8 @@
       <c r="AR87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS87" s="13" t="s">
-        <v>58</v>
+      <c r="AS87" s="13">
+        <v>0</v>
       </c>
       <c r="AT87" s="13">
         <v>0</v>
@@ -11919,7 +11954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>96</v>
       </c>
@@ -12047,8 +12082,8 @@
       <c r="AR88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS88" s="11" t="s">
-        <v>58</v>
+      <c r="AS88" s="11">
+        <v>0</v>
       </c>
       <c r="AT88" s="11">
         <v>0</v>
@@ -12078,7 +12113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B89" s="16" t="s">
         <v>97</v>
       </c>
@@ -12135,7 +12170,7 @@
       <c r="BA89" s="17"/>
       <c r="BB89" s="17"/>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B90" s="14" t="s">
         <v>79</v>
       </c>
@@ -12221,8 +12256,8 @@
       <c r="AD90" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AE90" s="15" t="s">
-        <v>58</v>
+      <c r="AE90" s="15">
+        <v>0</v>
       </c>
       <c r="AF90" s="15">
         <v>0</v>
@@ -12263,8 +12298,8 @@
       <c r="AR90" s="15">
         <v>0</v>
       </c>
-      <c r="AS90" s="15">
-        <v>0</v>
+      <c r="AS90" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AT90" s="15" t="s">
         <v>58</v>
@@ -12294,7 +12329,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>98</v>
       </c>
@@ -12351,7 +12386,7 @@
       <c r="BA91" s="9"/>
       <c r="BB91" s="9"/>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>56</v>
       </c>
@@ -12476,11 +12511,11 @@
       <c r="AQ92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR92" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS92" s="11">
-        <v>0</v>
+      <c r="AR92" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS92" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT92" s="11" t="s">
         <v>58</v>
@@ -12510,7 +12545,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B93" s="12" t="s">
         <v>64</v>
       </c>
@@ -12599,47 +12634,47 @@
       <c r="AE93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF93" s="13" t="s">
-        <v>58</v>
+      <c r="AF93" s="13">
+        <v>-90</v>
       </c>
       <c r="AG93" s="13">
-        <v>-90</v>
+        <v>-205</v>
       </c>
       <c r="AH93" s="13">
-        <v>-205</v>
+        <v>0</v>
       </c>
       <c r="AI93" s="13">
-        <v>0</v>
+        <v>-113</v>
       </c>
       <c r="AJ93" s="13">
-        <v>-113</v>
+        <v>-11</v>
       </c>
       <c r="AK93" s="13">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="AL93" s="13">
-        <v>0</v>
+        <v>-407</v>
       </c>
       <c r="AM93" s="13">
-        <v>-407</v>
+        <v>-5</v>
       </c>
       <c r="AN93" s="13">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AO93" s="13">
-        <v>0</v>
+        <v>-144</v>
       </c>
       <c r="AP93" s="13">
-        <v>-144</v>
-      </c>
-      <c r="AQ93" s="13">
         <v>-12</v>
       </c>
-      <c r="AR93" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS93" s="13">
-        <v>0</v>
+      <c r="AQ93" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR93" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS93" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT93" s="13" t="s">
         <v>58</v>
@@ -12669,7 +12704,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>87</v>
       </c>
@@ -12758,48 +12793,48 @@
       <c r="AE94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF94" s="11" t="s">
-        <v>58</v>
+      <c r="AF94" s="11">
+        <v>-889</v>
       </c>
       <c r="AG94" s="11">
-        <v>-889</v>
+        <v>-780</v>
       </c>
       <c r="AH94" s="11">
-        <v>-780</v>
+        <v>0</v>
       </c>
       <c r="AI94" s="11">
-        <v>0</v>
+        <v>-146</v>
       </c>
       <c r="AJ94" s="11">
-        <v>-146</v>
+        <v>-289</v>
       </c>
       <c r="AK94" s="11">
-        <v>-289</v>
+        <v>0</v>
       </c>
       <c r="AL94" s="11">
-        <v>0</v>
+        <v>-967</v>
       </c>
       <c r="AM94" s="11">
-        <v>-967</v>
+        <v>-2670</v>
       </c>
       <c r="AN94" s="11">
-        <v>-2670</v>
+        <v>-134</v>
       </c>
       <c r="AO94" s="11">
-        <v>-134</v>
+        <v>-2469</v>
       </c>
       <c r="AP94" s="11">
-        <v>-2469</v>
+        <v>-944</v>
       </c>
       <c r="AQ94" s="11">
-        <v>-944</v>
+        <v>-331</v>
       </c>
       <c r="AR94" s="11">
-        <v>-331</v>
-      </c>
-      <c r="AS94" s="11">
         <v>-139</v>
       </c>
+      <c r="AS94" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT94" s="11" t="s">
         <v>58</v>
       </c>
@@ -12828,7 +12863,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B95" s="18" t="s">
         <v>88</v>
       </c>
@@ -12914,51 +12949,51 @@
       <c r="AD95" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AE95" s="19" t="s">
-        <v>58</v>
+      <c r="AE95" s="19">
+        <v>0</v>
       </c>
       <c r="AF95" s="19">
-        <v>0</v>
+        <v>-979</v>
       </c>
       <c r="AG95" s="19">
-        <v>-979</v>
+        <v>-985</v>
       </c>
       <c r="AH95" s="19">
-        <v>-985</v>
+        <v>0</v>
       </c>
       <c r="AI95" s="19">
-        <v>0</v>
+        <v>-259</v>
       </c>
       <c r="AJ95" s="19">
-        <v>-259</v>
+        <v>-300</v>
       </c>
       <c r="AK95" s="19">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="AL95" s="19">
-        <v>0</v>
+        <v>-1374</v>
       </c>
       <c r="AM95" s="19">
-        <v>-1374</v>
+        <v>-2675</v>
       </c>
       <c r="AN95" s="19">
-        <v>-2675</v>
+        <v>-134</v>
       </c>
       <c r="AO95" s="19">
-        <v>-134</v>
+        <v>-2613</v>
       </c>
       <c r="AP95" s="19">
-        <v>-2613</v>
+        <v>-956</v>
       </c>
       <c r="AQ95" s="19">
-        <v>-956</v>
+        <v>-331</v>
       </c>
       <c r="AR95" s="19">
-        <v>-331</v>
-      </c>
-      <c r="AS95" s="19">
         <v>-139</v>
       </c>
+      <c r="AS95" s="19" t="s">
+        <v>58</v>
+      </c>
       <c r="AT95" s="19" t="s">
         <v>58</v>
       </c>
@@ -12987,7 +13022,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B96" s="8" t="s">
         <v>99</v>
       </c>
@@ -13044,7 +13079,7 @@
       <c r="BA96" s="9"/>
       <c r="BB96" s="9"/>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>100</v>
       </c>
@@ -13130,51 +13165,51 @@
       <c r="AD97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE97" s="11" t="s">
-        <v>58</v>
+      <c r="AE97" s="11">
+        <v>0</v>
       </c>
       <c r="AF97" s="11">
-        <v>0</v>
+        <v>-67667</v>
       </c>
       <c r="AG97" s="11">
-        <v>-67667</v>
+        <v>-2136</v>
       </c>
       <c r="AH97" s="11">
-        <v>-2136</v>
+        <v>-1595</v>
       </c>
       <c r="AI97" s="11">
-        <v>-1595</v>
+        <v>-586</v>
       </c>
       <c r="AJ97" s="11">
-        <v>-586</v>
+        <v>-774</v>
       </c>
       <c r="AK97" s="11">
-        <v>-774</v>
+        <v>-485</v>
       </c>
       <c r="AL97" s="11">
-        <v>-485</v>
+        <v>-517</v>
       </c>
       <c r="AM97" s="11">
-        <v>-517</v>
+        <v>-1526</v>
       </c>
       <c r="AN97" s="11">
-        <v>-1526</v>
+        <v>-167</v>
       </c>
       <c r="AO97" s="11">
-        <v>-167</v>
+        <v>-9702</v>
       </c>
       <c r="AP97" s="11">
-        <v>-9702</v>
+        <v>-585</v>
       </c>
       <c r="AQ97" s="11">
-        <v>-585</v>
+        <v>-555</v>
       </c>
       <c r="AR97" s="11">
-        <v>-555</v>
-      </c>
-      <c r="AS97" s="11">
         <v>-4</v>
       </c>
+      <c r="AS97" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT97" s="11" t="s">
         <v>58</v>
       </c>
@@ -13203,7 +13238,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B98" s="18" t="s">
         <v>80</v>
       </c>
@@ -13288,79 +13323,79 @@
         <v>0</v>
       </c>
       <c r="AE98" s="19">
-        <v>0</v>
+        <v>879524</v>
       </c>
       <c r="AF98" s="19">
-        <v>879524</v>
+        <v>829383</v>
       </c>
       <c r="AG98" s="19">
-        <v>829383</v>
+        <v>833084</v>
       </c>
       <c r="AH98" s="19">
-        <v>833084</v>
+        <v>777130</v>
       </c>
       <c r="AI98" s="19">
-        <v>777130</v>
+        <v>870816</v>
       </c>
       <c r="AJ98" s="19">
-        <v>870816</v>
+        <v>1059790</v>
       </c>
       <c r="AK98" s="19">
-        <v>1059790</v>
+        <v>1114038</v>
       </c>
       <c r="AL98" s="19">
-        <v>1114038</v>
+        <v>1385901</v>
       </c>
       <c r="AM98" s="19">
-        <v>1385901</v>
+        <v>1736019</v>
       </c>
       <c r="AN98" s="19">
-        <v>1736019</v>
+        <v>1618218</v>
       </c>
       <c r="AO98" s="19">
-        <v>1618218</v>
+        <v>1695483</v>
       </c>
       <c r="AP98" s="19">
-        <v>1695483</v>
+        <v>1705305</v>
       </c>
       <c r="AQ98" s="19">
-        <v>1705305</v>
+        <v>1441199</v>
       </c>
       <c r="AR98" s="19">
-        <v>1441199</v>
+        <v>1281204</v>
       </c>
       <c r="AS98" s="19">
-        <v>1281204</v>
+        <v>1503595</v>
       </c>
       <c r="AT98" s="19">
-        <v>1503595</v>
+        <v>1329183</v>
       </c>
       <c r="AU98" s="19">
-        <v>1329183</v>
+        <v>1220148</v>
       </c>
       <c r="AV98" s="19">
-        <v>1220148</v>
+        <v>1606558</v>
       </c>
       <c r="AW98" s="19">
-        <v>1606558</v>
+        <v>1734787</v>
       </c>
       <c r="AX98" s="19">
-        <v>1734787</v>
+        <v>1891361</v>
       </c>
       <c r="AY98" s="19">
-        <v>1891361</v>
+        <v>2079648</v>
       </c>
       <c r="AZ98" s="19">
-        <v>2079648</v>
+        <v>2163693</v>
       </c>
       <c r="BA98" s="19">
-        <v>2163693</v>
+        <v>2314014</v>
       </c>
       <c r="BB98" s="19">
-        <v>2315149</v>
+        <v>2251853</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -13415,7 +13450,7 @@
       <c r="BA99" s="1"/>
       <c r="BB99" s="1"/>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -13470,7 +13505,7 @@
       <c r="BA100" s="1"/>
       <c r="BB100" s="1"/>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -13525,7 +13560,7 @@
       <c r="BA101" s="1"/>
       <c r="BB101" s="1"/>
     </row>
-    <row r="102" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B102" s="7" t="s">
         <v>101</v>
       </c>
@@ -13682,7 +13717,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -13737,7 +13772,7 @@
       <c r="BA103" s="1"/>
       <c r="BB103" s="1"/>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>102</v>
       </c>
@@ -13794,7 +13829,7 @@
       <c r="BA104" s="9"/>
       <c r="BB104" s="9"/>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>56</v>
       </c>
@@ -13925,35 +13960,35 @@
       <c r="AS105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT105" s="11" t="s">
-        <v>58</v>
+      <c r="AT105" s="11">
+        <v>0</v>
       </c>
       <c r="AU105" s="11">
-        <v>0</v>
+        <v>78000000</v>
       </c>
       <c r="AV105" s="11">
-        <v>78000000</v>
+        <v>76500000</v>
       </c>
       <c r="AW105" s="11">
-        <v>76500000</v>
+        <v>73666667</v>
       </c>
       <c r="AX105" s="11">
-        <v>73666667</v>
+        <v>214114035</v>
       </c>
       <c r="AY105" s="11">
-        <v>214114035</v>
+        <v>85000000</v>
       </c>
       <c r="AZ105" s="11">
-        <v>85000000</v>
+        <v>69300000</v>
       </c>
       <c r="BA105" s="11">
-        <v>69300000</v>
+        <v>75125000</v>
       </c>
       <c r="BB105" s="11">
-        <v>75125000</v>
+        <v>61500000</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>59</v>
       </c>
@@ -14042,21 +14077,21 @@
       <c r="AE106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF106" s="13" t="s">
-        <v>58</v>
+      <c r="AF106" s="13">
+        <v>1614154</v>
       </c>
       <c r="AG106" s="13">
-        <v>1614154</v>
+        <v>3788991</v>
       </c>
       <c r="AH106" s="13">
-        <v>3788991</v>
+        <v>5348361</v>
       </c>
       <c r="AI106" s="13">
-        <v>5348361</v>
-      </c>
-      <c r="AJ106" s="13">
         <v>5900258</v>
       </c>
+      <c r="AJ106" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AK106" s="13" t="s">
         <v>58</v>
       </c>
@@ -14112,7 +14147,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>61</v>
       </c>
@@ -14201,77 +14236,77 @@
       <c r="AE107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF107" s="11" t="s">
-        <v>58</v>
+      <c r="AF107" s="11">
+        <v>1019266667</v>
       </c>
       <c r="AG107" s="11">
-        <v>1019266667</v>
+        <v>526000000</v>
       </c>
       <c r="AH107" s="11">
-        <v>526000000</v>
+        <v>820206897</v>
       </c>
       <c r="AI107" s="11">
-        <v>820206897</v>
-      </c>
-      <c r="AJ107" s="11">
         <v>3400000</v>
       </c>
-      <c r="AK107" s="11" t="s">
-        <v>58</v>
+      <c r="AJ107" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK107" s="11">
+        <v>46369748</v>
       </c>
       <c r="AL107" s="11">
-        <v>46369748</v>
+        <v>48750000</v>
       </c>
       <c r="AM107" s="11">
-        <v>48750000</v>
+        <v>260453125</v>
       </c>
       <c r="AN107" s="11">
-        <v>260453125</v>
+        <v>68011864</v>
       </c>
       <c r="AO107" s="11">
-        <v>68011864</v>
+        <v>902486842</v>
       </c>
       <c r="AP107" s="11">
-        <v>902486842</v>
-      </c>
-      <c r="AQ107" s="11">
         <v>1358230769</v>
       </c>
+      <c r="AQ107" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AR107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS107" s="11" t="s">
-        <v>58</v>
+      <c r="AS107" s="11">
+        <v>589420168</v>
       </c>
       <c r="AT107" s="11">
-        <v>589420168</v>
+        <v>2613000000</v>
       </c>
       <c r="AU107" s="11">
-        <v>2613000000</v>
+        <v>2641827171</v>
       </c>
       <c r="AV107" s="11">
-        <v>2641827171</v>
+        <v>2533000000</v>
       </c>
       <c r="AW107" s="11">
-        <v>2533000000</v>
+        <v>281844595</v>
       </c>
       <c r="AX107" s="11">
-        <v>281844595</v>
+        <v>81892857</v>
       </c>
       <c r="AY107" s="11">
-        <v>81892857</v>
+        <v>1551555556</v>
       </c>
       <c r="AZ107" s="11">
-        <v>1551555556</v>
+        <v>83113953</v>
       </c>
       <c r="BA107" s="11">
-        <v>83113953</v>
+        <v>1102918919</v>
       </c>
       <c r="BB107" s="11">
-        <v>1077078947</v>
+        <v>904461538</v>
       </c>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
         <v>62</v>
       </c>
@@ -14357,80 +14392,80 @@
       <c r="AD108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE108" s="13" t="s">
-        <v>58</v>
+      <c r="AE108" s="13">
+        <v>61065789</v>
       </c>
       <c r="AF108" s="13">
-        <v>61065789</v>
+        <v>59947368</v>
       </c>
       <c r="AG108" s="13">
-        <v>59947368</v>
+        <v>58509091</v>
       </c>
       <c r="AH108" s="13">
-        <v>58509091</v>
+        <v>59794118</v>
       </c>
       <c r="AI108" s="13">
-        <v>59794118</v>
+        <v>62000000</v>
       </c>
       <c r="AJ108" s="13">
-        <v>62000000</v>
+        <v>60813559</v>
       </c>
       <c r="AK108" s="13">
-        <v>60813559</v>
+        <v>59240385</v>
       </c>
       <c r="AL108" s="13">
-        <v>59240385</v>
+        <v>60132075</v>
       </c>
       <c r="AM108" s="13">
-        <v>60132075</v>
+        <v>63176471</v>
       </c>
       <c r="AN108" s="13">
-        <v>63176471</v>
+        <v>61369863</v>
       </c>
       <c r="AO108" s="13">
-        <v>61369863</v>
+        <v>60343949</v>
       </c>
       <c r="AP108" s="13">
-        <v>60343949</v>
+        <v>60495238</v>
       </c>
       <c r="AQ108" s="13">
-        <v>60495238</v>
+        <v>66768116</v>
       </c>
       <c r="AR108" s="13">
-        <v>66768116</v>
+        <v>70981818</v>
       </c>
       <c r="AS108" s="13">
-        <v>70981818</v>
+        <v>86817460</v>
       </c>
       <c r="AT108" s="13">
-        <v>86817460</v>
+        <v>98040000</v>
       </c>
       <c r="AU108" s="13">
-        <v>98040000</v>
+        <v>97762238</v>
       </c>
       <c r="AV108" s="13">
-        <v>97762238</v>
+        <v>163527778</v>
       </c>
       <c r="AW108" s="13">
-        <v>163527778</v>
+        <v>159104478</v>
       </c>
       <c r="AX108" s="13">
-        <v>159104478</v>
+        <v>159086207</v>
       </c>
       <c r="AY108" s="13">
-        <v>159086207</v>
+        <v>155459459</v>
       </c>
       <c r="AZ108" s="13">
-        <v>155459459</v>
+        <v>150550847</v>
       </c>
       <c r="BA108" s="13">
-        <v>150550847</v>
+        <v>152680251</v>
       </c>
       <c r="BB108" s="13">
-        <v>152680251</v>
+        <v>156416031</v>
       </c>
     </row>
-    <row r="109" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>63</v>
       </c>
@@ -14516,80 +14551,80 @@
       <c r="AD109" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE109" s="11" t="s">
-        <v>58</v>
+      <c r="AE109" s="11">
+        <v>2381846</v>
       </c>
       <c r="AF109" s="11">
-        <v>2381846</v>
+        <v>3324226</v>
       </c>
       <c r="AG109" s="11">
-        <v>3324226</v>
+        <v>5325106</v>
       </c>
       <c r="AH109" s="11">
-        <v>5325106</v>
+        <v>5269736</v>
       </c>
       <c r="AI109" s="11">
-        <v>5269736</v>
+        <v>3190053</v>
       </c>
       <c r="AJ109" s="11">
-        <v>3190053</v>
+        <v>4061445</v>
       </c>
       <c r="AK109" s="11">
-        <v>4061445</v>
+        <v>4179767</v>
       </c>
       <c r="AL109" s="11">
-        <v>4179767</v>
+        <v>3798694</v>
       </c>
       <c r="AM109" s="11">
-        <v>3798694</v>
+        <v>4376508</v>
       </c>
       <c r="AN109" s="11">
-        <v>4376508</v>
+        <v>4657304</v>
       </c>
       <c r="AO109" s="11">
-        <v>4657304</v>
+        <v>4678651</v>
       </c>
       <c r="AP109" s="11">
-        <v>4678651</v>
+        <v>4679264</v>
       </c>
       <c r="AQ109" s="11">
-        <v>4679264</v>
+        <v>5040768</v>
       </c>
       <c r="AR109" s="11">
-        <v>5040768</v>
+        <v>3392012</v>
       </c>
       <c r="AS109" s="11">
-        <v>3392012</v>
+        <v>4332864</v>
       </c>
       <c r="AT109" s="11">
-        <v>4332864</v>
+        <v>3496636</v>
       </c>
       <c r="AU109" s="11">
-        <v>3496636</v>
+        <v>3706930</v>
       </c>
       <c r="AV109" s="11">
-        <v>3706930</v>
+        <v>5735457</v>
       </c>
       <c r="AW109" s="11">
-        <v>5735457</v>
+        <v>4157240</v>
       </c>
       <c r="AX109" s="11">
-        <v>4157240</v>
+        <v>6040144</v>
       </c>
       <c r="AY109" s="11">
-        <v>6040144</v>
+        <v>4931173</v>
       </c>
       <c r="AZ109" s="11">
-        <v>4931173</v>
+        <v>5775964</v>
       </c>
       <c r="BA109" s="11">
-        <v>5775964</v>
+        <v>5666754</v>
       </c>
       <c r="BB109" s="11">
-        <v>5666754</v>
+        <v>7033017</v>
       </c>
     </row>
-    <row r="110" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B110" s="12" t="s">
         <v>64</v>
       </c>
@@ -14675,80 +14710,80 @@
       <c r="AD110" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE110" s="13" t="s">
-        <v>58</v>
+      <c r="AE110" s="13">
+        <v>148557728</v>
       </c>
       <c r="AF110" s="13">
-        <v>148557728</v>
+        <v>155172922</v>
       </c>
       <c r="AG110" s="13">
-        <v>155172922</v>
+        <v>153967866</v>
       </c>
       <c r="AH110" s="13">
-        <v>153967866</v>
+        <v>130039290</v>
       </c>
       <c r="AI110" s="13">
-        <v>130039290</v>
+        <v>120336639</v>
       </c>
       <c r="AJ110" s="13">
-        <v>120336639</v>
+        <v>147621657</v>
       </c>
       <c r="AK110" s="13">
-        <v>147621657</v>
+        <v>164086128</v>
       </c>
       <c r="AL110" s="13">
-        <v>164086128</v>
+        <v>180239079</v>
       </c>
       <c r="AM110" s="13">
-        <v>180239079</v>
+        <v>198696016</v>
       </c>
       <c r="AN110" s="13">
-        <v>198696016</v>
+        <v>225052557</v>
       </c>
       <c r="AO110" s="13">
-        <v>225052557</v>
+        <v>215884724</v>
       </c>
       <c r="AP110" s="13">
-        <v>215884724</v>
+        <v>196973366</v>
       </c>
       <c r="AQ110" s="13">
-        <v>196973366</v>
+        <v>201633623</v>
       </c>
       <c r="AR110" s="13">
-        <v>201633623</v>
+        <v>197636859</v>
       </c>
       <c r="AS110" s="13">
-        <v>197636859</v>
+        <v>202690414</v>
       </c>
       <c r="AT110" s="13">
-        <v>202690414</v>
+        <v>201578479</v>
       </c>
       <c r="AU110" s="13">
-        <v>201578479</v>
+        <v>233497038</v>
       </c>
       <c r="AV110" s="13">
-        <v>233497038</v>
+        <v>308832172</v>
       </c>
       <c r="AW110" s="13">
-        <v>308832172</v>
+        <v>356543388</v>
       </c>
       <c r="AX110" s="13">
-        <v>356543388</v>
+        <v>361163483</v>
       </c>
       <c r="AY110" s="13">
-        <v>361163483</v>
+        <v>365471748</v>
       </c>
       <c r="AZ110" s="13">
-        <v>365471748</v>
+        <v>391778588</v>
       </c>
       <c r="BA110" s="13">
-        <v>391778588</v>
+        <v>394184853</v>
       </c>
       <c r="BB110" s="13">
-        <v>394193366</v>
+        <v>410467433</v>
       </c>
     </row>
-    <row r="111" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B111" s="10" t="s">
         <v>65</v>
       </c>
@@ -14834,80 +14869,80 @@
       <c r="AD111" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE111" s="11" t="s">
-        <v>58</v>
+      <c r="AE111" s="11">
+        <v>38706131</v>
       </c>
       <c r="AF111" s="11">
-        <v>38706131</v>
+        <v>41750807</v>
       </c>
       <c r="AG111" s="11">
-        <v>41750807</v>
+        <v>39262160</v>
       </c>
       <c r="AH111" s="11">
-        <v>39262160</v>
+        <v>53502642</v>
       </c>
       <c r="AI111" s="11">
-        <v>53502642</v>
+        <v>64021560</v>
       </c>
       <c r="AJ111" s="11">
-        <v>64021560</v>
+        <v>60579636</v>
       </c>
       <c r="AK111" s="11">
-        <v>60579636</v>
+        <v>58273229</v>
       </c>
       <c r="AL111" s="11">
-        <v>58273229</v>
+        <v>65267339</v>
       </c>
       <c r="AM111" s="11">
-        <v>65267339</v>
+        <v>75838079</v>
       </c>
       <c r="AN111" s="11">
-        <v>75838079</v>
+        <v>68004633</v>
       </c>
       <c r="AO111" s="11">
-        <v>68004633</v>
+        <v>73053687</v>
       </c>
       <c r="AP111" s="11">
-        <v>73053687</v>
+        <v>67540541</v>
       </c>
       <c r="AQ111" s="11">
-        <v>67540541</v>
+        <v>65145701</v>
       </c>
       <c r="AR111" s="11">
-        <v>65145701</v>
+        <v>72426593</v>
       </c>
       <c r="AS111" s="11">
-        <v>72426593</v>
+        <v>36449274</v>
       </c>
       <c r="AT111" s="11">
-        <v>36449274</v>
+        <v>80151897</v>
       </c>
       <c r="AU111" s="11">
-        <v>80151897</v>
+        <v>69220471</v>
       </c>
       <c r="AV111" s="11">
-        <v>69220471</v>
+        <v>22473443</v>
       </c>
       <c r="AW111" s="11">
-        <v>22473443</v>
+        <v>43560166</v>
       </c>
       <c r="AX111" s="11">
-        <v>43560166</v>
+        <v>24562284</v>
       </c>
       <c r="AY111" s="11">
-        <v>24562284</v>
+        <v>100441333</v>
       </c>
       <c r="AZ111" s="11">
-        <v>100441333</v>
+        <v>122661630</v>
       </c>
       <c r="BA111" s="11">
-        <v>122661630</v>
+        <v>106109209</v>
       </c>
       <c r="BB111" s="11">
-        <v>106109209</v>
+        <v>51222000</v>
       </c>
     </row>
-    <row r="112" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B112" s="12" t="s">
         <v>67</v>
       </c>
@@ -14999,74 +15034,74 @@
       <c r="AF112" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG112" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH112" s="13">
+      <c r="AG112" s="13">
         <v>12000000</v>
       </c>
-      <c r="AI112" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ112" s="13">
+      <c r="AH112" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI112" s="13">
         <v>444600000</v>
       </c>
+      <c r="AJ112" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AK112" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AL112" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM112" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN112" s="13">
+      <c r="AM112" s="13">
         <v>545393939</v>
       </c>
-      <c r="AO112" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP112" s="13">
+      <c r="AN112" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO112" s="13">
         <v>2384589</v>
       </c>
-      <c r="AQ112" s="13" t="s">
-        <v>58</v>
+      <c r="AP112" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ112" s="13">
+        <v>595915493</v>
       </c>
       <c r="AR112" s="13">
-        <v>595915493</v>
+        <v>623566667</v>
       </c>
       <c r="AS112" s="13">
-        <v>623566667</v>
+        <v>639000000</v>
       </c>
       <c r="AT112" s="13">
-        <v>639000000</v>
+        <v>758678571</v>
       </c>
       <c r="AU112" s="13">
-        <v>758678571</v>
-      </c>
-      <c r="AV112" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW112" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AV112" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW112" s="13">
+        <v>0</v>
       </c>
       <c r="AX112" s="13">
-        <v>0</v>
+        <v>865508997</v>
       </c>
       <c r="AY112" s="13">
-        <v>865508997</v>
+        <v>970000000</v>
       </c>
       <c r="AZ112" s="13">
-        <v>970000000</v>
+        <v>1208435208</v>
       </c>
       <c r="BA112" s="13">
-        <v>1208435208</v>
+        <v>0</v>
       </c>
       <c r="BB112" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>70</v>
       </c>
@@ -15152,77 +15187,77 @@
       <c r="AD113" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE113" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF113" s="11">
+      <c r="AE113" s="11">
         <v>74900685</v>
       </c>
-      <c r="AG113" s="11" t="s">
-        <v>58</v>
+      <c r="AF113" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG113" s="11">
+        <v>120316129</v>
       </c>
       <c r="AH113" s="11">
-        <v>120316129</v>
+        <v>120108696</v>
       </c>
       <c r="AI113" s="11">
-        <v>120108696</v>
+        <v>119916318</v>
       </c>
       <c r="AJ113" s="11">
-        <v>119916318</v>
+        <v>120333333</v>
       </c>
       <c r="AK113" s="11">
-        <v>120333333</v>
+        <v>119722380</v>
       </c>
       <c r="AL113" s="11">
-        <v>119722380</v>
+        <v>119853270</v>
       </c>
       <c r="AM113" s="11">
-        <v>119853270</v>
+        <v>121863539</v>
       </c>
       <c r="AN113" s="11">
-        <v>121863539</v>
+        <v>133857143</v>
       </c>
       <c r="AO113" s="11">
-        <v>133857143</v>
+        <v>140160643</v>
       </c>
       <c r="AP113" s="11">
-        <v>140160643</v>
+        <v>140329861</v>
       </c>
       <c r="AQ113" s="11">
-        <v>140329861</v>
+        <v>140098101</v>
       </c>
       <c r="AR113" s="11">
-        <v>140098101</v>
+        <v>140000000</v>
       </c>
       <c r="AS113" s="11">
-        <v>140000000</v>
+        <v>138666667</v>
       </c>
       <c r="AT113" s="11">
-        <v>138666667</v>
+        <v>75211151</v>
       </c>
       <c r="AU113" s="11">
-        <v>75211151</v>
+        <v>110312744</v>
       </c>
       <c r="AV113" s="11">
-        <v>110312744</v>
+        <v>175794872</v>
       </c>
       <c r="AW113" s="11">
-        <v>175794872</v>
+        <v>176455769</v>
       </c>
       <c r="AX113" s="11">
-        <v>176455769</v>
+        <v>175808917</v>
       </c>
       <c r="AY113" s="11">
-        <v>175808917</v>
+        <v>0</v>
       </c>
       <c r="AZ113" s="11">
-        <v>0</v>
+        <v>244603774</v>
       </c>
       <c r="BA113" s="11">
-        <v>244603774</v>
+        <v>245634921</v>
       </c>
       <c r="BB113" s="11">
-        <v>247079365</v>
+        <v>232386667</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/zeraat/simorgh/product/monthly_seprated.xlsx
+++ b/database/industries/zeraat/simorgh/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\simorgh\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\simorgh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329537B8-1F25-449F-9981-17B51B94B70C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B37A7D5-3BA3-4273-9B6D-4FAE1E8F7F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2599" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="107">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سیمرغ-سیمرغ</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 11 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 12 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 1 منتهی به 1397/10</t>
@@ -154,7 +148,7 @@
     <t>ماه 1 منتهی به 1400/10</t>
   </si>
   <si>
-    <t>ماه 2 منتهی به 1400/11</t>
+    <t>ماه 2 منتهی به 1400/12</t>
   </si>
   <si>
     <t>ماه 3 منتهی به 1400/12</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 12 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 1 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 2 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -335,6 +335,9 @@
   </si>
   <si>
     <t>تن / ریال</t>
+  </si>
+  <si>
+    <t>/ ریال</t>
   </si>
   <si>
     <t>هزارقطعه / ریال</t>
@@ -820,12 +823,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -880,7 +883,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -937,7 +940,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -994,7 +997,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1049,7 +1052,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1106,7 +1109,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1163,7 +1166,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1218,7 +1221,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1375,7 +1378,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1430,7 +1433,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1487,7 +1490,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1600,53 +1603,53 @@
       <c r="AM11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO11" s="11">
-        <v>0</v>
+      <c r="AN11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP11" s="11">
         <v>0</v>
       </c>
-      <c r="AQ11" s="11" t="s">
-        <v>58</v>
+      <c r="AQ11" s="11">
+        <v>0</v>
       </c>
       <c r="AR11" s="11">
         <v>0</v>
       </c>
       <c r="AS11" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT11" s="11">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AU11" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV11" s="11">
+        <v>114</v>
+      </c>
+      <c r="AW11" s="11">
+        <v>9</v>
+      </c>
+      <c r="AX11" s="11">
         <v>10</v>
       </c>
-      <c r="AW11" s="11">
-        <v>6</v>
-      </c>
-      <c r="AX11" s="11">
-        <v>114</v>
-      </c>
       <c r="AY11" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ11" s="11">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="BA11" s="11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BB11" s="11">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1729,26 +1732,26 @@
       <c r="AC12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE12" s="13" t="s">
-        <v>58</v>
+      <c r="AD12" s="13">
+        <v>1625</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>109</v>
       </c>
       <c r="AF12" s="13">
-        <v>1625</v>
+        <v>244</v>
       </c>
       <c r="AG12" s="13">
-        <v>109</v>
+        <v>1163</v>
       </c>
       <c r="AH12" s="13">
-        <v>244</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>1163</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK12" s="13" t="s">
         <v>58</v>
@@ -1759,14 +1762,14 @@
       <c r="AM12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="13">
-        <v>0</v>
+      <c r="AN12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ12" s="13" t="s">
         <v>58</v>
@@ -1805,13 +1808,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>60</v>
-      </c>
+      <c r="C13" s="11"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
         <v>58</v>
@@ -1885,50 +1886,50 @@
       <c r="AB13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD13" s="11" t="s">
-        <v>58</v>
+      <c r="AC13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>1</v>
       </c>
       <c r="AE13" s="11">
         <v>0</v>
       </c>
       <c r="AF13" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG13" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AH13" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="11">
-        <v>5</v>
+        <v>119</v>
       </c>
       <c r="AJ13" s="11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK13" s="11">
-        <v>119</v>
+        <v>221</v>
       </c>
       <c r="AL13" s="11">
-        <v>8</v>
+        <v>650</v>
       </c>
       <c r="AM13" s="11">
-        <v>221</v>
+        <v>91</v>
       </c>
       <c r="AN13" s="11">
-        <v>650</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>91</v>
+        <v>12</v>
+      </c>
+      <c r="AO13" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP13" s="11">
-        <v>12</v>
-      </c>
-      <c r="AQ13" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>0</v>
       </c>
       <c r="AR13" s="11">
         <v>0</v>
@@ -1940,31 +1941,31 @@
         <v>0</v>
       </c>
       <c r="AU13" s="11">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="AV13" s="11">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="AW13" s="11">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="AX13" s="11">
-        <v>139</v>
+        <v>465</v>
       </c>
       <c r="AY13" s="11">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="AZ13" s="11">
-        <v>465</v>
+        <v>21</v>
       </c>
       <c r="BA13" s="11">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="11">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>62</v>
       </c>
@@ -2044,86 +2045,86 @@
       <c r="AB14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD14" s="13" t="s">
-        <v>58</v>
+      <c r="AC14" s="13">
+        <v>1707</v>
+      </c>
+      <c r="AD14" s="13">
+        <v>1923</v>
       </c>
       <c r="AE14" s="13">
-        <v>1707</v>
+        <v>2389</v>
       </c>
       <c r="AF14" s="13">
-        <v>1923</v>
+        <v>1998</v>
       </c>
       <c r="AG14" s="13">
-        <v>2389</v>
+        <v>1918</v>
       </c>
       <c r="AH14" s="13">
-        <v>1998</v>
+        <v>1644</v>
       </c>
       <c r="AI14" s="13">
-        <v>1918</v>
+        <v>1539</v>
       </c>
       <c r="AJ14" s="13">
-        <v>1644</v>
+        <v>1747</v>
       </c>
       <c r="AK14" s="13">
-        <v>1539</v>
+        <v>1149</v>
       </c>
       <c r="AL14" s="13">
-        <v>1747</v>
+        <v>1315</v>
       </c>
       <c r="AM14" s="13">
-        <v>1149</v>
+        <v>1546</v>
       </c>
       <c r="AN14" s="13">
-        <v>1315</v>
+        <v>1638</v>
       </c>
       <c r="AO14" s="13">
-        <v>1546</v>
+        <v>1854</v>
       </c>
       <c r="AP14" s="13">
-        <v>1638</v>
+        <v>2423</v>
       </c>
       <c r="AQ14" s="13">
-        <v>1854</v>
+        <v>2423</v>
       </c>
       <c r="AR14" s="13">
-        <v>2336</v>
+        <v>1462</v>
       </c>
       <c r="AS14" s="13">
-        <v>2423</v>
+        <v>1303</v>
       </c>
       <c r="AT14" s="13">
-        <v>1462</v>
+        <v>1380</v>
       </c>
       <c r="AU14" s="13">
-        <v>1303</v>
+        <v>1591</v>
       </c>
       <c r="AV14" s="13">
-        <v>1380</v>
+        <v>1466</v>
       </c>
       <c r="AW14" s="13">
-        <v>1591</v>
+        <v>879</v>
       </c>
       <c r="AX14" s="13">
-        <v>1466</v>
+        <v>754</v>
       </c>
       <c r="AY14" s="13">
-        <v>879</v>
+        <v>1772</v>
       </c>
       <c r="AZ14" s="13">
-        <v>754</v>
+        <v>1706</v>
       </c>
       <c r="BA14" s="13">
-        <v>1772</v>
+        <v>2300</v>
       </c>
       <c r="BB14" s="13">
-        <v>1706</v>
+        <v>2342</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>63</v>
       </c>
@@ -2203,86 +2204,86 @@
       <c r="AB15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD15" s="11" t="s">
-        <v>58</v>
+      <c r="AC15" s="11">
+        <v>4784</v>
+      </c>
+      <c r="AD15" s="11">
+        <v>5825</v>
       </c>
       <c r="AE15" s="11">
-        <v>4784</v>
+        <v>4998</v>
       </c>
       <c r="AF15" s="11">
-        <v>5825</v>
+        <v>8309</v>
       </c>
       <c r="AG15" s="11">
-        <v>4998</v>
+        <v>4622</v>
       </c>
       <c r="AH15" s="11">
-        <v>8309</v>
+        <v>5655</v>
       </c>
       <c r="AI15" s="11">
-        <v>4622</v>
+        <v>5902</v>
       </c>
       <c r="AJ15" s="11">
-        <v>5655</v>
+        <v>5281</v>
       </c>
       <c r="AK15" s="11">
-        <v>5902</v>
+        <v>6437</v>
       </c>
       <c r="AL15" s="11">
-        <v>5281</v>
+        <v>5880</v>
       </c>
       <c r="AM15" s="11">
-        <v>6437</v>
+        <v>5620</v>
       </c>
       <c r="AN15" s="11">
-        <v>5880</v>
+        <v>8209</v>
       </c>
       <c r="AO15" s="11">
-        <v>5620</v>
+        <v>4779</v>
       </c>
       <c r="AP15" s="11">
-        <v>8209</v>
+        <v>5435</v>
       </c>
       <c r="AQ15" s="11">
-        <v>4779</v>
+        <v>5435</v>
       </c>
       <c r="AR15" s="11">
-        <v>6636</v>
+        <v>4354</v>
       </c>
       <c r="AS15" s="11">
-        <v>5435</v>
+        <v>6108</v>
       </c>
       <c r="AT15" s="11">
-        <v>4809</v>
+        <v>11809</v>
       </c>
       <c r="AU15" s="11">
-        <v>6108</v>
+        <v>3948</v>
       </c>
       <c r="AV15" s="11">
-        <v>11809</v>
+        <v>7747</v>
       </c>
       <c r="AW15" s="11">
-        <v>3948</v>
+        <v>5848</v>
       </c>
       <c r="AX15" s="11">
-        <v>7747</v>
+        <v>5357</v>
       </c>
       <c r="AY15" s="11">
-        <v>5848</v>
+        <v>5789</v>
       </c>
       <c r="AZ15" s="11">
-        <v>5357</v>
+        <v>12023</v>
       </c>
       <c r="BA15" s="11">
-        <v>5789</v>
+        <v>4310</v>
       </c>
       <c r="BB15" s="11">
-        <v>12023</v>
+        <v>4702</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>64</v>
       </c>
@@ -2362,86 +2363,86 @@
       <c r="AB16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD16" s="13" t="s">
-        <v>58</v>
+      <c r="AC16" s="13">
+        <v>4940</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>4975</v>
       </c>
       <c r="AE16" s="13">
-        <v>4940</v>
+        <v>4669</v>
       </c>
       <c r="AF16" s="13">
-        <v>4975</v>
+        <v>5074</v>
       </c>
       <c r="AG16" s="13">
-        <v>4669</v>
+        <v>5603</v>
       </c>
       <c r="AH16" s="13">
-        <v>5074</v>
+        <v>5818</v>
       </c>
       <c r="AI16" s="13">
-        <v>5603</v>
+        <v>6082</v>
       </c>
       <c r="AJ16" s="13">
-        <v>5818</v>
+        <v>6338</v>
       </c>
       <c r="AK16" s="13">
-        <v>6082</v>
+        <v>6747</v>
       </c>
       <c r="AL16" s="13">
-        <v>6338</v>
+        <v>6681</v>
       </c>
       <c r="AM16" s="13">
-        <v>6747</v>
+        <v>6701</v>
       </c>
       <c r="AN16" s="13">
-        <v>6681</v>
+        <v>6215</v>
       </c>
       <c r="AO16" s="13">
-        <v>6701</v>
+        <v>6354</v>
       </c>
       <c r="AP16" s="13">
-        <v>6215</v>
+        <v>5667</v>
       </c>
       <c r="AQ16" s="13">
-        <v>6354</v>
+        <v>5667</v>
       </c>
       <c r="AR16" s="13">
-        <v>6138</v>
+        <v>5212</v>
       </c>
       <c r="AS16" s="13">
-        <v>5667</v>
+        <v>4545</v>
       </c>
       <c r="AT16" s="13">
-        <v>5212</v>
+        <v>4315</v>
       </c>
       <c r="AU16" s="13">
-        <v>4661</v>
+        <v>4609</v>
       </c>
       <c r="AV16" s="13">
-        <v>4315</v>
+        <v>4830</v>
       </c>
       <c r="AW16" s="13">
-        <v>4609</v>
+        <v>5217</v>
       </c>
       <c r="AX16" s="13">
-        <v>4828</v>
+        <v>5162</v>
       </c>
       <c r="AY16" s="13">
-        <v>5217</v>
+        <v>5039</v>
       </c>
       <c r="AZ16" s="13">
-        <v>5162</v>
+        <v>4905</v>
       </c>
       <c r="BA16" s="13">
-        <v>5039</v>
+        <v>4866</v>
       </c>
       <c r="BB16" s="13">
-        <v>4905</v>
+        <v>5366</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>65</v>
       </c>
@@ -2521,86 +2522,86 @@
       <c r="AB17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD17" s="11" t="s">
-        <v>58</v>
+      <c r="AC17" s="11">
+        <v>946</v>
+      </c>
+      <c r="AD17" s="11">
+        <v>1549</v>
       </c>
       <c r="AE17" s="11">
-        <v>946</v>
+        <v>1213</v>
       </c>
       <c r="AF17" s="11">
-        <v>1549</v>
+        <v>1325</v>
       </c>
       <c r="AG17" s="11">
-        <v>1213</v>
+        <v>1577</v>
       </c>
       <c r="AH17" s="11">
-        <v>1325</v>
+        <v>1758</v>
       </c>
       <c r="AI17" s="11">
-        <v>1577</v>
+        <v>1683</v>
       </c>
       <c r="AJ17" s="11">
-        <v>1758</v>
+        <v>1784</v>
       </c>
       <c r="AK17" s="11">
-        <v>1683</v>
+        <v>1791</v>
       </c>
       <c r="AL17" s="11">
-        <v>1784</v>
+        <v>1511</v>
       </c>
       <c r="AM17" s="11">
-        <v>1791</v>
+        <v>1695</v>
       </c>
       <c r="AN17" s="11">
-        <v>1511</v>
+        <v>1406</v>
       </c>
       <c r="AO17" s="11">
-        <v>1695</v>
+        <v>1105</v>
       </c>
       <c r="AP17" s="11">
-        <v>1406</v>
+        <v>1434</v>
       </c>
       <c r="AQ17" s="11">
-        <v>1105</v>
+        <v>1434</v>
       </c>
       <c r="AR17" s="11">
-        <v>722</v>
+        <v>2084</v>
       </c>
       <c r="AS17" s="11">
-        <v>1544</v>
+        <v>2012</v>
       </c>
       <c r="AT17" s="11">
-        <v>1567</v>
+        <v>1333</v>
       </c>
       <c r="AU17" s="11">
-        <v>2229</v>
+        <v>241</v>
       </c>
       <c r="AV17" s="11">
-        <v>1333</v>
+        <v>1208</v>
       </c>
       <c r="AW17" s="11">
-        <v>241</v>
+        <v>750</v>
       </c>
       <c r="AX17" s="11">
-        <v>1207</v>
+        <v>943</v>
       </c>
       <c r="AY17" s="11">
-        <v>750</v>
+        <v>1227</v>
       </c>
       <c r="AZ17" s="11">
-        <v>943</v>
+        <v>1008</v>
       </c>
       <c r="BA17" s="11">
-        <v>1227</v>
+        <v>507</v>
       </c>
       <c r="BB17" s="11">
-        <v>1008</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>67</v>
       </c>
@@ -2680,11 +2681,11 @@
       <c r="AB18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD18" s="13" t="s">
-        <v>58</v>
+      <c r="AC18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="13">
+        <v>0</v>
       </c>
       <c r="AE18" s="13">
         <v>0</v>
@@ -2693,64 +2694,64 @@
         <v>0</v>
       </c>
       <c r="AG18" s="13">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH18" s="13">
         <v>0</v>
       </c>
-      <c r="AI18" s="13">
-        <v>25</v>
-      </c>
-      <c r="AJ18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL18" s="13" t="s">
-        <v>58</v>
+      <c r="AI18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK18" s="13">
+        <v>198</v>
+      </c>
+      <c r="AL18" s="13">
+        <v>0</v>
       </c>
       <c r="AM18" s="13">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="AN18" s="13">
         <v>0</v>
       </c>
       <c r="AO18" s="13">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AP18" s="13">
         <v>0</v>
       </c>
       <c r="AQ18" s="13">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="13">
+        <v>28</v>
+      </c>
+      <c r="AS18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="13">
         <v>30</v>
       </c>
-      <c r="AS18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="13">
-        <v>258</v>
-      </c>
-      <c r="AU18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="13">
-        <v>0</v>
-      </c>
       <c r="AW18" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AX18" s="13">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="AY18" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="13">
         <v>0</v>
@@ -2759,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>68</v>
       </c>
@@ -2878,11 +2879,11 @@
       <c r="AO19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ19" s="11" t="s">
-        <v>58</v>
+      <c r="AP19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="11">
+        <v>0</v>
       </c>
       <c r="AR19" s="11">
         <v>0</v>
@@ -2911,14 +2912,14 @@
       <c r="AZ19" s="11">
         <v>0</v>
       </c>
-      <c r="BA19" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB19" s="11">
-        <v>0</v>
+      <c r="BA19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB19" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>69</v>
       </c>
@@ -3037,11 +3038,11 @@
       <c r="AO20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ20" s="13" t="s">
-        <v>58</v>
+      <c r="AP20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="13">
+        <v>0</v>
       </c>
       <c r="AR20" s="13">
         <v>0</v>
@@ -3070,14 +3071,14 @@
       <c r="AZ20" s="13">
         <v>0</v>
       </c>
-      <c r="BA20" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB20" s="13">
-        <v>0</v>
+      <c r="BA20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB20" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>70</v>
       </c>
@@ -3157,86 +3158,86 @@
       <c r="AB21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD21" s="11" t="s">
-        <v>58</v>
+      <c r="AC21" s="11">
+        <v>480</v>
+      </c>
+      <c r="AD21" s="11">
+        <v>488</v>
       </c>
       <c r="AE21" s="11">
-        <v>480</v>
+        <v>406</v>
       </c>
       <c r="AF21" s="11">
-        <v>488</v>
+        <v>382</v>
       </c>
       <c r="AG21" s="11">
-        <v>406</v>
+        <v>360</v>
       </c>
       <c r="AH21" s="11">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="AI21" s="11">
-        <v>360</v>
+        <v>468</v>
       </c>
       <c r="AJ21" s="11">
-        <v>348</v>
+        <v>511</v>
       </c>
       <c r="AK21" s="11">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="AL21" s="11">
-        <v>511</v>
+        <v>378</v>
       </c>
       <c r="AM21" s="11">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="AN21" s="11">
-        <v>378</v>
+        <v>534</v>
       </c>
       <c r="AO21" s="11">
-        <v>497</v>
+        <v>569</v>
       </c>
       <c r="AP21" s="11">
-        <v>534</v>
+        <v>422</v>
       </c>
       <c r="AQ21" s="11">
-        <v>569</v>
+        <v>422</v>
       </c>
       <c r="AR21" s="11">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="AS21" s="11">
-        <v>422</v>
+        <v>299</v>
       </c>
       <c r="AT21" s="11">
-        <v>1034</v>
+        <v>559</v>
       </c>
       <c r="AU21" s="11">
-        <v>83</v>
+        <v>520</v>
       </c>
       <c r="AV21" s="11">
-        <v>559</v>
+        <v>524</v>
       </c>
       <c r="AW21" s="11">
-        <v>520</v>
+        <v>414</v>
       </c>
       <c r="AX21" s="11">
-        <v>524</v>
+        <v>312</v>
       </c>
       <c r="AY21" s="11">
-        <v>414</v>
+        <v>599</v>
       </c>
       <c r="AZ21" s="11">
-        <v>312</v>
+        <v>473</v>
       </c>
       <c r="BA21" s="11">
-        <v>597</v>
+        <v>352</v>
       </c>
       <c r="BB21" s="11">
-        <v>473</v>
+        <v>554</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>71</v>
       </c>
@@ -3355,11 +3356,11 @@
       <c r="AO22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ22" s="13" t="s">
-        <v>58</v>
+      <c r="AP22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="13">
+        <v>0</v>
       </c>
       <c r="AR22" s="13">
         <v>0</v>
@@ -3388,14 +3389,14 @@
       <c r="AZ22" s="13">
         <v>0</v>
       </c>
-      <c r="BA22" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB22" s="13">
-        <v>0</v>
+      <c r="BA22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB22" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>72</v>
       </c>
@@ -3514,11 +3515,11 @@
       <c r="AO23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ23" s="11" t="s">
-        <v>58</v>
+      <c r="AP23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="11">
+        <v>0</v>
       </c>
       <c r="AR23" s="11">
         <v>0</v>
@@ -3547,14 +3548,14 @@
       <c r="AZ23" s="11">
         <v>0</v>
       </c>
-      <c r="BA23" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB23" s="11">
-        <v>0</v>
+      <c r="BA23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB23" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>74</v>
       </c>
@@ -3673,11 +3674,11 @@
       <c r="AO24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ24" s="13" t="s">
-        <v>58</v>
+      <c r="AP24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="13">
+        <v>0</v>
       </c>
       <c r="AR24" s="13">
         <v>0</v>
@@ -3706,14 +3707,14 @@
       <c r="AZ24" s="13">
         <v>0</v>
       </c>
-      <c r="BA24" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB24" s="13">
-        <v>0</v>
+      <c r="BA24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB24" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>75</v>
       </c>
@@ -3792,85 +3793,85 @@
         <v>0</v>
       </c>
       <c r="AC25" s="15">
-        <v>0</v>
+        <v>12857</v>
       </c>
       <c r="AD25" s="15">
-        <v>0</v>
+        <v>16386</v>
       </c>
       <c r="AE25" s="15">
-        <v>12857</v>
+        <v>13784</v>
       </c>
       <c r="AF25" s="15">
-        <v>16386</v>
+        <v>17336</v>
       </c>
       <c r="AG25" s="15">
-        <v>13784</v>
+        <v>15273</v>
       </c>
       <c r="AH25" s="15">
-        <v>17336</v>
+        <v>15223</v>
       </c>
       <c r="AI25" s="15">
-        <v>15273</v>
+        <v>15793</v>
       </c>
       <c r="AJ25" s="15">
-        <v>15223</v>
+        <v>15669</v>
       </c>
       <c r="AK25" s="15">
-        <v>15793</v>
+        <v>17020</v>
       </c>
       <c r="AL25" s="15">
-        <v>15669</v>
+        <v>16415</v>
       </c>
       <c r="AM25" s="15">
-        <v>17020</v>
+        <v>16150</v>
       </c>
       <c r="AN25" s="15">
-        <v>16415</v>
+        <v>18014</v>
       </c>
       <c r="AO25" s="15">
-        <v>16150</v>
+        <v>14732</v>
       </c>
       <c r="AP25" s="15">
-        <v>18014</v>
+        <v>15381</v>
       </c>
       <c r="AQ25" s="15">
-        <v>14732</v>
+        <v>15381</v>
       </c>
       <c r="AR25" s="15">
-        <v>16368</v>
+        <v>13657</v>
       </c>
       <c r="AS25" s="15">
-        <v>15491</v>
+        <v>14271</v>
       </c>
       <c r="AT25" s="15">
-        <v>14371</v>
+        <v>19406</v>
       </c>
       <c r="AU25" s="15">
-        <v>14388</v>
+        <v>11053</v>
       </c>
       <c r="AV25" s="15">
-        <v>19406</v>
+        <v>16058</v>
       </c>
       <c r="AW25" s="15">
-        <v>11053</v>
+        <v>13200</v>
       </c>
       <c r="AX25" s="15">
-        <v>16055</v>
+        <v>13008</v>
       </c>
       <c r="AY25" s="15">
-        <v>13200</v>
+        <v>14469</v>
       </c>
       <c r="AZ25" s="15">
-        <v>13008</v>
+        <v>20179</v>
       </c>
       <c r="BA25" s="15">
-        <v>14467</v>
+        <v>12335</v>
       </c>
       <c r="BB25" s="15">
-        <v>20138</v>
+        <v>13236</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
         <v>76</v>
       </c>
@@ -3927,7 +3928,7 @@
       <c r="BA26" s="17"/>
       <c r="BB26" s="17"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
         <v>77</v>
       </c>
@@ -4084,7 +4085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
         <v>78</v>
       </c>
@@ -4141,7 +4142,7 @@
       <c r="BA28" s="17"/>
       <c r="BB28" s="17"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>79</v>
       </c>
@@ -4219,11 +4220,11 @@
       <c r="AB29" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AC29" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD29" s="15" t="s">
-        <v>58</v>
+      <c r="AC29" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="15">
+        <v>0</v>
       </c>
       <c r="AE29" s="15">
         <v>0</v>
@@ -4264,8 +4265,8 @@
       <c r="AQ29" s="15">
         <v>0</v>
       </c>
-      <c r="AR29" s="15">
-        <v>0</v>
+      <c r="AR29" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AS29" s="15" t="s">
         <v>58</v>
@@ -4298,7 +4299,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="18" t="s">
         <v>80</v>
       </c>
@@ -4377,85 +4378,85 @@
         <v>0</v>
       </c>
       <c r="AC30" s="19">
-        <v>0</v>
+        <v>12857</v>
       </c>
       <c r="AD30" s="19">
-        <v>0</v>
+        <v>16386</v>
       </c>
       <c r="AE30" s="19">
-        <v>12857</v>
+        <v>13784</v>
       </c>
       <c r="AF30" s="19">
-        <v>16386</v>
+        <v>17336</v>
       </c>
       <c r="AG30" s="19">
-        <v>13784</v>
+        <v>15273</v>
       </c>
       <c r="AH30" s="19">
-        <v>17336</v>
+        <v>15223</v>
       </c>
       <c r="AI30" s="19">
-        <v>15273</v>
+        <v>15793</v>
       </c>
       <c r="AJ30" s="19">
-        <v>15223</v>
+        <v>15669</v>
       </c>
       <c r="AK30" s="19">
-        <v>15793</v>
+        <v>17020</v>
       </c>
       <c r="AL30" s="19">
-        <v>15669</v>
+        <v>16415</v>
       </c>
       <c r="AM30" s="19">
-        <v>17020</v>
+        <v>16150</v>
       </c>
       <c r="AN30" s="19">
-        <v>16415</v>
+        <v>18014</v>
       </c>
       <c r="AO30" s="19">
-        <v>16150</v>
+        <v>14732</v>
       </c>
       <c r="AP30" s="19">
-        <v>18014</v>
+        <v>15381</v>
       </c>
       <c r="AQ30" s="19">
-        <v>14732</v>
+        <v>15381</v>
       </c>
       <c r="AR30" s="19">
-        <v>16368</v>
+        <v>13657</v>
       </c>
       <c r="AS30" s="19">
-        <v>15491</v>
+        <v>14271</v>
       </c>
       <c r="AT30" s="19">
-        <v>14371</v>
+        <v>19406</v>
       </c>
       <c r="AU30" s="19">
-        <v>14388</v>
+        <v>11053</v>
       </c>
       <c r="AV30" s="19">
-        <v>19406</v>
+        <v>16058</v>
       </c>
       <c r="AW30" s="19">
-        <v>11053</v>
+        <v>13200</v>
       </c>
       <c r="AX30" s="19">
-        <v>16055</v>
+        <v>13008</v>
       </c>
       <c r="AY30" s="19">
-        <v>13200</v>
+        <v>14469</v>
       </c>
       <c r="AZ30" s="19">
-        <v>13008</v>
+        <v>20179</v>
       </c>
       <c r="BA30" s="19">
-        <v>14467</v>
+        <v>12335</v>
       </c>
       <c r="BB30" s="19">
-        <v>20138</v>
+        <v>13236</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4510,7 +4511,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4565,7 +4566,7 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4620,7 +4621,7 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
     </row>
-    <row r="34" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>81</v>
       </c>
@@ -4777,7 +4778,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4832,7 +4833,7 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>82</v>
       </c>
@@ -4889,7 +4890,7 @@
       <c r="BA36" s="9"/>
       <c r="BB36" s="9"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>56</v>
       </c>
@@ -5002,53 +5003,53 @@
       <c r="AM37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO37" s="11">
-        <v>0</v>
+      <c r="AN37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP37" s="11">
         <v>0</v>
       </c>
-      <c r="AQ37" s="11" t="s">
-        <v>58</v>
+      <c r="AQ37" s="11">
+        <v>0</v>
       </c>
       <c r="AR37" s="11">
         <v>0</v>
       </c>
       <c r="AS37" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AT37" s="11">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AU37" s="11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV37" s="11">
+        <v>114</v>
+      </c>
+      <c r="AW37" s="11">
+        <v>9</v>
+      </c>
+      <c r="AX37" s="11">
         <v>10</v>
       </c>
-      <c r="AW37" s="11">
-        <v>6</v>
-      </c>
-      <c r="AX37" s="11">
-        <v>114</v>
-      </c>
       <c r="AY37" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ37" s="11">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="BA37" s="11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BB37" s="11">
-        <v>2</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -5131,26 +5132,26 @@
       <c r="AC38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE38" s="13" t="s">
-        <v>58</v>
+      <c r="AD38" s="13">
+        <v>1625</v>
+      </c>
+      <c r="AE38" s="13">
+        <v>109</v>
       </c>
       <c r="AF38" s="13">
-        <v>1625</v>
+        <v>244</v>
       </c>
       <c r="AG38" s="13">
-        <v>109</v>
+        <v>1163</v>
       </c>
       <c r="AH38" s="13">
-        <v>244</v>
-      </c>
-      <c r="AI38" s="13">
-        <v>1163</v>
-      </c>
-      <c r="AJ38" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AI38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK38" s="13" t="s">
         <v>58</v>
@@ -5161,14 +5162,14 @@
       <c r="AM38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP38" s="13">
-        <v>0</v>
+      <c r="AN38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ38" s="13" t="s">
         <v>58</v>
@@ -5207,13 +5208,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>60</v>
-      </c>
+      <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
         <v>58</v>
@@ -5287,86 +5286,86 @@
       <c r="AB39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD39" s="11" t="s">
-        <v>58</v>
+      <c r="AC39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="11">
+        <v>15</v>
       </c>
       <c r="AE39" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF39" s="11">
+        <v>29</v>
+      </c>
+      <c r="AG39" s="11">
+        <v>5</v>
+      </c>
+      <c r="AH39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="11">
+        <v>119</v>
+      </c>
+      <c r="AJ39" s="11">
+        <v>8</v>
+      </c>
+      <c r="AK39" s="11">
+        <v>128</v>
+      </c>
+      <c r="AL39" s="11">
+        <v>590</v>
+      </c>
+      <c r="AM39" s="11">
+        <v>76</v>
+      </c>
+      <c r="AN39" s="11">
+        <v>39</v>
+      </c>
+      <c r="AO39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP39" s="11">
+        <v>119</v>
+      </c>
+      <c r="AQ39" s="11">
+        <v>119</v>
+      </c>
+      <c r="AR39" s="11">
+        <v>7</v>
+      </c>
+      <c r="AS39" s="11">
+        <v>16</v>
+      </c>
+      <c r="AT39" s="11">
+        <v>5</v>
+      </c>
+      <c r="AU39" s="11">
+        <v>148</v>
+      </c>
+      <c r="AV39" s="11">
+        <v>140</v>
+      </c>
+      <c r="AW39" s="11">
+        <v>18</v>
+      </c>
+      <c r="AX39" s="11">
+        <v>430</v>
+      </c>
+      <c r="AY39" s="11">
+        <v>38</v>
+      </c>
+      <c r="AZ39" s="11">
+        <v>26</v>
+      </c>
+      <c r="BA39" s="11">
         <v>15</v>
       </c>
-      <c r="AG39" s="11">
-        <v>1</v>
-      </c>
-      <c r="AH39" s="11">
-        <v>29</v>
-      </c>
-      <c r="AI39" s="11">
-        <v>5</v>
-      </c>
-      <c r="AJ39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK39" s="11">
-        <v>119</v>
-      </c>
-      <c r="AL39" s="11">
-        <v>8</v>
-      </c>
-      <c r="AM39" s="11">
-        <v>128</v>
-      </c>
-      <c r="AN39" s="11">
-        <v>590</v>
-      </c>
-      <c r="AO39" s="11">
-        <v>76</v>
-      </c>
-      <c r="AP39" s="11">
-        <v>39</v>
-      </c>
-      <c r="AQ39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS39" s="11">
-        <v>119</v>
-      </c>
-      <c r="AT39" s="11">
-        <v>7</v>
-      </c>
-      <c r="AU39" s="11">
-        <v>-18</v>
-      </c>
-      <c r="AV39" s="11">
-        <v>5</v>
-      </c>
-      <c r="AW39" s="11">
-        <v>148</v>
-      </c>
-      <c r="AX39" s="11">
-        <v>140</v>
-      </c>
-      <c r="AY39" s="11">
-        <v>18</v>
-      </c>
-      <c r="AZ39" s="11">
-        <v>430</v>
-      </c>
-      <c r="BA39" s="11">
-        <v>37</v>
-      </c>
       <c r="BB39" s="11">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>62</v>
       </c>
@@ -5446,86 +5445,86 @@
       <c r="AB40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD40" s="13" t="s">
-        <v>58</v>
+      <c r="AC40" s="13">
+        <v>76</v>
+      </c>
+      <c r="AD40" s="13">
+        <v>95</v>
       </c>
       <c r="AE40" s="13">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="AF40" s="13">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="AG40" s="13">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AH40" s="13">
+        <v>59</v>
+      </c>
+      <c r="AI40" s="13">
+        <v>104</v>
+      </c>
+      <c r="AJ40" s="13">
+        <v>53</v>
+      </c>
+      <c r="AK40" s="13">
         <v>34</v>
       </c>
-      <c r="AI40" s="13">
-        <v>94</v>
-      </c>
-      <c r="AJ40" s="13">
-        <v>59</v>
-      </c>
-      <c r="AK40" s="13">
-        <v>104</v>
-      </c>
       <c r="AL40" s="13">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="AM40" s="13">
-        <v>34</v>
+        <v>157</v>
       </c>
       <c r="AN40" s="13">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="AO40" s="13">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="AP40" s="13">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="AQ40" s="13">
+        <v>126</v>
+      </c>
+      <c r="AR40" s="13">
+        <v>25</v>
+      </c>
+      <c r="AS40" s="13">
+        <v>143</v>
+      </c>
+      <c r="AT40" s="13">
+        <v>72</v>
+      </c>
+      <c r="AU40" s="13">
+        <v>67</v>
+      </c>
+      <c r="AV40" s="13">
+        <v>58</v>
+      </c>
+      <c r="AW40" s="13">
+        <v>37</v>
+      </c>
+      <c r="AX40" s="13">
+        <v>118</v>
+      </c>
+      <c r="AY40" s="13">
+        <v>319</v>
+      </c>
+      <c r="AZ40" s="13">
+        <v>262</v>
+      </c>
+      <c r="BA40" s="13">
         <v>138</v>
       </c>
-      <c r="AR40" s="13">
-        <v>110</v>
-      </c>
-      <c r="AS40" s="13">
-        <v>126</v>
-      </c>
-      <c r="AT40" s="13">
-        <v>25</v>
-      </c>
-      <c r="AU40" s="13">
-        <v>143</v>
-      </c>
-      <c r="AV40" s="13">
-        <v>72</v>
-      </c>
-      <c r="AW40" s="13">
-        <v>67</v>
-      </c>
-      <c r="AX40" s="13">
-        <v>58</v>
-      </c>
-      <c r="AY40" s="13">
-        <v>37</v>
-      </c>
-      <c r="AZ40" s="13">
-        <v>118</v>
-      </c>
-      <c r="BA40" s="13">
-        <v>319</v>
-      </c>
       <c r="BB40" s="13">
-        <v>262</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>63</v>
       </c>
@@ -5605,86 +5604,86 @@
       <c r="AB41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD41" s="11" t="s">
-        <v>58</v>
+      <c r="AC41" s="11">
+        <v>4583</v>
+      </c>
+      <c r="AD41" s="11">
+        <v>6039</v>
       </c>
       <c r="AE41" s="11">
-        <v>4583</v>
+        <v>7333</v>
       </c>
       <c r="AF41" s="11">
-        <v>6039</v>
+        <v>9209</v>
       </c>
       <c r="AG41" s="11">
-        <v>7333</v>
+        <v>4504</v>
       </c>
       <c r="AH41" s="11">
-        <v>9209</v>
+        <v>5452</v>
       </c>
       <c r="AI41" s="11">
-        <v>4504</v>
+        <v>5674</v>
       </c>
       <c r="AJ41" s="11">
-        <v>5452</v>
+        <v>5052</v>
       </c>
       <c r="AK41" s="11">
-        <v>5674</v>
+        <v>6215</v>
       </c>
       <c r="AL41" s="11">
-        <v>5052</v>
+        <v>5661</v>
       </c>
       <c r="AM41" s="11">
-        <v>6215</v>
+        <v>5396</v>
       </c>
       <c r="AN41" s="11">
-        <v>5661</v>
+        <v>8097</v>
       </c>
       <c r="AO41" s="11">
-        <v>5396</v>
+        <v>4636</v>
       </c>
       <c r="AP41" s="11">
-        <v>8097</v>
+        <v>5678</v>
       </c>
       <c r="AQ41" s="11">
-        <v>4636</v>
+        <v>5678</v>
       </c>
       <c r="AR41" s="11">
-        <v>6402</v>
+        <v>4126</v>
       </c>
       <c r="AS41" s="11">
-        <v>5678</v>
+        <v>5874</v>
       </c>
       <c r="AT41" s="11">
-        <v>4125</v>
+        <v>11586</v>
       </c>
       <c r="AU41" s="11">
-        <v>5874</v>
+        <v>3695</v>
       </c>
       <c r="AV41" s="11">
-        <v>11586</v>
+        <v>7498</v>
       </c>
       <c r="AW41" s="11">
-        <v>3695</v>
+        <v>5631</v>
       </c>
       <c r="AX41" s="11">
-        <v>7498</v>
+        <v>7783</v>
       </c>
       <c r="AY41" s="11">
-        <v>5631</v>
+        <v>7649</v>
       </c>
       <c r="AZ41" s="11">
-        <v>7783</v>
+        <v>11569</v>
       </c>
       <c r="BA41" s="11">
-        <v>7649</v>
+        <v>4202</v>
       </c>
       <c r="BB41" s="11">
-        <v>11812</v>
+        <v>4471</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>64</v>
       </c>
@@ -5764,86 +5763,86 @@
       <c r="AB42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD42" s="13" t="s">
-        <v>58</v>
+      <c r="AC42" s="13">
+        <v>5422</v>
+      </c>
+      <c r="AD42" s="13">
+        <v>5089</v>
       </c>
       <c r="AE42" s="13">
-        <v>5422</v>
+        <v>4699</v>
       </c>
       <c r="AF42" s="13">
-        <v>5089</v>
+        <v>4734</v>
       </c>
       <c r="AG42" s="13">
-        <v>4699</v>
+        <v>5849</v>
       </c>
       <c r="AH42" s="13">
-        <v>4734</v>
+        <v>6095</v>
       </c>
       <c r="AI42" s="13">
-        <v>5849</v>
+        <v>5933</v>
       </c>
       <c r="AJ42" s="13">
-        <v>6095</v>
+        <v>6295</v>
       </c>
       <c r="AK42" s="13">
-        <v>5933</v>
+        <v>6928</v>
       </c>
       <c r="AL42" s="13">
-        <v>6295</v>
+        <v>6374</v>
       </c>
       <c r="AM42" s="13">
-        <v>6928</v>
+        <v>6697</v>
       </c>
       <c r="AN42" s="13">
-        <v>6374</v>
+        <v>6458</v>
       </c>
       <c r="AO42" s="13">
-        <v>6697</v>
+        <v>6204</v>
       </c>
       <c r="AP42" s="13">
-        <v>6458</v>
+        <v>5822</v>
       </c>
       <c r="AQ42" s="13">
-        <v>6204</v>
+        <v>5822</v>
       </c>
       <c r="AR42" s="13">
-        <v>5943</v>
+        <v>5109</v>
       </c>
       <c r="AS42" s="13">
-        <v>5822</v>
+        <v>4303</v>
       </c>
       <c r="AT42" s="13">
-        <v>5109</v>
+        <v>4737</v>
       </c>
       <c r="AU42" s="13">
-        <v>4303</v>
+        <v>4389</v>
       </c>
       <c r="AV42" s="13">
-        <v>4737</v>
+        <v>4768</v>
       </c>
       <c r="AW42" s="13">
-        <v>4389</v>
+        <v>5274</v>
       </c>
       <c r="AX42" s="13">
-        <v>4768</v>
+        <v>4918</v>
       </c>
       <c r="AY42" s="13">
-        <v>5274</v>
+        <v>5125</v>
       </c>
       <c r="AZ42" s="13">
-        <v>4918</v>
+        <v>4959</v>
       </c>
       <c r="BA42" s="13">
-        <v>5123</v>
+        <v>4551</v>
       </c>
       <c r="BB42" s="13">
-        <v>4959</v>
+        <v>5270</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>65</v>
       </c>
@@ -5923,86 +5922,86 @@
       <c r="AB43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD43" s="11" t="s">
-        <v>58</v>
+      <c r="AC43" s="11">
+        <v>946</v>
+      </c>
+      <c r="AD43" s="11">
+        <v>1549</v>
       </c>
       <c r="AE43" s="11">
-        <v>946</v>
+        <v>1213</v>
       </c>
       <c r="AF43" s="11">
-        <v>1549</v>
+        <v>1325</v>
       </c>
       <c r="AG43" s="11">
-        <v>1213</v>
+        <v>1577</v>
       </c>
       <c r="AH43" s="11">
-        <v>1325</v>
+        <v>1758</v>
       </c>
       <c r="AI43" s="11">
-        <v>1577</v>
+        <v>1087</v>
       </c>
       <c r="AJ43" s="11">
-        <v>1758</v>
+        <v>2379</v>
       </c>
       <c r="AK43" s="11">
-        <v>1087</v>
+        <v>1791</v>
       </c>
       <c r="AL43" s="11">
-        <v>2379</v>
+        <v>1511</v>
       </c>
       <c r="AM43" s="11">
-        <v>1791</v>
+        <v>1695</v>
       </c>
       <c r="AN43" s="11">
-        <v>1511</v>
+        <v>1406</v>
       </c>
       <c r="AO43" s="11">
-        <v>1695</v>
+        <v>1105</v>
       </c>
       <c r="AP43" s="11">
-        <v>1406</v>
+        <v>1434</v>
       </c>
       <c r="AQ43" s="11">
-        <v>1105</v>
+        <v>1434</v>
       </c>
       <c r="AR43" s="11">
-        <v>722</v>
+        <v>2084</v>
       </c>
       <c r="AS43" s="11">
-        <v>1544</v>
+        <v>1683</v>
       </c>
       <c r="AT43" s="11">
-        <v>648</v>
+        <v>1092</v>
       </c>
       <c r="AU43" s="11">
-        <v>3148</v>
+        <v>241</v>
       </c>
       <c r="AV43" s="11">
-        <v>1092</v>
+        <v>1156</v>
       </c>
       <c r="AW43" s="11">
-        <v>241</v>
+        <v>750</v>
       </c>
       <c r="AX43" s="11">
-        <v>1156</v>
+        <v>943</v>
       </c>
       <c r="AY43" s="11">
-        <v>750</v>
+        <v>1227</v>
       </c>
       <c r="AZ43" s="11">
-        <v>943</v>
+        <v>1000</v>
       </c>
       <c r="BA43" s="11">
-        <v>1227</v>
+        <v>500</v>
       </c>
       <c r="BB43" s="11">
-        <v>1000</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>67</v>
       </c>
@@ -6082,77 +6081,77 @@
       <c r="AB44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD44" s="13" t="s">
-        <v>58</v>
+      <c r="AC44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="13">
+        <v>0</v>
       </c>
       <c r="AE44" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF44" s="13">
         <v>0</v>
       </c>
       <c r="AG44" s="13">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="AH44" s="13">
         <v>0</v>
       </c>
-      <c r="AI44" s="13">
-        <v>25</v>
-      </c>
-      <c r="AJ44" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL44" s="13" t="s">
-        <v>58</v>
+      <c r="AI44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ44" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK44" s="13">
+        <v>198</v>
+      </c>
+      <c r="AL44" s="13">
+        <v>0</v>
       </c>
       <c r="AM44" s="13">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="AN44" s="13">
         <v>0</v>
       </c>
       <c r="AO44" s="13">
-        <v>-1</v>
+        <v>71</v>
       </c>
       <c r="AP44" s="13">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="AQ44" s="13">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="AR44" s="13">
+        <v>28</v>
+      </c>
+      <c r="AS44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV44" s="13">
         <v>30</v>
       </c>
-      <c r="AS44" s="13">
-        <v>230</v>
-      </c>
-      <c r="AT44" s="13">
-        <v>28</v>
-      </c>
-      <c r="AU44" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV44" s="13">
-        <v>0</v>
-      </c>
       <c r="AW44" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AX44" s="13">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="AY44" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AZ44" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BA44" s="13">
         <v>0</v>
@@ -6161,7 +6160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>68</v>
       </c>
@@ -6280,11 +6279,11 @@
       <c r="AO45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ45" s="11" t="s">
-        <v>58</v>
+      <c r="AP45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ45" s="11">
+        <v>0</v>
       </c>
       <c r="AR45" s="11">
         <v>0</v>
@@ -6313,14 +6312,14 @@
       <c r="AZ45" s="11">
         <v>0</v>
       </c>
-      <c r="BA45" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB45" s="11">
-        <v>0</v>
+      <c r="BA45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB45" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>69</v>
       </c>
@@ -6439,11 +6438,11 @@
       <c r="AO46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ46" s="13" t="s">
-        <v>58</v>
+      <c r="AP46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="13">
+        <v>0</v>
       </c>
       <c r="AR46" s="13">
         <v>0</v>
@@ -6472,14 +6471,14 @@
       <c r="AZ46" s="13">
         <v>0</v>
       </c>
-      <c r="BA46" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB46" s="13">
-        <v>0</v>
+      <c r="BA46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB46" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>70</v>
       </c>
@@ -6559,86 +6558,86 @@
       <c r="AB47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD47" s="11" t="s">
-        <v>58</v>
+      <c r="AC47" s="11">
+        <v>292</v>
+      </c>
+      <c r="AD47" s="11">
+        <v>0</v>
       </c>
       <c r="AE47" s="11">
-        <v>292</v>
+        <v>155</v>
       </c>
       <c r="AF47" s="11">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="AG47" s="11">
-        <v>155</v>
+        <v>239</v>
       </c>
       <c r="AH47" s="11">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="AI47" s="11">
-        <v>239</v>
+        <v>353</v>
       </c>
       <c r="AJ47" s="11">
-        <v>240</v>
+        <v>627</v>
       </c>
       <c r="AK47" s="11">
-        <v>353</v>
+        <v>469</v>
       </c>
       <c r="AL47" s="11">
-        <v>627</v>
+        <v>77</v>
       </c>
       <c r="AM47" s="11">
-        <v>469</v>
+        <v>249</v>
       </c>
       <c r="AN47" s="11">
-        <v>77</v>
+        <v>288</v>
       </c>
       <c r="AO47" s="11">
-        <v>249</v>
+        <v>316</v>
       </c>
       <c r="AP47" s="11">
-        <v>288</v>
+        <v>84</v>
       </c>
       <c r="AQ47" s="11">
-        <v>316</v>
+        <v>84</v>
       </c>
       <c r="AR47" s="11">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="AS47" s="11">
-        <v>84</v>
+        <v>299</v>
       </c>
       <c r="AT47" s="11">
-        <v>1668</v>
+        <v>156</v>
       </c>
       <c r="AU47" s="11">
-        <v>-1166</v>
+        <v>520</v>
       </c>
       <c r="AV47" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AW47" s="11">
-        <v>520</v>
+        <v>0</v>
       </c>
       <c r="AX47" s="11">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="AY47" s="11">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="AZ47" s="11">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="BA47" s="11">
-        <v>126</v>
+        <v>352</v>
       </c>
       <c r="BB47" s="11">
-        <v>75</v>
+        <v>496</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>71</v>
       </c>
@@ -6757,11 +6756,11 @@
       <c r="AO48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ48" s="13" t="s">
-        <v>58</v>
+      <c r="AP48" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="13">
+        <v>0</v>
       </c>
       <c r="AR48" s="13">
         <v>0</v>
@@ -6790,14 +6789,14 @@
       <c r="AZ48" s="13">
         <v>0</v>
       </c>
-      <c r="BA48" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB48" s="13">
-        <v>0</v>
+      <c r="BA48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB48" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>72</v>
       </c>
@@ -6916,11 +6915,11 @@
       <c r="AO49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ49" s="11" t="s">
-        <v>58</v>
+      <c r="AP49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ49" s="11">
+        <v>0</v>
       </c>
       <c r="AR49" s="11">
         <v>0</v>
@@ -6949,14 +6948,14 @@
       <c r="AZ49" s="11">
         <v>0</v>
       </c>
-      <c r="BA49" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB49" s="11">
-        <v>0</v>
+      <c r="BA49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB49" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>74</v>
       </c>
@@ -7075,11 +7074,11 @@
       <c r="AO50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ50" s="13" t="s">
-        <v>58</v>
+      <c r="AP50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ50" s="13">
+        <v>0</v>
       </c>
       <c r="AR50" s="13">
         <v>0</v>
@@ -7108,14 +7107,14 @@
       <c r="AZ50" s="13">
         <v>0</v>
       </c>
-      <c r="BA50" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB50" s="13">
-        <v>0</v>
+      <c r="BA50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB50" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
         <v>83</v>
       </c>
@@ -7194,85 +7193,85 @@
         <v>0</v>
       </c>
       <c r="AC51" s="15">
-        <v>0</v>
+        <v>11319</v>
       </c>
       <c r="AD51" s="15">
-        <v>0</v>
+        <v>14412</v>
       </c>
       <c r="AE51" s="15">
-        <v>11319</v>
+        <v>13621</v>
       </c>
       <c r="AF51" s="15">
-        <v>14412</v>
+        <v>15713</v>
       </c>
       <c r="AG51" s="15">
-        <v>13621</v>
+        <v>13456</v>
       </c>
       <c r="AH51" s="15">
-        <v>15713</v>
+        <v>13604</v>
       </c>
       <c r="AI51" s="15">
-        <v>13456</v>
+        <v>13270</v>
       </c>
       <c r="AJ51" s="15">
-        <v>13604</v>
+        <v>14414</v>
       </c>
       <c r="AK51" s="15">
-        <v>13270</v>
+        <v>15763</v>
       </c>
       <c r="AL51" s="15">
-        <v>14414</v>
+        <v>14286</v>
       </c>
       <c r="AM51" s="15">
-        <v>15763</v>
+        <v>14270</v>
       </c>
       <c r="AN51" s="15">
-        <v>14286</v>
+        <v>16393</v>
       </c>
       <c r="AO51" s="15">
-        <v>14269</v>
+        <v>12470</v>
       </c>
       <c r="AP51" s="15">
-        <v>16393</v>
+        <v>13493</v>
       </c>
       <c r="AQ51" s="15">
-        <v>12470</v>
+        <v>13493</v>
       </c>
       <c r="AR51" s="15">
-        <v>13258</v>
+        <v>11611</v>
       </c>
       <c r="AS51" s="15">
-        <v>13603</v>
+        <v>12322</v>
       </c>
       <c r="AT51" s="15">
-        <v>11639</v>
+        <v>17658</v>
       </c>
       <c r="AU51" s="15">
-        <v>12288</v>
+        <v>9066</v>
       </c>
       <c r="AV51" s="15">
-        <v>17658</v>
+        <v>13921</v>
       </c>
       <c r="AW51" s="15">
-        <v>9066</v>
+        <v>11734</v>
       </c>
       <c r="AX51" s="15">
-        <v>13921</v>
+        <v>14260</v>
       </c>
       <c r="AY51" s="15">
-        <v>11734</v>
+        <v>14492</v>
       </c>
       <c r="AZ51" s="15">
-        <v>14260</v>
+        <v>17934</v>
       </c>
       <c r="BA51" s="15">
-        <v>14489</v>
+        <v>9758</v>
       </c>
       <c r="BB51" s="15">
-        <v>18136</v>
+        <v>10722</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="16" t="s">
         <v>84</v>
       </c>
@@ -7329,7 +7328,7 @@
       <c r="BA52" s="17"/>
       <c r="BB52" s="17"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
         <v>85</v>
       </c>
@@ -7486,7 +7485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="16" t="s">
         <v>78</v>
       </c>
@@ -7543,7 +7542,7 @@
       <c r="BA54" s="17"/>
       <c r="BB54" s="17"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
         <v>79</v>
       </c>
@@ -7621,11 +7620,11 @@
       <c r="AB55" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AC55" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD55" s="15" t="s">
-        <v>58</v>
+      <c r="AC55" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="15">
+        <v>0</v>
       </c>
       <c r="AE55" s="15">
         <v>0</v>
@@ -7666,8 +7665,8 @@
       <c r="AQ55" s="15">
         <v>0</v>
       </c>
-      <c r="AR55" s="15">
-        <v>0</v>
+      <c r="AR55" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AS55" s="15" t="s">
         <v>58</v>
@@ -7700,7 +7699,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
         <v>86</v>
       </c>
@@ -7757,7 +7756,7 @@
       <c r="BA56" s="9"/>
       <c r="BB56" s="9"/>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>56</v>
       </c>
@@ -7876,14 +7875,14 @@
       <c r="AO57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR57" s="11">
-        <v>0</v>
+      <c r="AP57" s="11">
+        <v>1</v>
+      </c>
+      <c r="AQ57" s="11">
+        <v>1</v>
+      </c>
+      <c r="AR57" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS57" s="11" t="s">
         <v>58</v>
@@ -7916,7 +7915,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>64</v>
       </c>
@@ -7999,50 +7998,50 @@
       <c r="AC58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE58" s="13" t="s">
-        <v>58</v>
+      <c r="AD58" s="13">
+        <v>-1</v>
+      </c>
+      <c r="AE58" s="13">
+        <v>-2</v>
       </c>
       <c r="AF58" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG58" s="13">
         <v>-1</v>
       </c>
-      <c r="AG58" s="13">
-        <v>-2</v>
-      </c>
       <c r="AH58" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI58" s="13">
         <v>-1</v>
       </c>
+      <c r="AI58" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ58" s="13">
+        <v>-41</v>
+      </c>
+      <c r="AK58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM58" s="13">
+        <v>-4</v>
+      </c>
+      <c r="AN58" s="13">
         <v>-1</v>
       </c>
-      <c r="AK58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL58" s="13">
-        <v>-41</v>
-      </c>
-      <c r="AM58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO58" s="13">
-        <v>-4</v>
+      <c r="AO58" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP58" s="13">
         <v>-1</v>
       </c>
-      <c r="AQ58" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR58" s="13">
-        <v>0</v>
+      <c r="AQ58" s="13">
+        <v>-1</v>
+      </c>
+      <c r="AR58" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS58" s="13" t="s">
         <v>58</v>
@@ -8075,7 +8074,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>87</v>
       </c>
@@ -8158,50 +8157,50 @@
       <c r="AC59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE59" s="11" t="s">
-        <v>58</v>
+      <c r="AD59" s="11">
+        <v>-16</v>
+      </c>
+      <c r="AE59" s="11">
+        <v>-3370</v>
       </c>
       <c r="AF59" s="11">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="AG59" s="11">
-        <v>-3370</v>
+        <v>-2</v>
       </c>
       <c r="AH59" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI59" s="11">
         <v>-2</v>
       </c>
+      <c r="AI59" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ59" s="11">
+        <v>-80</v>
+      </c>
+      <c r="AK59" s="11">
+        <v>-100</v>
+      </c>
+      <c r="AL59" s="11">
+        <v>-10</v>
+      </c>
+      <c r="AM59" s="11">
+        <v>-29</v>
+      </c>
+      <c r="AN59" s="11">
+        <v>-28</v>
+      </c>
+      <c r="AO59" s="11">
         <v>-2</v>
       </c>
-      <c r="AK59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL59" s="11">
-        <v>-80</v>
-      </c>
-      <c r="AM59" s="11">
-        <v>-100</v>
-      </c>
-      <c r="AN59" s="11">
-        <v>-10</v>
-      </c>
-      <c r="AO59" s="11">
-        <v>-175</v>
-      </c>
       <c r="AP59" s="11">
-        <v>-28</v>
+        <v>0</v>
       </c>
       <c r="AQ59" s="11">
-        <v>-2</v>
-      </c>
-      <c r="AR59" s="11">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="AR59" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS59" s="11" t="s">
         <v>58</v>
@@ -8234,7 +8233,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="18" t="s">
         <v>88</v>
       </c>
@@ -8312,53 +8311,53 @@
       <c r="AB60" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AC60" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD60" s="19" t="s">
-        <v>58</v>
+      <c r="AC60" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="19">
+        <v>-17</v>
       </c>
       <c r="AE60" s="19">
-        <v>0</v>
+        <v>-3372</v>
       </c>
       <c r="AF60" s="19">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="AG60" s="19">
-        <v>-3372</v>
+        <v>-3</v>
       </c>
       <c r="AH60" s="19">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AI60" s="19">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AJ60" s="19">
-        <v>-3</v>
+        <v>-121</v>
       </c>
       <c r="AK60" s="19">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AL60" s="19">
-        <v>-121</v>
+        <v>-10</v>
       </c>
       <c r="AM60" s="19">
-        <v>-100</v>
+        <v>-33</v>
       </c>
       <c r="AN60" s="19">
-        <v>-10</v>
+        <v>-29</v>
       </c>
       <c r="AO60" s="19">
-        <v>-179</v>
+        <v>-2</v>
       </c>
       <c r="AP60" s="19">
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="AQ60" s="19">
-        <v>-2</v>
-      </c>
-      <c r="AR60" s="19">
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="AR60" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="AS60" s="19" t="s">
         <v>58</v>
@@ -8391,7 +8390,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="14" t="s">
         <v>80</v>
       </c>
@@ -8470,85 +8469,85 @@
         <v>0</v>
       </c>
       <c r="AC61" s="15">
-        <v>0</v>
+        <v>11319</v>
       </c>
       <c r="AD61" s="15">
-        <v>0</v>
+        <v>14395</v>
       </c>
       <c r="AE61" s="15">
-        <v>11319</v>
+        <v>10249</v>
       </c>
       <c r="AF61" s="15">
-        <v>14395</v>
+        <v>15713</v>
       </c>
       <c r="AG61" s="15">
-        <v>10249</v>
+        <v>13453</v>
       </c>
       <c r="AH61" s="15">
-        <v>15713</v>
+        <v>13601</v>
       </c>
       <c r="AI61" s="15">
-        <v>13453</v>
+        <v>13270</v>
       </c>
       <c r="AJ61" s="15">
-        <v>13601</v>
+        <v>14293</v>
       </c>
       <c r="AK61" s="15">
-        <v>13270</v>
+        <v>15663</v>
       </c>
       <c r="AL61" s="15">
-        <v>14293</v>
+        <v>14276</v>
       </c>
       <c r="AM61" s="15">
-        <v>15663</v>
+        <v>14237</v>
       </c>
       <c r="AN61" s="15">
-        <v>14276</v>
+        <v>16364</v>
       </c>
       <c r="AO61" s="15">
-        <v>14090</v>
+        <v>12468</v>
       </c>
       <c r="AP61" s="15">
-        <v>16364</v>
+        <v>13493</v>
       </c>
       <c r="AQ61" s="15">
-        <v>12468</v>
+        <v>13493</v>
       </c>
       <c r="AR61" s="15">
-        <v>13257</v>
+        <v>11611</v>
       </c>
       <c r="AS61" s="15">
-        <v>13603</v>
+        <v>12322</v>
       </c>
       <c r="AT61" s="15">
-        <v>11639</v>
+        <v>17658</v>
       </c>
       <c r="AU61" s="15">
-        <v>12288</v>
+        <v>9066</v>
       </c>
       <c r="AV61" s="15">
-        <v>17658</v>
+        <v>13921</v>
       </c>
       <c r="AW61" s="15">
-        <v>9066</v>
+        <v>11734</v>
       </c>
       <c r="AX61" s="15">
-        <v>13921</v>
+        <v>14260</v>
       </c>
       <c r="AY61" s="15">
-        <v>11734</v>
+        <v>14492</v>
       </c>
       <c r="AZ61" s="15">
-        <v>14260</v>
+        <v>17934</v>
       </c>
       <c r="BA61" s="15">
-        <v>14489</v>
+        <v>9758</v>
       </c>
       <c r="BB61" s="15">
-        <v>18136</v>
+        <v>10722</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -8603,7 +8602,7 @@
       <c r="BA62" s="1"/>
       <c r="BB62" s="1"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -8658,7 +8657,7 @@
       <c r="BA63" s="1"/>
       <c r="BB63" s="1"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -8713,7 +8712,7 @@
       <c r="BA64" s="1"/>
       <c r="BB64" s="1"/>
     </row>
-    <row r="65" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
         <v>89</v>
       </c>
@@ -8870,7 +8869,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -8925,7 +8924,7 @@
       <c r="BA66" s="1"/>
       <c r="BB66" s="1"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>90</v>
       </c>
@@ -8982,7 +8981,7 @@
       <c r="BA67" s="9"/>
       <c r="BB67" s="9"/>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>56</v>
       </c>
@@ -9095,14 +9094,14 @@
       <c r="AM68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN68" s="11" t="s">
-        <v>58</v>
+      <c r="AN68" s="11">
+        <v>202204</v>
       </c>
       <c r="AO68" s="11">
         <v>0</v>
       </c>
       <c r="AP68" s="11">
-        <v>202204</v>
+        <v>0</v>
       </c>
       <c r="AQ68" s="11">
         <v>0</v>
@@ -9111,37 +9110,37 @@
         <v>0</v>
       </c>
       <c r="AS68" s="11">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="AT68" s="11">
-        <v>2369</v>
+        <v>765</v>
       </c>
       <c r="AU68" s="11">
-        <v>312</v>
+        <v>442</v>
       </c>
       <c r="AV68" s="11">
+        <v>24409</v>
+      </c>
+      <c r="AW68" s="11">
         <v>765</v>
       </c>
-      <c r="AW68" s="11">
-        <v>442</v>
-      </c>
       <c r="AX68" s="11">
-        <v>24409</v>
+        <v>693</v>
       </c>
       <c r="AY68" s="11">
-        <v>765</v>
+        <v>601</v>
       </c>
       <c r="AZ68" s="11">
-        <v>693</v>
+        <v>3594</v>
       </c>
       <c r="BA68" s="11">
-        <v>601</v>
+        <v>0</v>
       </c>
       <c r="BB68" s="11">
-        <v>123</v>
+        <v>20085</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
         <v>59</v>
       </c>
@@ -9224,23 +9223,23 @@
       <c r="AC69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD69" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE69" s="13" t="s">
-        <v>58</v>
+      <c r="AD69" s="13">
+        <v>2623</v>
+      </c>
+      <c r="AE69" s="13">
+        <v>413</v>
       </c>
       <c r="AF69" s="13">
-        <v>2623</v>
+        <v>1305</v>
       </c>
       <c r="AG69" s="13">
-        <v>413</v>
+        <v>6862</v>
       </c>
       <c r="AH69" s="13">
-        <v>1305</v>
+        <v>0</v>
       </c>
       <c r="AI69" s="13">
-        <v>6862</v>
+        <v>0</v>
       </c>
       <c r="AJ69" s="13">
         <v>0</v>
@@ -9257,11 +9256,11 @@
       <c r="AN69" s="13">
         <v>0</v>
       </c>
-      <c r="AO69" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP69" s="13">
-        <v>0</v>
+      <c r="AO69" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP69" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ69" s="13" t="s">
         <v>58</v>
@@ -9300,7 +9299,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>61</v>
       </c>
@@ -9380,86 +9379,86 @@
       <c r="AB70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC70" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD70" s="11" t="s">
-        <v>58</v>
+      <c r="AC70" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="11">
+        <v>15289</v>
       </c>
       <c r="AE70" s="11">
-        <v>0</v>
+        <v>526</v>
       </c>
       <c r="AF70" s="11">
-        <v>15289</v>
+        <v>23786</v>
       </c>
       <c r="AG70" s="11">
-        <v>526</v>
+        <v>17</v>
       </c>
       <c r="AH70" s="11">
-        <v>23786</v>
+        <v>0</v>
       </c>
       <c r="AI70" s="11">
-        <v>17</v>
+        <v>5518</v>
       </c>
       <c r="AJ70" s="11">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="AK70" s="11">
-        <v>5518</v>
+        <v>33338</v>
       </c>
       <c r="AL70" s="11">
-        <v>390</v>
+        <v>40127</v>
       </c>
       <c r="AM70" s="11">
-        <v>33338</v>
+        <v>68589</v>
       </c>
       <c r="AN70" s="11">
-        <v>40127</v>
+        <v>52971</v>
       </c>
       <c r="AO70" s="11">
-        <v>68589</v>
+        <v>0</v>
       </c>
       <c r="AP70" s="11">
-        <v>52971</v>
+        <v>70141</v>
       </c>
       <c r="AQ70" s="11">
-        <v>0</v>
+        <v>70141</v>
       </c>
       <c r="AR70" s="11">
-        <v>0</v>
+        <v>15755</v>
       </c>
       <c r="AS70" s="11">
-        <v>70141</v>
+        <v>36363</v>
       </c>
       <c r="AT70" s="11">
-        <v>61403</v>
+        <v>12665</v>
       </c>
       <c r="AU70" s="11">
-        <v>36027</v>
+        <v>41713</v>
       </c>
       <c r="AV70" s="11">
-        <v>12665</v>
+        <v>11465</v>
       </c>
       <c r="AW70" s="11">
-        <v>41713</v>
+        <v>27928</v>
       </c>
       <c r="AX70" s="11">
-        <v>11465</v>
+        <v>35739</v>
       </c>
       <c r="AY70" s="11">
-        <v>27928</v>
+        <v>40929</v>
       </c>
       <c r="AZ70" s="11">
-        <v>35739</v>
+        <v>23516</v>
       </c>
       <c r="BA70" s="11">
-        <v>40808</v>
+        <v>45507</v>
       </c>
       <c r="BB70" s="11">
-        <v>23516</v>
+        <v>33460</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
         <v>62</v>
       </c>
@@ -9539,86 +9538,86 @@
       <c r="AB71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC71" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD71" s="13" t="s">
-        <v>58</v>
+      <c r="AC71" s="13">
+        <v>4641</v>
+      </c>
+      <c r="AD71" s="13">
+        <v>5695</v>
       </c>
       <c r="AE71" s="13">
-        <v>4641</v>
+        <v>6436</v>
       </c>
       <c r="AF71" s="13">
-        <v>5695</v>
+        <v>2033</v>
       </c>
       <c r="AG71" s="13">
-        <v>6436</v>
+        <v>5828</v>
       </c>
       <c r="AH71" s="13">
-        <v>2033</v>
+        <v>3588</v>
       </c>
       <c r="AI71" s="13">
-        <v>5828</v>
+        <v>6161</v>
       </c>
       <c r="AJ71" s="13">
-        <v>3588</v>
+        <v>3187</v>
       </c>
       <c r="AK71" s="13">
-        <v>6161</v>
+        <v>2148</v>
       </c>
       <c r="AL71" s="13">
-        <v>3187</v>
+        <v>4480</v>
       </c>
       <c r="AM71" s="13">
-        <v>2148</v>
+        <v>9474</v>
       </c>
       <c r="AN71" s="13">
-        <v>4480</v>
+        <v>6352</v>
       </c>
       <c r="AO71" s="13">
-        <v>9474</v>
+        <v>9214</v>
       </c>
       <c r="AP71" s="13">
-        <v>6352</v>
+        <v>10939</v>
       </c>
       <c r="AQ71" s="13">
-        <v>9214</v>
+        <v>10939</v>
       </c>
       <c r="AR71" s="13">
-        <v>7808</v>
+        <v>2451</v>
       </c>
       <c r="AS71" s="13">
-        <v>10939</v>
+        <v>13980</v>
       </c>
       <c r="AT71" s="13">
-        <v>2451</v>
+        <v>11774</v>
       </c>
       <c r="AU71" s="13">
-        <v>13980</v>
+        <v>10660</v>
       </c>
       <c r="AV71" s="13">
-        <v>11774</v>
+        <v>9227</v>
       </c>
       <c r="AW71" s="13">
-        <v>10660</v>
+        <v>5752</v>
       </c>
       <c r="AX71" s="13">
-        <v>9227</v>
+        <v>17765</v>
       </c>
       <c r="AY71" s="13">
-        <v>5752</v>
+        <v>48705</v>
       </c>
       <c r="AZ71" s="13">
-        <v>17765</v>
+        <v>40981</v>
       </c>
       <c r="BA71" s="13">
-        <v>48705</v>
+        <v>21273</v>
       </c>
       <c r="BB71" s="13">
-        <v>40981</v>
+        <v>34742</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>63</v>
       </c>
@@ -9698,86 +9697,86 @@
       <c r="AB72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC72" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD72" s="11" t="s">
-        <v>58</v>
+      <c r="AC72" s="11">
+        <v>10916</v>
+      </c>
+      <c r="AD72" s="11">
+        <v>20075</v>
       </c>
       <c r="AE72" s="11">
-        <v>10916</v>
+        <v>39049</v>
       </c>
       <c r="AF72" s="11">
-        <v>20075</v>
+        <v>48529</v>
       </c>
       <c r="AG72" s="11">
-        <v>39049</v>
+        <v>14368</v>
       </c>
       <c r="AH72" s="11">
-        <v>48529</v>
+        <v>22143</v>
       </c>
       <c r="AI72" s="11">
-        <v>14368</v>
+        <v>23716</v>
       </c>
       <c r="AJ72" s="11">
-        <v>22143</v>
+        <v>19191</v>
       </c>
       <c r="AK72" s="11">
-        <v>23716</v>
+        <v>27200</v>
       </c>
       <c r="AL72" s="11">
-        <v>19191</v>
+        <v>26365</v>
       </c>
       <c r="AM72" s="11">
-        <v>27200</v>
+        <v>25246</v>
       </c>
       <c r="AN72" s="11">
-        <v>26365</v>
+        <v>37888</v>
       </c>
       <c r="AO72" s="11">
-        <v>25246</v>
+        <v>23369</v>
       </c>
       <c r="AP72" s="11">
-        <v>37888</v>
+        <v>24602</v>
       </c>
       <c r="AQ72" s="11">
-        <v>23369</v>
+        <v>24602</v>
       </c>
       <c r="AR72" s="11">
-        <v>19985</v>
+        <v>14049</v>
       </c>
       <c r="AS72" s="11">
-        <v>24602</v>
+        <v>22041</v>
       </c>
       <c r="AT72" s="11">
-        <v>15955</v>
+        <v>66451</v>
       </c>
       <c r="AU72" s="11">
-        <v>20829</v>
+        <v>15361</v>
       </c>
       <c r="AV72" s="11">
-        <v>66451</v>
+        <v>45289</v>
       </c>
       <c r="AW72" s="11">
-        <v>15361</v>
+        <v>27761</v>
       </c>
       <c r="AX72" s="11">
-        <v>45289</v>
+        <v>44998</v>
       </c>
       <c r="AY72" s="11">
-        <v>27824</v>
+        <v>43345</v>
       </c>
       <c r="AZ72" s="11">
-        <v>44645</v>
+        <v>79602</v>
       </c>
       <c r="BA72" s="11">
-        <v>43345</v>
+        <v>22400</v>
       </c>
       <c r="BB72" s="11">
-        <v>83074</v>
+        <v>22553</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
         <v>64</v>
       </c>
@@ -9857,86 +9856,86 @@
       <c r="AB73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD73" s="13" t="s">
-        <v>58</v>
+      <c r="AC73" s="13">
+        <v>805480</v>
+      </c>
+      <c r="AD73" s="13">
+        <v>789675</v>
       </c>
       <c r="AE73" s="13">
-        <v>805480</v>
+        <v>723495</v>
       </c>
       <c r="AF73" s="13">
-        <v>789675</v>
+        <v>615606</v>
       </c>
       <c r="AG73" s="13">
-        <v>723495</v>
+        <v>703849</v>
       </c>
       <c r="AH73" s="13">
-        <v>615606</v>
+        <v>899754</v>
       </c>
       <c r="AI73" s="13">
-        <v>703849</v>
+        <v>973523</v>
       </c>
       <c r="AJ73" s="13">
-        <v>899754</v>
+        <v>1134605</v>
       </c>
       <c r="AK73" s="13">
-        <v>973523</v>
+        <v>1376566</v>
       </c>
       <c r="AL73" s="13">
-        <v>1134605</v>
+        <v>1434485</v>
       </c>
       <c r="AM73" s="13">
-        <v>1376566</v>
+        <v>1445782</v>
       </c>
       <c r="AN73" s="13">
-        <v>1434485</v>
+        <v>1272054</v>
       </c>
       <c r="AO73" s="13">
-        <v>1445763</v>
+        <v>1250935</v>
       </c>
       <c r="AP73" s="13">
-        <v>1272054</v>
+        <v>1180027</v>
       </c>
       <c r="AQ73" s="13">
-        <v>1250935</v>
+        <v>1180027</v>
       </c>
       <c r="AR73" s="13">
-        <v>1175415</v>
+        <v>1031621</v>
       </c>
       <c r="AS73" s="13">
-        <v>1180140</v>
+        <v>1004586</v>
       </c>
       <c r="AT73" s="13">
-        <v>1023683</v>
+        <v>1462938</v>
       </c>
       <c r="AU73" s="13">
-        <v>1005552</v>
+        <v>1564939</v>
       </c>
       <c r="AV73" s="13">
-        <v>1462938</v>
+        <v>1722211</v>
       </c>
       <c r="AW73" s="13">
-        <v>1564356</v>
+        <v>1927498</v>
       </c>
       <c r="AX73" s="13">
-        <v>1720622</v>
+        <v>1926767</v>
       </c>
       <c r="AY73" s="13">
-        <v>1927498</v>
+        <v>2020241</v>
       </c>
       <c r="AZ73" s="13">
-        <v>1926768</v>
+        <v>2035508</v>
       </c>
       <c r="BA73" s="13">
-        <v>2019409</v>
+        <v>1928217</v>
       </c>
       <c r="BB73" s="13">
-        <v>2035508</v>
+        <v>2148434</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
         <v>65</v>
       </c>
@@ -10016,86 +10015,86 @@
       <c r="AB74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC74" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD74" s="11" t="s">
-        <v>58</v>
+      <c r="AC74" s="11">
+        <v>36616</v>
+      </c>
+      <c r="AD74" s="11">
+        <v>64672</v>
       </c>
       <c r="AE74" s="11">
-        <v>36616</v>
+        <v>47625</v>
       </c>
       <c r="AF74" s="11">
-        <v>64672</v>
+        <v>70891</v>
       </c>
       <c r="AG74" s="11">
-        <v>47625</v>
+        <v>100962</v>
       </c>
       <c r="AH74" s="11">
-        <v>70891</v>
+        <v>106499</v>
       </c>
       <c r="AI74" s="11">
-        <v>100962</v>
+        <v>63343</v>
       </c>
       <c r="AJ74" s="11">
-        <v>106499</v>
+        <v>155271</v>
       </c>
       <c r="AK74" s="11">
-        <v>63343</v>
+        <v>135826</v>
       </c>
       <c r="AL74" s="11">
-        <v>155271</v>
+        <v>102755</v>
       </c>
       <c r="AM74" s="11">
-        <v>135826</v>
+        <v>123826</v>
       </c>
       <c r="AN74" s="11">
-        <v>102755</v>
+        <v>94962</v>
       </c>
       <c r="AO74" s="11">
-        <v>123826</v>
+        <v>71986</v>
       </c>
       <c r="AP74" s="11">
-        <v>94962</v>
+        <v>51561</v>
       </c>
       <c r="AQ74" s="11">
-        <v>71986</v>
+        <v>51561</v>
       </c>
       <c r="AR74" s="11">
-        <v>52292</v>
+        <v>140965</v>
       </c>
       <c r="AS74" s="11">
-        <v>59155</v>
+        <v>132712</v>
       </c>
       <c r="AT74" s="11">
-        <v>105848</v>
+        <v>24541</v>
       </c>
       <c r="AU74" s="11">
-        <v>172087</v>
+        <v>10498</v>
       </c>
       <c r="AV74" s="11">
-        <v>24541</v>
+        <v>28394</v>
       </c>
       <c r="AW74" s="11">
-        <v>10498</v>
+        <v>75331</v>
       </c>
       <c r="AX74" s="11">
-        <v>28394</v>
+        <v>115670</v>
       </c>
       <c r="AY74" s="11">
-        <v>75331</v>
+        <v>130196</v>
       </c>
       <c r="AZ74" s="11">
-        <v>115669</v>
+        <v>51222</v>
       </c>
       <c r="BA74" s="11">
-        <v>130196</v>
+        <v>15599</v>
       </c>
       <c r="BB74" s="11">
-        <v>51222</v>
+        <v>11187</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="12" t="s">
         <v>67</v>
       </c>
@@ -10175,77 +10174,77 @@
       <c r="AB75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC75" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD75" s="13" t="s">
-        <v>58</v>
+      <c r="AC75" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="13">
+        <v>0</v>
       </c>
       <c r="AE75" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AF75" s="13">
         <v>0</v>
       </c>
       <c r="AG75" s="13">
-        <v>12</v>
+        <v>11115</v>
       </c>
       <c r="AH75" s="13">
         <v>0</v>
       </c>
       <c r="AI75" s="13">
-        <v>11115</v>
+        <v>0</v>
       </c>
       <c r="AJ75" s="13">
         <v>0</v>
       </c>
       <c r="AK75" s="13">
-        <v>0</v>
+        <v>107988</v>
       </c>
       <c r="AL75" s="13">
         <v>0</v>
       </c>
       <c r="AM75" s="13">
-        <v>107988</v>
+        <v>0</v>
       </c>
       <c r="AN75" s="13">
         <v>0</v>
       </c>
       <c r="AO75" s="13">
-        <v>0</v>
+        <v>42310</v>
       </c>
       <c r="AP75" s="13">
-        <v>0</v>
+        <v>146970</v>
       </c>
       <c r="AQ75" s="13">
-        <v>42310</v>
+        <v>146970</v>
       </c>
       <c r="AR75" s="13">
-        <v>18707</v>
+        <v>21243</v>
       </c>
       <c r="AS75" s="13">
-        <v>146970</v>
+        <v>6</v>
       </c>
       <c r="AT75" s="13">
-        <v>21243</v>
+        <v>0</v>
       </c>
       <c r="AU75" s="13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AV75" s="13">
-        <v>0</v>
+        <v>26100</v>
       </c>
       <c r="AW75" s="13">
-        <v>0</v>
+        <v>14550</v>
       </c>
       <c r="AX75" s="13">
-        <v>24353</v>
+        <v>6000</v>
       </c>
       <c r="AY75" s="13">
-        <v>14550</v>
+        <v>0</v>
       </c>
       <c r="AZ75" s="13">
-        <v>9450</v>
+        <v>0</v>
       </c>
       <c r="BA75" s="13">
         <v>0</v>
@@ -10254,7 +10253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
         <v>68</v>
       </c>
@@ -10370,11 +10369,11 @@
       <c r="AN76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO76" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP76" s="11" t="s">
-        <v>58</v>
+      <c r="AO76" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP76" s="11">
+        <v>0</v>
       </c>
       <c r="AQ76" s="11">
         <v>0</v>
@@ -10406,14 +10405,14 @@
       <c r="AZ76" s="11">
         <v>0</v>
       </c>
-      <c r="BA76" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB76" s="11">
-        <v>0</v>
+      <c r="BA76" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB76" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
         <v>69</v>
       </c>
@@ -10529,11 +10528,11 @@
       <c r="AN77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP77" s="13" t="s">
-        <v>58</v>
+      <c r="AO77" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP77" s="13">
+        <v>0</v>
       </c>
       <c r="AQ77" s="13">
         <v>0</v>
@@ -10565,14 +10564,14 @@
       <c r="AZ77" s="13">
         <v>0</v>
       </c>
-      <c r="BA77" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB77" s="13">
-        <v>0</v>
+      <c r="BA77" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB77" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>70</v>
       </c>
@@ -10652,86 +10651,86 @@
       <c r="AB78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC78" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD78" s="11" t="s">
-        <v>58</v>
+      <c r="AC78" s="11">
+        <v>21871</v>
+      </c>
+      <c r="AD78" s="11">
+        <v>0</v>
       </c>
       <c r="AE78" s="11">
-        <v>21871</v>
+        <v>18649</v>
       </c>
       <c r="AF78" s="11">
-        <v>0</v>
+        <v>16575</v>
       </c>
       <c r="AG78" s="11">
-        <v>18649</v>
+        <v>28660</v>
       </c>
       <c r="AH78" s="11">
-        <v>16575</v>
+        <v>28880</v>
       </c>
       <c r="AI78" s="11">
-        <v>28660</v>
+        <v>42262</v>
       </c>
       <c r="AJ78" s="11">
-        <v>28880</v>
+        <v>75148</v>
       </c>
       <c r="AK78" s="11">
-        <v>42262</v>
+        <v>57154</v>
       </c>
       <c r="AL78" s="11">
-        <v>75148</v>
+        <v>10307</v>
       </c>
       <c r="AM78" s="11">
-        <v>57154</v>
+        <v>34900</v>
       </c>
       <c r="AN78" s="11">
-        <v>10307</v>
+        <v>40415</v>
       </c>
       <c r="AO78" s="11">
-        <v>34900</v>
+        <v>44271</v>
       </c>
       <c r="AP78" s="11">
-        <v>40415</v>
+        <v>11648</v>
       </c>
       <c r="AQ78" s="11">
-        <v>44271</v>
+        <v>11648</v>
       </c>
       <c r="AR78" s="11">
-        <v>7140</v>
+        <v>32452</v>
       </c>
       <c r="AS78" s="11">
-        <v>11648</v>
+        <v>13341</v>
       </c>
       <c r="AT78" s="11">
-        <v>96231</v>
+        <v>27424</v>
       </c>
       <c r="AU78" s="11">
-        <v>-28645</v>
+        <v>91757</v>
       </c>
       <c r="AV78" s="11">
-        <v>27424</v>
+        <v>27602</v>
       </c>
       <c r="AW78" s="11">
-        <v>91757</v>
+        <v>0</v>
       </c>
       <c r="AX78" s="11">
-        <v>27602</v>
+        <v>12964</v>
       </c>
       <c r="AY78" s="11">
-        <v>0</v>
+        <v>31132</v>
       </c>
       <c r="AZ78" s="11">
-        <v>12964</v>
+        <v>17429</v>
       </c>
       <c r="BA78" s="11">
-        <v>30950</v>
+        <v>65844</v>
       </c>
       <c r="BB78" s="11">
-        <v>17429</v>
+        <v>74644</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
         <v>71</v>
       </c>
@@ -10847,11 +10846,11 @@
       <c r="AN79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO79" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP79" s="13" t="s">
-        <v>58</v>
+      <c r="AO79" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP79" s="13">
+        <v>0</v>
       </c>
       <c r="AQ79" s="13">
         <v>0</v>
@@ -10883,14 +10882,14 @@
       <c r="AZ79" s="13">
         <v>0</v>
       </c>
-      <c r="BA79" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB79" s="13">
-        <v>0</v>
+      <c r="BA79" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB79" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
         <v>72</v>
       </c>
@@ -11006,11 +11005,11 @@
       <c r="AN80" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO80" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP80" s="11" t="s">
-        <v>58</v>
+      <c r="AO80" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP80" s="11">
+        <v>0</v>
       </c>
       <c r="AQ80" s="11">
         <v>0</v>
@@ -11042,14 +11041,14 @@
       <c r="AZ80" s="11">
         <v>0</v>
       </c>
-      <c r="BA80" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB80" s="11">
-        <v>0</v>
+      <c r="BA80" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB80" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
         <v>74</v>
       </c>
@@ -11165,11 +11164,11 @@
       <c r="AN81" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO81" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP81" s="13" t="s">
-        <v>58</v>
+      <c r="AO81" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP81" s="13">
+        <v>0</v>
       </c>
       <c r="AQ81" s="13">
         <v>0</v>
@@ -11201,14 +11200,14 @@
       <c r="AZ81" s="13">
         <v>0</v>
       </c>
-      <c r="BA81" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB81" s="13">
-        <v>0</v>
+      <c r="BA81" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB81" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="14" t="s">
         <v>83</v>
       </c>
@@ -11287,85 +11286,85 @@
         <v>0</v>
       </c>
       <c r="AC82" s="15">
-        <v>0</v>
+        <v>879524</v>
       </c>
       <c r="AD82" s="15">
-        <v>0</v>
+        <v>898029</v>
       </c>
       <c r="AE82" s="15">
-        <v>879524</v>
+        <v>836205</v>
       </c>
       <c r="AF82" s="15">
-        <v>898029</v>
+        <v>778725</v>
       </c>
       <c r="AG82" s="15">
-        <v>836205</v>
+        <v>871661</v>
       </c>
       <c r="AH82" s="15">
-        <v>778725</v>
+        <v>1060864</v>
       </c>
       <c r="AI82" s="15">
-        <v>871661</v>
+        <v>1114523</v>
       </c>
       <c r="AJ82" s="15">
-        <v>1060864</v>
+        <v>1387792</v>
       </c>
       <c r="AK82" s="15">
-        <v>1114523</v>
+        <v>1740220</v>
       </c>
       <c r="AL82" s="15">
-        <v>1387792</v>
+        <v>1618519</v>
       </c>
       <c r="AM82" s="15">
-        <v>1740220</v>
+        <v>1707817</v>
       </c>
       <c r="AN82" s="15">
-        <v>1618519</v>
+        <v>1706846</v>
       </c>
       <c r="AO82" s="15">
-        <v>1707798</v>
+        <v>1442085</v>
       </c>
       <c r="AP82" s="15">
-        <v>1706846</v>
+        <v>1495888</v>
       </c>
       <c r="AQ82" s="15">
-        <v>1442085</v>
+        <v>1495888</v>
       </c>
       <c r="AR82" s="15">
-        <v>1281347</v>
+        <v>1258536</v>
       </c>
       <c r="AS82" s="15">
-        <v>1503595</v>
+        <v>1223341</v>
       </c>
       <c r="AT82" s="15">
-        <v>1329183</v>
+        <v>1606558</v>
       </c>
       <c r="AU82" s="15">
-        <v>1220148</v>
+        <v>1735370</v>
       </c>
       <c r="AV82" s="15">
-        <v>1606558</v>
+        <v>1894697</v>
       </c>
       <c r="AW82" s="15">
-        <v>1734787</v>
+        <v>2079585</v>
       </c>
       <c r="AX82" s="15">
-        <v>1891361</v>
+        <v>2160596</v>
       </c>
       <c r="AY82" s="15">
-        <v>2079648</v>
+        <v>2315149</v>
       </c>
       <c r="AZ82" s="15">
-        <v>2163693</v>
+        <v>2251852</v>
       </c>
       <c r="BA82" s="15">
-        <v>2314014</v>
+        <v>2098840</v>
       </c>
       <c r="BB82" s="15">
-        <v>2251853</v>
+        <v>2345105</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="16" t="s">
         <v>92</v>
       </c>
@@ -11422,7 +11421,7 @@
       <c r="BA83" s="17"/>
       <c r="BB83" s="17"/>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="14" t="s">
         <v>85</v>
       </c>
@@ -11579,7 +11578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
         <v>93</v>
       </c>
@@ -11636,7 +11635,7 @@
       <c r="BA85" s="9"/>
       <c r="BB85" s="9"/>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
         <v>94</v>
       </c>
@@ -11761,8 +11760,8 @@
       <c r="AQ86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR86" s="11" t="s">
-        <v>58</v>
+      <c r="AR86" s="11">
+        <v>0</v>
       </c>
       <c r="AS86" s="11">
         <v>0</v>
@@ -11786,7 +11785,7 @@
         <v>0</v>
       </c>
       <c r="AZ86" s="11">
-        <v>0</v>
+        <v>20211983</v>
       </c>
       <c r="BA86" s="11">
         <v>0</v>
@@ -11795,7 +11794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="12" t="s">
         <v>95</v>
       </c>
@@ -11920,8 +11919,8 @@
       <c r="AQ87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR87" s="13" t="s">
-        <v>58</v>
+      <c r="AR87" s="13">
+        <v>0</v>
       </c>
       <c r="AS87" s="13">
         <v>0</v>
@@ -11945,7 +11944,7 @@
         <v>0</v>
       </c>
       <c r="AZ87" s="13">
-        <v>0</v>
+        <v>-20164306</v>
       </c>
       <c r="BA87" s="13">
         <v>0</v>
@@ -11954,7 +11953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>96</v>
       </c>
@@ -12079,8 +12078,8 @@
       <c r="AQ88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR88" s="11" t="s">
-        <v>58</v>
+      <c r="AR88" s="11">
+        <v>0</v>
       </c>
       <c r="AS88" s="11">
         <v>0</v>
@@ -12113,7 +12112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="16" t="s">
         <v>97</v>
       </c>
@@ -12170,7 +12169,7 @@
       <c r="BA89" s="17"/>
       <c r="BB89" s="17"/>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="14" t="s">
         <v>79</v>
       </c>
@@ -12250,11 +12249,11 @@
       <c r="AB90" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AC90" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD90" s="15" t="s">
-        <v>58</v>
+      <c r="AC90" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD90" s="15">
+        <v>0</v>
       </c>
       <c r="AE90" s="15">
         <v>0</v>
@@ -12295,8 +12294,8 @@
       <c r="AQ90" s="15">
         <v>0</v>
       </c>
-      <c r="AR90" s="15">
-        <v>0</v>
+      <c r="AR90" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="AS90" s="15" t="s">
         <v>58</v>
@@ -12329,7 +12328,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
         <v>98</v>
       </c>
@@ -12386,7 +12385,7 @@
       <c r="BA91" s="9"/>
       <c r="BB91" s="9"/>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
         <v>56</v>
       </c>
@@ -12505,14 +12504,14 @@
       <c r="AO92" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP92" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ92" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR92" s="11">
-        <v>0</v>
+      <c r="AP92" s="11">
+        <v>2048</v>
+      </c>
+      <c r="AQ92" s="11">
+        <v>2048</v>
+      </c>
+      <c r="AR92" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS92" s="11" t="s">
         <v>58</v>
@@ -12545,7 +12544,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="12" t="s">
         <v>64</v>
       </c>
@@ -12628,50 +12627,50 @@
       <c r="AC93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD93" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE93" s="13" t="s">
-        <v>58</v>
+      <c r="AD93" s="13">
+        <v>-90</v>
+      </c>
+      <c r="AE93" s="13">
+        <v>-205</v>
       </c>
       <c r="AF93" s="13">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="AG93" s="13">
-        <v>-205</v>
+        <v>-113</v>
       </c>
       <c r="AH93" s="13">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AI93" s="13">
-        <v>-113</v>
+        <v>0</v>
       </c>
       <c r="AJ93" s="13">
-        <v>-11</v>
+        <v>-407</v>
       </c>
       <c r="AK93" s="13">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AL93" s="13">
-        <v>-407</v>
+        <v>0</v>
       </c>
       <c r="AM93" s="13">
-        <v>-5</v>
+        <v>-144</v>
       </c>
       <c r="AN93" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO93" s="13">
-        <v>-144</v>
+        <v>-12</v>
+      </c>
+      <c r="AO93" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP93" s="13">
-        <v>-12</v>
-      </c>
-      <c r="AQ93" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR93" s="13">
-        <v>0</v>
+        <v>-432</v>
+      </c>
+      <c r="AQ93" s="13">
+        <v>-432</v>
+      </c>
+      <c r="AR93" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS93" s="13" t="s">
         <v>58</v>
@@ -12704,7 +12703,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
         <v>87</v>
       </c>
@@ -12787,50 +12786,50 @@
       <c r="AC94" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD94" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE94" s="11" t="s">
-        <v>58</v>
+      <c r="AD94" s="11">
+        <v>-889</v>
+      </c>
+      <c r="AE94" s="11">
+        <v>-780</v>
       </c>
       <c r="AF94" s="11">
-        <v>-889</v>
+        <v>0</v>
       </c>
       <c r="AG94" s="11">
-        <v>-780</v>
+        <v>-146</v>
       </c>
       <c r="AH94" s="11">
-        <v>0</v>
+        <v>-289</v>
       </c>
       <c r="AI94" s="11">
-        <v>-146</v>
+        <v>0</v>
       </c>
       <c r="AJ94" s="11">
-        <v>-289</v>
+        <v>-967</v>
       </c>
       <c r="AK94" s="11">
-        <v>0</v>
+        <v>-2670</v>
       </c>
       <c r="AL94" s="11">
-        <v>-967</v>
+        <v>-134</v>
       </c>
       <c r="AM94" s="11">
-        <v>-2670</v>
+        <v>-417</v>
       </c>
       <c r="AN94" s="11">
-        <v>-134</v>
+        <v>-944</v>
       </c>
       <c r="AO94" s="11">
-        <v>-2469</v>
+        <v>-331</v>
       </c>
       <c r="AP94" s="11">
-        <v>-944</v>
+        <v>-46</v>
       </c>
       <c r="AQ94" s="11">
-        <v>-331</v>
-      </c>
-      <c r="AR94" s="11">
-        <v>-139</v>
+        <v>-46</v>
+      </c>
+      <c r="AR94" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS94" s="11" t="s">
         <v>58</v>
@@ -12863,7 +12862,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="18" t="s">
         <v>88</v>
       </c>
@@ -12943,53 +12942,53 @@
       <c r="AB95" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="AC95" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD95" s="19" t="s">
-        <v>58</v>
+      <c r="AC95" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD95" s="19">
+        <v>-979</v>
       </c>
       <c r="AE95" s="19">
-        <v>0</v>
+        <v>-985</v>
       </c>
       <c r="AF95" s="19">
-        <v>-979</v>
+        <v>0</v>
       </c>
       <c r="AG95" s="19">
-        <v>-985</v>
+        <v>-259</v>
       </c>
       <c r="AH95" s="19">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="AI95" s="19">
-        <v>-259</v>
+        <v>0</v>
       </c>
       <c r="AJ95" s="19">
-        <v>-300</v>
+        <v>-1374</v>
       </c>
       <c r="AK95" s="19">
-        <v>0</v>
+        <v>-2675</v>
       </c>
       <c r="AL95" s="19">
-        <v>-1374</v>
+        <v>-134</v>
       </c>
       <c r="AM95" s="19">
-        <v>-2675</v>
+        <v>-561</v>
       </c>
       <c r="AN95" s="19">
-        <v>-134</v>
+        <v>-956</v>
       </c>
       <c r="AO95" s="19">
-        <v>-2613</v>
+        <v>-331</v>
       </c>
       <c r="AP95" s="19">
-        <v>-956</v>
+        <v>1570</v>
       </c>
       <c r="AQ95" s="19">
-        <v>-331</v>
-      </c>
-      <c r="AR95" s="19">
-        <v>-139</v>
+        <v>1570</v>
+      </c>
+      <c r="AR95" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="AS95" s="19" t="s">
         <v>58</v>
@@ -13022,7 +13021,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="8" t="s">
         <v>99</v>
       </c>
@@ -13079,7 +13078,7 @@
       <c r="BA96" s="9"/>
       <c r="BB96" s="9"/>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>100</v>
       </c>
@@ -13159,53 +13158,53 @@
       <c r="AB97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD97" s="11" t="s">
-        <v>58</v>
+      <c r="AC97" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="11">
+        <v>-67667</v>
       </c>
       <c r="AE97" s="11">
-        <v>0</v>
+        <v>-2136</v>
       </c>
       <c r="AF97" s="11">
-        <v>-67667</v>
+        <v>-1595</v>
       </c>
       <c r="AG97" s="11">
-        <v>-2136</v>
+        <v>-586</v>
       </c>
       <c r="AH97" s="11">
-        <v>-1595</v>
+        <v>-774</v>
       </c>
       <c r="AI97" s="11">
-        <v>-586</v>
+        <v>-485</v>
       </c>
       <c r="AJ97" s="11">
-        <v>-774</v>
+        <v>-517</v>
       </c>
       <c r="AK97" s="11">
-        <v>-485</v>
+        <v>-1526</v>
       </c>
       <c r="AL97" s="11">
-        <v>-517</v>
+        <v>-167</v>
       </c>
       <c r="AM97" s="11">
-        <v>-1526</v>
+        <v>-495</v>
       </c>
       <c r="AN97" s="11">
-        <v>-167</v>
+        <v>-585</v>
       </c>
       <c r="AO97" s="11">
-        <v>-9702</v>
+        <v>-555</v>
       </c>
       <c r="AP97" s="11">
-        <v>-585</v>
+        <v>-541</v>
       </c>
       <c r="AQ97" s="11">
-        <v>-555</v>
-      </c>
-      <c r="AR97" s="11">
-        <v>-4</v>
+        <v>-541</v>
+      </c>
+      <c r="AR97" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS97" s="11" t="s">
         <v>58</v>
@@ -13238,7 +13237,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="18" t="s">
         <v>80</v>
       </c>
@@ -13317,85 +13316,85 @@
         <v>0</v>
       </c>
       <c r="AC98" s="19">
-        <v>0</v>
+        <v>879524</v>
       </c>
       <c r="AD98" s="19">
-        <v>0</v>
+        <v>829383</v>
       </c>
       <c r="AE98" s="19">
-        <v>879524</v>
+        <v>833084</v>
       </c>
       <c r="AF98" s="19">
-        <v>829383</v>
+        <v>777130</v>
       </c>
       <c r="AG98" s="19">
-        <v>833084</v>
+        <v>870816</v>
       </c>
       <c r="AH98" s="19">
-        <v>777130</v>
+        <v>1059790</v>
       </c>
       <c r="AI98" s="19">
-        <v>870816</v>
+        <v>1114038</v>
       </c>
       <c r="AJ98" s="19">
-        <v>1059790</v>
+        <v>1385901</v>
       </c>
       <c r="AK98" s="19">
-        <v>1114038</v>
+        <v>1736019</v>
       </c>
       <c r="AL98" s="19">
-        <v>1385901</v>
+        <v>1618218</v>
       </c>
       <c r="AM98" s="19">
-        <v>1736019</v>
+        <v>1706761</v>
       </c>
       <c r="AN98" s="19">
-        <v>1618218</v>
+        <v>1705305</v>
       </c>
       <c r="AO98" s="19">
-        <v>1695483</v>
+        <v>1441199</v>
       </c>
       <c r="AP98" s="19">
-        <v>1705305</v>
+        <v>1496917</v>
       </c>
       <c r="AQ98" s="19">
-        <v>1441199</v>
+        <v>1496917</v>
       </c>
       <c r="AR98" s="19">
-        <v>1281204</v>
+        <v>1258536</v>
       </c>
       <c r="AS98" s="19">
-        <v>1503595</v>
+        <v>1223341</v>
       </c>
       <c r="AT98" s="19">
-        <v>1329183</v>
+        <v>1606558</v>
       </c>
       <c r="AU98" s="19">
-        <v>1220148</v>
+        <v>1735370</v>
       </c>
       <c r="AV98" s="19">
-        <v>1606558</v>
+        <v>1894697</v>
       </c>
       <c r="AW98" s="19">
-        <v>1734787</v>
+        <v>2079585</v>
       </c>
       <c r="AX98" s="19">
-        <v>1891361</v>
+        <v>2160596</v>
       </c>
       <c r="AY98" s="19">
-        <v>2079648</v>
+        <v>2315149</v>
       </c>
       <c r="AZ98" s="19">
-        <v>2163693</v>
+        <v>2299529</v>
       </c>
       <c r="BA98" s="19">
-        <v>2314014</v>
+        <v>2098840</v>
       </c>
       <c r="BB98" s="19">
-        <v>2251853</v>
+        <v>2345105</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -13450,7 +13449,7 @@
       <c r="BA99" s="1"/>
       <c r="BB99" s="1"/>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -13505,7 +13504,7 @@
       <c r="BA100" s="1"/>
       <c r="BB100" s="1"/>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -13560,7 +13559,7 @@
       <c r="BA101" s="1"/>
       <c r="BB101" s="1"/>
     </row>
-    <row r="102" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B102" s="7" t="s">
         <v>101</v>
       </c>
@@ -13717,7 +13716,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -13772,7 +13771,7 @@
       <c r="BA103" s="1"/>
       <c r="BB103" s="1"/>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
         <v>102</v>
       </c>
@@ -13829,7 +13828,7 @@
       <c r="BA104" s="9"/>
       <c r="BB104" s="9"/>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
         <v>56</v>
       </c>
@@ -13957,38 +13956,38 @@
       <c r="AR105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS105" s="11" t="s">
-        <v>58</v>
+      <c r="AS105" s="11">
+        <v>78000000</v>
       </c>
       <c r="AT105" s="11">
-        <v>0</v>
+        <v>76500000</v>
       </c>
       <c r="AU105" s="11">
-        <v>78000000</v>
+        <v>73666667</v>
       </c>
       <c r="AV105" s="11">
-        <v>76500000</v>
+        <v>214114035</v>
       </c>
       <c r="AW105" s="11">
-        <v>73666667</v>
+        <v>85000000</v>
       </c>
       <c r="AX105" s="11">
-        <v>214114035</v>
+        <v>69300000</v>
       </c>
       <c r="AY105" s="11">
-        <v>85000000</v>
+        <v>75125000</v>
       </c>
       <c r="AZ105" s="11">
-        <v>69300000</v>
-      </c>
-      <c r="BA105" s="11">
-        <v>75125000</v>
+        <v>83581395</v>
+      </c>
+      <c r="BA105" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB105" s="11">
-        <v>61500000</v>
+        <v>365181818</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
         <v>59</v>
       </c>
@@ -14071,24 +14070,24 @@
       <c r="AC106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE106" s="13" t="s">
-        <v>58</v>
+      <c r="AD106" s="13">
+        <v>1614154</v>
+      </c>
+      <c r="AE106" s="13">
+        <v>3788991</v>
       </c>
       <c r="AF106" s="13">
-        <v>1614154</v>
+        <v>5348361</v>
       </c>
       <c r="AG106" s="13">
-        <v>3788991</v>
-      </c>
-      <c r="AH106" s="13">
-        <v>5348361</v>
-      </c>
-      <c r="AI106" s="13">
         <v>5900258</v>
       </c>
+      <c r="AH106" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI106" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ106" s="13" t="s">
         <v>58</v>
       </c>
@@ -14147,12 +14146,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C107" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D107" s="11"/>
       <c r="E107" s="11" t="s">
@@ -14230,83 +14229,83 @@
       <c r="AC107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD107" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE107" s="11" t="s">
-        <v>58</v>
+      <c r="AD107" s="11">
+        <v>1019266667</v>
+      </c>
+      <c r="AE107" s="11">
+        <v>526000000</v>
       </c>
       <c r="AF107" s="11">
-        <v>1019266667</v>
+        <v>820206897</v>
       </c>
       <c r="AG107" s="11">
-        <v>526000000</v>
-      </c>
-      <c r="AH107" s="11">
-        <v>820206897</v>
+        <v>3400000</v>
+      </c>
+      <c r="AH107" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI107" s="11">
-        <v>3400000</v>
-      </c>
-      <c r="AJ107" s="11" t="s">
-        <v>58</v>
+        <v>46369748</v>
+      </c>
+      <c r="AJ107" s="11">
+        <v>48750000</v>
       </c>
       <c r="AK107" s="11">
-        <v>46369748</v>
+        <v>260453125</v>
       </c>
       <c r="AL107" s="11">
-        <v>48750000</v>
+        <v>68011864</v>
       </c>
       <c r="AM107" s="11">
-        <v>260453125</v>
+        <v>902486842</v>
       </c>
       <c r="AN107" s="11">
-        <v>68011864</v>
-      </c>
-      <c r="AO107" s="11">
-        <v>902486842</v>
+        <v>1358230769</v>
+      </c>
+      <c r="AO107" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP107" s="11">
-        <v>1358230769</v>
-      </c>
-      <c r="AQ107" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR107" s="11" t="s">
-        <v>58</v>
+        <v>589420168</v>
+      </c>
+      <c r="AQ107" s="11">
+        <v>589420168</v>
+      </c>
+      <c r="AR107" s="11">
+        <v>2250714286</v>
       </c>
       <c r="AS107" s="11">
-        <v>589420168</v>
+        <v>2272687500</v>
       </c>
       <c r="AT107" s="11">
-        <v>2613000000</v>
+        <v>2533000000</v>
       </c>
       <c r="AU107" s="11">
-        <v>2641827171</v>
+        <v>281844595</v>
       </c>
       <c r="AV107" s="11">
-        <v>2533000000</v>
+        <v>81892857</v>
       </c>
       <c r="AW107" s="11">
-        <v>281844595</v>
+        <v>1551555556</v>
       </c>
       <c r="AX107" s="11">
-        <v>81892857</v>
+        <v>83113953</v>
       </c>
       <c r="AY107" s="11">
-        <v>1551555556</v>
+        <v>1077078947</v>
       </c>
       <c r="AZ107" s="11">
-        <v>83113953</v>
+        <v>904461538</v>
       </c>
       <c r="BA107" s="11">
-        <v>1102918919</v>
+        <v>3033800000</v>
       </c>
       <c r="BB107" s="11">
-        <v>904461538</v>
+        <v>3346000000</v>
       </c>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
         <v>62</v>
       </c>
@@ -14386,86 +14385,86 @@
       <c r="AB108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC108" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD108" s="13" t="s">
-        <v>58</v>
+      <c r="AC108" s="13">
+        <v>61065789</v>
+      </c>
+      <c r="AD108" s="13">
+        <v>59947368</v>
       </c>
       <c r="AE108" s="13">
-        <v>61065789</v>
+        <v>58509091</v>
       </c>
       <c r="AF108" s="13">
-        <v>59947368</v>
+        <v>59794118</v>
       </c>
       <c r="AG108" s="13">
-        <v>58509091</v>
+        <v>62000000</v>
       </c>
       <c r="AH108" s="13">
-        <v>59794118</v>
+        <v>60813559</v>
       </c>
       <c r="AI108" s="13">
-        <v>62000000</v>
+        <v>59240385</v>
       </c>
       <c r="AJ108" s="13">
-        <v>60813559</v>
+        <v>60132075</v>
       </c>
       <c r="AK108" s="13">
-        <v>59240385</v>
+        <v>63176471</v>
       </c>
       <c r="AL108" s="13">
-        <v>60132075</v>
+        <v>61369863</v>
       </c>
       <c r="AM108" s="13">
-        <v>63176471</v>
+        <v>60343949</v>
       </c>
       <c r="AN108" s="13">
-        <v>61369863</v>
+        <v>60495238</v>
       </c>
       <c r="AO108" s="13">
-        <v>60343949</v>
+        <v>66768116</v>
       </c>
       <c r="AP108" s="13">
-        <v>60495238</v>
+        <v>86817460</v>
       </c>
       <c r="AQ108" s="13">
-        <v>66768116</v>
+        <v>86817460</v>
       </c>
       <c r="AR108" s="13">
-        <v>70981818</v>
+        <v>98040000</v>
       </c>
       <c r="AS108" s="13">
-        <v>86817460</v>
+        <v>97762238</v>
       </c>
       <c r="AT108" s="13">
-        <v>98040000</v>
+        <v>163527778</v>
       </c>
       <c r="AU108" s="13">
-        <v>97762238</v>
+        <v>159104478</v>
       </c>
       <c r="AV108" s="13">
-        <v>163527778</v>
+        <v>159086207</v>
       </c>
       <c r="AW108" s="13">
-        <v>159104478</v>
+        <v>155459459</v>
       </c>
       <c r="AX108" s="13">
-        <v>159086207</v>
+        <v>150550847</v>
       </c>
       <c r="AY108" s="13">
-        <v>155459459</v>
+        <v>152680251</v>
       </c>
       <c r="AZ108" s="13">
-        <v>150550847</v>
+        <v>156416031</v>
       </c>
       <c r="BA108" s="13">
-        <v>152680251</v>
+        <v>154152174</v>
       </c>
       <c r="BB108" s="13">
-        <v>156416031</v>
+        <v>167835749</v>
       </c>
     </row>
-    <row r="109" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
         <v>63</v>
       </c>
@@ -14545,86 +14544,86 @@
       <c r="AB109" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC109" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD109" s="11" t="s">
-        <v>58</v>
+      <c r="AC109" s="11">
+        <v>2381846</v>
+      </c>
+      <c r="AD109" s="11">
+        <v>3324226</v>
       </c>
       <c r="AE109" s="11">
-        <v>2381846</v>
+        <v>5325106</v>
       </c>
       <c r="AF109" s="11">
-        <v>3324226</v>
+        <v>5269736</v>
       </c>
       <c r="AG109" s="11">
-        <v>5325106</v>
+        <v>3190053</v>
       </c>
       <c r="AH109" s="11">
-        <v>5269736</v>
+        <v>4061445</v>
       </c>
       <c r="AI109" s="11">
-        <v>3190053</v>
+        <v>4179767</v>
       </c>
       <c r="AJ109" s="11">
-        <v>4061445</v>
+        <v>3798694</v>
       </c>
       <c r="AK109" s="11">
-        <v>4179767</v>
+        <v>4376508</v>
       </c>
       <c r="AL109" s="11">
-        <v>3798694</v>
+        <v>4657304</v>
       </c>
       <c r="AM109" s="11">
-        <v>4376508</v>
+        <v>4678651</v>
       </c>
       <c r="AN109" s="11">
-        <v>4657304</v>
+        <v>4679264</v>
       </c>
       <c r="AO109" s="11">
-        <v>4678651</v>
+        <v>5040768</v>
       </c>
       <c r="AP109" s="11">
-        <v>4679264</v>
+        <v>4332864</v>
       </c>
       <c r="AQ109" s="11">
-        <v>5040768</v>
+        <v>4332864</v>
       </c>
       <c r="AR109" s="11">
-        <v>3392012</v>
+        <v>3404993</v>
       </c>
       <c r="AS109" s="11">
-        <v>4332864</v>
+        <v>3752298</v>
       </c>
       <c r="AT109" s="11">
-        <v>3496636</v>
+        <v>5735457</v>
       </c>
       <c r="AU109" s="11">
-        <v>3706930</v>
+        <v>4157240</v>
       </c>
       <c r="AV109" s="11">
-        <v>5735457</v>
+        <v>6040144</v>
       </c>
       <c r="AW109" s="11">
-        <v>4157240</v>
+        <v>4930030</v>
       </c>
       <c r="AX109" s="11">
-        <v>6040144</v>
+        <v>5781575</v>
       </c>
       <c r="AY109" s="11">
-        <v>4931173</v>
+        <v>5666754</v>
       </c>
       <c r="AZ109" s="11">
-        <v>5775964</v>
+        <v>6880629</v>
       </c>
       <c r="BA109" s="11">
-        <v>5666754</v>
+        <v>5330795</v>
       </c>
       <c r="BB109" s="11">
-        <v>7033017</v>
+        <v>5044285</v>
       </c>
     </row>
-    <row r="110" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B110" s="12" t="s">
         <v>64</v>
       </c>
@@ -14704,91 +14703,91 @@
       <c r="AB110" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC110" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD110" s="13" t="s">
-        <v>58</v>
+      <c r="AC110" s="13">
+        <v>148557728</v>
+      </c>
+      <c r="AD110" s="13">
+        <v>155172922</v>
       </c>
       <c r="AE110" s="13">
-        <v>148557728</v>
+        <v>153967866</v>
       </c>
       <c r="AF110" s="13">
-        <v>155172922</v>
+        <v>130039290</v>
       </c>
       <c r="AG110" s="13">
-        <v>153967866</v>
+        <v>120336639</v>
       </c>
       <c r="AH110" s="13">
-        <v>130039290</v>
+        <v>147621657</v>
       </c>
       <c r="AI110" s="13">
-        <v>120336639</v>
+        <v>164086128</v>
       </c>
       <c r="AJ110" s="13">
-        <v>147621657</v>
+        <v>180239079</v>
       </c>
       <c r="AK110" s="13">
-        <v>164086128</v>
+        <v>198696016</v>
       </c>
       <c r="AL110" s="13">
-        <v>180239079</v>
+        <v>225052557</v>
       </c>
       <c r="AM110" s="13">
-        <v>198696016</v>
+        <v>215885023</v>
       </c>
       <c r="AN110" s="13">
-        <v>225052557</v>
+        <v>196973366</v>
       </c>
       <c r="AO110" s="13">
-        <v>215884724</v>
+        <v>201633623</v>
       </c>
       <c r="AP110" s="13">
-        <v>196973366</v>
+        <v>202684129</v>
       </c>
       <c r="AQ110" s="13">
-        <v>201633623</v>
+        <v>202684129</v>
       </c>
       <c r="AR110" s="13">
-        <v>197636859</v>
+        <v>201922294</v>
       </c>
       <c r="AS110" s="13">
-        <v>202690414</v>
+        <v>233461771</v>
       </c>
       <c r="AT110" s="13">
-        <v>201578479</v>
+        <v>308832172</v>
       </c>
       <c r="AU110" s="13">
-        <v>233497038</v>
+        <v>356559353</v>
       </c>
       <c r="AV110" s="13">
-        <v>308832172</v>
+        <v>361201971</v>
       </c>
       <c r="AW110" s="13">
-        <v>356543388</v>
+        <v>365471748</v>
       </c>
       <c r="AX110" s="13">
-        <v>361163483</v>
+        <v>391778569</v>
       </c>
       <c r="AY110" s="13">
-        <v>365471748</v>
+        <v>394193366</v>
       </c>
       <c r="AZ110" s="13">
-        <v>391778588</v>
+        <v>410467433</v>
       </c>
       <c r="BA110" s="13">
-        <v>394184853</v>
+        <v>423690837</v>
       </c>
       <c r="BB110" s="13">
-        <v>410467433</v>
+        <v>407672486</v>
       </c>
     </row>
-    <row r="111" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D111" s="11"/>
       <c r="E111" s="11" t="s">
@@ -14863,91 +14862,91 @@
       <c r="AB111" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC111" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD111" s="11" t="s">
-        <v>58</v>
+      <c r="AC111" s="11">
+        <v>38706131</v>
+      </c>
+      <c r="AD111" s="11">
+        <v>41750807</v>
       </c>
       <c r="AE111" s="11">
-        <v>38706131</v>
+        <v>39262160</v>
       </c>
       <c r="AF111" s="11">
-        <v>41750807</v>
+        <v>53502642</v>
       </c>
       <c r="AG111" s="11">
-        <v>39262160</v>
+        <v>64021560</v>
       </c>
       <c r="AH111" s="11">
-        <v>53502642</v>
+        <v>60579636</v>
       </c>
       <c r="AI111" s="11">
-        <v>64021560</v>
+        <v>58273229</v>
       </c>
       <c r="AJ111" s="11">
-        <v>60579636</v>
+        <v>65267339</v>
       </c>
       <c r="AK111" s="11">
-        <v>58273229</v>
+        <v>75838079</v>
       </c>
       <c r="AL111" s="11">
-        <v>65267339</v>
+        <v>68004633</v>
       </c>
       <c r="AM111" s="11">
-        <v>75838079</v>
+        <v>73053687</v>
       </c>
       <c r="AN111" s="11">
-        <v>68004633</v>
+        <v>67540541</v>
       </c>
       <c r="AO111" s="11">
-        <v>73053687</v>
+        <v>65145701</v>
       </c>
       <c r="AP111" s="11">
-        <v>67540541</v>
+        <v>35956067</v>
       </c>
       <c r="AQ111" s="11">
-        <v>65145701</v>
+        <v>35956067</v>
       </c>
       <c r="AR111" s="11">
-        <v>72426593</v>
+        <v>67641555</v>
       </c>
       <c r="AS111" s="11">
-        <v>36449274</v>
+        <v>78854427</v>
       </c>
       <c r="AT111" s="11">
-        <v>80151897</v>
+        <v>22473443</v>
       </c>
       <c r="AU111" s="11">
-        <v>69220471</v>
+        <v>43560166</v>
       </c>
       <c r="AV111" s="11">
-        <v>22473443</v>
+        <v>24562284</v>
       </c>
       <c r="AW111" s="11">
-        <v>43560166</v>
+        <v>100441333</v>
       </c>
       <c r="AX111" s="11">
-        <v>24562284</v>
+        <v>122661718</v>
       </c>
       <c r="AY111" s="11">
-        <v>100441333</v>
+        <v>106109209</v>
       </c>
       <c r="AZ111" s="11">
-        <v>122661630</v>
+        <v>51222000</v>
       </c>
       <c r="BA111" s="11">
-        <v>106109209</v>
+        <v>31198000</v>
       </c>
       <c r="BB111" s="11">
-        <v>51222000</v>
+        <v>52521127</v>
       </c>
     </row>
-    <row r="112" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B112" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C112" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D112" s="13"/>
       <c r="E112" s="13" t="s">
@@ -15028,85 +15027,85 @@
       <c r="AD112" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE112" s="13" t="s">
-        <v>58</v>
+      <c r="AE112" s="13">
+        <v>12000000</v>
       </c>
       <c r="AF112" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AG112" s="13">
-        <v>12000000</v>
+        <v>444600000</v>
       </c>
       <c r="AH112" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI112" s="13">
-        <v>444600000</v>
+      <c r="AI112" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ112" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK112" s="13" t="s">
-        <v>58</v>
+      <c r="AK112" s="13">
+        <v>545393939</v>
       </c>
       <c r="AL112" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM112" s="13">
-        <v>545393939</v>
+      <c r="AM112" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AN112" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AO112" s="13">
-        <v>2384589</v>
-      </c>
-      <c r="AP112" s="13" t="s">
-        <v>58</v>
+        <v>595915493</v>
+      </c>
+      <c r="AP112" s="13">
+        <v>639000000</v>
       </c>
       <c r="AQ112" s="13">
-        <v>595915493</v>
+        <v>639000000</v>
       </c>
       <c r="AR112" s="13">
-        <v>623566667</v>
-      </c>
-      <c r="AS112" s="13">
-        <v>639000000</v>
-      </c>
-      <c r="AT112" s="13">
         <v>758678571</v>
       </c>
-      <c r="AU112" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV112" s="13" t="s">
-        <v>58</v>
+      <c r="AS112" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT112" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU112" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV112" s="13">
+        <v>870000000</v>
       </c>
       <c r="AW112" s="13">
-        <v>0</v>
+        <v>970000000</v>
       </c>
       <c r="AX112" s="13">
-        <v>865508997</v>
-      </c>
-      <c r="AY112" s="13">
-        <v>970000000</v>
-      </c>
-      <c r="AZ112" s="13">
-        <v>1208435208</v>
-      </c>
-      <c r="BA112" s="13">
-        <v>0</v>
+        <v>1200000000</v>
+      </c>
+      <c r="AY112" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ112" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA112" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB112" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11" t="s">
@@ -15181,83 +15180,83 @@
       <c r="AB113" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC113" s="11" t="s">
-        <v>58</v>
+      <c r="AC113" s="11">
+        <v>74900685</v>
       </c>
       <c r="AD113" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AE113" s="11">
-        <v>74900685</v>
-      </c>
-      <c r="AF113" s="11" t="s">
-        <v>58</v>
+        <v>120316129</v>
+      </c>
+      <c r="AF113" s="11">
+        <v>120108696</v>
       </c>
       <c r="AG113" s="11">
-        <v>120316129</v>
+        <v>119916318</v>
       </c>
       <c r="AH113" s="11">
-        <v>120108696</v>
+        <v>120333333</v>
       </c>
       <c r="AI113" s="11">
-        <v>119916318</v>
+        <v>119722380</v>
       </c>
       <c r="AJ113" s="11">
-        <v>120333333</v>
+        <v>119853270</v>
       </c>
       <c r="AK113" s="11">
-        <v>119722380</v>
+        <v>121863539</v>
       </c>
       <c r="AL113" s="11">
-        <v>119853270</v>
+        <v>133857143</v>
       </c>
       <c r="AM113" s="11">
-        <v>121863539</v>
+        <v>140160643</v>
       </c>
       <c r="AN113" s="11">
-        <v>133857143</v>
+        <v>140329861</v>
       </c>
       <c r="AO113" s="11">
-        <v>140160643</v>
+        <v>140098101</v>
       </c>
       <c r="AP113" s="11">
-        <v>140329861</v>
+        <v>138666667</v>
       </c>
       <c r="AQ113" s="11">
-        <v>140098101</v>
+        <v>138666667</v>
       </c>
       <c r="AR113" s="11">
-        <v>140000000</v>
+        <v>139879310</v>
       </c>
       <c r="AS113" s="11">
-        <v>138666667</v>
+        <v>44618729</v>
       </c>
       <c r="AT113" s="11">
-        <v>75211151</v>
+        <v>175794872</v>
       </c>
       <c r="AU113" s="11">
-        <v>110312744</v>
+        <v>176455769</v>
       </c>
       <c r="AV113" s="11">
-        <v>175794872</v>
-      </c>
-      <c r="AW113" s="11">
-        <v>176455769</v>
+        <v>175808917</v>
+      </c>
+      <c r="AW113" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AX113" s="11">
-        <v>175808917</v>
+        <v>244603774</v>
       </c>
       <c r="AY113" s="11">
-        <v>0</v>
+        <v>247079365</v>
       </c>
       <c r="AZ113" s="11">
-        <v>244603774</v>
+        <v>232386667</v>
       </c>
       <c r="BA113" s="11">
-        <v>245634921</v>
+        <v>187056818</v>
       </c>
       <c r="BB113" s="11">
-        <v>232386667</v>
+        <v>150491935</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/zeraat/simorgh/product/monthly_seprated.xlsx
+++ b/database/industries/zeraat/simorgh/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2461" uniqueCount="107">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3526,14 +3526,14 @@
       <c r="AK11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="13" t="s">
-        <v>58</v>
+      <c r="AL11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN11" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO11" s="13" t="n">
         <v>0</v>
@@ -3542,40 +3542,40 @@
         <v>0</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AS11" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT11" s="13" t="n">
+        <v>114</v>
+      </c>
+      <c r="AU11" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV11" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="AT11" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU11" s="13" t="n">
-        <v>114</v>
-      </c>
-      <c r="AV11" s="13" t="n">
-        <v>9</v>
-      </c>
       <c r="AW11" s="13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>71</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3655,23 +3655,23 @@
       <c r="AA12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AB12" s="16" t="s">
-        <v>58</v>
+      <c r="AB12" s="16" t="n">
+        <v>1625</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>1625</v>
+        <v>109</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>109</v>
+        <v>244</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>244</v>
+        <v>1163</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>1163</v>
-      </c>
-      <c r="AG12" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AH12" s="16" t="s">
         <v>58</v>
@@ -3685,11 +3685,11 @@
       <c r="AK12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AL12" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM12" s="16" t="n">
-        <v>0</v>
+      <c r="AL12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AN12" s="16" t="s">
         <v>58</v>
@@ -3809,47 +3809,47 @@
       <c r="Z13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA13" s="13" t="s">
-        <v>58</v>
+      <c r="AA13" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>8</v>
+        <v>221</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>221</v>
+        <v>650</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>650</v>
+        <v>91</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>91</v>
-      </c>
-      <c r="AM13" s="13" t="n">
         <v>12</v>
       </c>
-      <c r="AN13" s="13" t="s">
-        <v>58</v>
+      <c r="AM13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN13" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO13" s="13" t="n">
         <v>0</v>
@@ -3864,25 +3864,25 @@
         <v>0</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>139</v>
+        <v>68</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>68</v>
+        <v>465</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>465</v>
+        <v>35</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="13" t="n">
         <v>0</v>
@@ -3968,89 +3968,89 @@
       <c r="Z14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA14" s="16" t="s">
-        <v>58</v>
+      <c r="AA14" s="16" t="n">
+        <v>1707</v>
       </c>
       <c r="AB14" s="16" t="n">
-        <v>1707</v>
+        <v>1923</v>
       </c>
       <c r="AC14" s="16" t="n">
-        <v>1923</v>
+        <v>2389</v>
       </c>
       <c r="AD14" s="16" t="n">
-        <v>2389</v>
+        <v>1998</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>1998</v>
+        <v>1918</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>1918</v>
+        <v>1644</v>
       </c>
       <c r="AG14" s="16" t="n">
-        <v>1644</v>
+        <v>1539</v>
       </c>
       <c r="AH14" s="16" t="n">
-        <v>1539</v>
+        <v>1747</v>
       </c>
       <c r="AI14" s="16" t="n">
-        <v>1747</v>
+        <v>1149</v>
       </c>
       <c r="AJ14" s="16" t="n">
-        <v>1149</v>
+        <v>1315</v>
       </c>
       <c r="AK14" s="16" t="n">
-        <v>1315</v>
+        <v>1546</v>
       </c>
       <c r="AL14" s="16" t="n">
-        <v>1546</v>
+        <v>1638</v>
       </c>
       <c r="AM14" s="16" t="n">
-        <v>1638</v>
+        <v>1854</v>
       </c>
       <c r="AN14" s="16" t="n">
-        <v>1854</v>
+        <v>2423</v>
       </c>
       <c r="AO14" s="16" t="n">
         <v>2423</v>
       </c>
       <c r="AP14" s="16" t="n">
-        <v>2423</v>
+        <v>1462</v>
       </c>
       <c r="AQ14" s="16" t="n">
-        <v>1462</v>
+        <v>1303</v>
       </c>
       <c r="AR14" s="16" t="n">
-        <v>1303</v>
+        <v>1380</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>1380</v>
+        <v>1591</v>
       </c>
       <c r="AT14" s="16" t="n">
-        <v>1591</v>
+        <v>1466</v>
       </c>
       <c r="AU14" s="16" t="n">
-        <v>1466</v>
+        <v>879</v>
       </c>
       <c r="AV14" s="16" t="n">
-        <v>879</v>
+        <v>754</v>
       </c>
       <c r="AW14" s="16" t="n">
-        <v>754</v>
+        <v>1772</v>
       </c>
       <c r="AX14" s="16" t="n">
-        <v>1772</v>
+        <v>1706</v>
       </c>
       <c r="AY14" s="16" t="n">
-        <v>1706</v>
+        <v>2300</v>
       </c>
       <c r="AZ14" s="16" t="n">
-        <v>2300</v>
+        <v>2342</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>2342</v>
+        <v>2281</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>2281</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4127,89 +4127,89 @@
       <c r="Z15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA15" s="13" t="s">
-        <v>58</v>
+      <c r="AA15" s="13" t="n">
+        <v>4784</v>
       </c>
       <c r="AB15" s="13" t="n">
-        <v>4784</v>
+        <v>5825</v>
       </c>
       <c r="AC15" s="13" t="n">
-        <v>5825</v>
+        <v>4998</v>
       </c>
       <c r="AD15" s="13" t="n">
-        <v>4998</v>
+        <v>8309</v>
       </c>
       <c r="AE15" s="13" t="n">
-        <v>8309</v>
+        <v>4622</v>
       </c>
       <c r="AF15" s="13" t="n">
-        <v>4622</v>
+        <v>5655</v>
       </c>
       <c r="AG15" s="13" t="n">
-        <v>5655</v>
+        <v>5902</v>
       </c>
       <c r="AH15" s="13" t="n">
-        <v>5902</v>
+        <v>5281</v>
       </c>
       <c r="AI15" s="13" t="n">
-        <v>5281</v>
+        <v>6437</v>
       </c>
       <c r="AJ15" s="13" t="n">
-        <v>6437</v>
+        <v>5880</v>
       </c>
       <c r="AK15" s="13" t="n">
-        <v>5880</v>
+        <v>5620</v>
       </c>
       <c r="AL15" s="13" t="n">
-        <v>5620</v>
+        <v>8209</v>
       </c>
       <c r="AM15" s="13" t="n">
-        <v>8209</v>
+        <v>4779</v>
       </c>
       <c r="AN15" s="13" t="n">
-        <v>4779</v>
+        <v>5435</v>
       </c>
       <c r="AO15" s="13" t="n">
         <v>5435</v>
       </c>
       <c r="AP15" s="13" t="n">
-        <v>5435</v>
+        <v>4354</v>
       </c>
       <c r="AQ15" s="13" t="n">
-        <v>4354</v>
+        <v>6108</v>
       </c>
       <c r="AR15" s="13" t="n">
-        <v>6108</v>
+        <v>11809</v>
       </c>
       <c r="AS15" s="13" t="n">
-        <v>11809</v>
+        <v>3948</v>
       </c>
       <c r="AT15" s="13" t="n">
-        <v>3948</v>
+        <v>7747</v>
       </c>
       <c r="AU15" s="13" t="n">
-        <v>7747</v>
+        <v>5848</v>
       </c>
       <c r="AV15" s="13" t="n">
-        <v>5848</v>
+        <v>5357</v>
       </c>
       <c r="AW15" s="13" t="n">
-        <v>5357</v>
+        <v>5789</v>
       </c>
       <c r="AX15" s="13" t="n">
-        <v>5789</v>
+        <v>12023</v>
       </c>
       <c r="AY15" s="13" t="n">
-        <v>12023</v>
+        <v>4310</v>
       </c>
       <c r="AZ15" s="13" t="n">
-        <v>4310</v>
+        <v>4702</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>4702</v>
+        <v>6417</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>6417</v>
+        <v>7844</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4286,89 +4286,89 @@
       <c r="Z16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA16" s="16" t="s">
-        <v>58</v>
+      <c r="AA16" s="16" t="n">
+        <v>4940</v>
       </c>
       <c r="AB16" s="16" t="n">
-        <v>4940</v>
+        <v>4975</v>
       </c>
       <c r="AC16" s="16" t="n">
-        <v>4975</v>
+        <v>4669</v>
       </c>
       <c r="AD16" s="16" t="n">
-        <v>4669</v>
+        <v>5074</v>
       </c>
       <c r="AE16" s="16" t="n">
-        <v>5074</v>
+        <v>5603</v>
       </c>
       <c r="AF16" s="16" t="n">
-        <v>5603</v>
+        <v>5818</v>
       </c>
       <c r="AG16" s="16" t="n">
-        <v>5818</v>
+        <v>6082</v>
       </c>
       <c r="AH16" s="16" t="n">
-        <v>6082</v>
+        <v>6338</v>
       </c>
       <c r="AI16" s="16" t="n">
-        <v>6338</v>
+        <v>6747</v>
       </c>
       <c r="AJ16" s="16" t="n">
-        <v>6747</v>
+        <v>6681</v>
       </c>
       <c r="AK16" s="16" t="n">
-        <v>6681</v>
+        <v>6701</v>
       </c>
       <c r="AL16" s="16" t="n">
-        <v>6701</v>
+        <v>6215</v>
       </c>
       <c r="AM16" s="16" t="n">
-        <v>6215</v>
+        <v>6354</v>
       </c>
       <c r="AN16" s="16" t="n">
-        <v>6354</v>
+        <v>5667</v>
       </c>
       <c r="AO16" s="16" t="n">
         <v>5667</v>
       </c>
       <c r="AP16" s="16" t="n">
-        <v>5667</v>
+        <v>5212</v>
       </c>
       <c r="AQ16" s="16" t="n">
-        <v>5212</v>
+        <v>4545</v>
       </c>
       <c r="AR16" s="16" t="n">
-        <v>4545</v>
+        <v>4315</v>
       </c>
       <c r="AS16" s="16" t="n">
-        <v>4315</v>
+        <v>4609</v>
       </c>
       <c r="AT16" s="16" t="n">
-        <v>4609</v>
+        <v>4830</v>
       </c>
       <c r="AU16" s="16" t="n">
-        <v>4830</v>
+        <v>5217</v>
       </c>
       <c r="AV16" s="16" t="n">
-        <v>5217</v>
+        <v>5162</v>
       </c>
       <c r="AW16" s="16" t="n">
-        <v>5162</v>
+        <v>5039</v>
       </c>
       <c r="AX16" s="16" t="n">
-        <v>5039</v>
+        <v>4905</v>
       </c>
       <c r="AY16" s="16" t="n">
-        <v>4905</v>
+        <v>4866</v>
       </c>
       <c r="AZ16" s="16" t="n">
-        <v>4866</v>
+        <v>5366</v>
       </c>
       <c r="BA16" s="16" t="n">
-        <v>5366</v>
+        <v>5623</v>
       </c>
       <c r="BB16" s="16" t="n">
-        <v>5623</v>
+        <v>6556</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4445,89 +4445,89 @@
       <c r="Z17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA17" s="13" t="s">
-        <v>58</v>
+      <c r="AA17" s="13" t="n">
+        <v>946</v>
       </c>
       <c r="AB17" s="13" t="n">
-        <v>946</v>
+        <v>1549</v>
       </c>
       <c r="AC17" s="13" t="n">
-        <v>1549</v>
+        <v>1213</v>
       </c>
       <c r="AD17" s="13" t="n">
-        <v>1213</v>
+        <v>1325</v>
       </c>
       <c r="AE17" s="13" t="n">
-        <v>1325</v>
+        <v>1577</v>
       </c>
       <c r="AF17" s="13" t="n">
-        <v>1577</v>
+        <v>1758</v>
       </c>
       <c r="AG17" s="13" t="n">
-        <v>1758</v>
+        <v>1683</v>
       </c>
       <c r="AH17" s="13" t="n">
-        <v>1683</v>
+        <v>1784</v>
       </c>
       <c r="AI17" s="13" t="n">
-        <v>1784</v>
+        <v>1791</v>
       </c>
       <c r="AJ17" s="13" t="n">
-        <v>1791</v>
+        <v>1511</v>
       </c>
       <c r="AK17" s="13" t="n">
-        <v>1511</v>
+        <v>1695</v>
       </c>
       <c r="AL17" s="13" t="n">
-        <v>1695</v>
+        <v>1406</v>
       </c>
       <c r="AM17" s="13" t="n">
-        <v>1406</v>
+        <v>1105</v>
       </c>
       <c r="AN17" s="13" t="n">
-        <v>1105</v>
+        <v>1434</v>
       </c>
       <c r="AO17" s="13" t="n">
         <v>1434</v>
       </c>
       <c r="AP17" s="13" t="n">
-        <v>1434</v>
+        <v>2084</v>
       </c>
       <c r="AQ17" s="13" t="n">
-        <v>2084</v>
+        <v>2012</v>
       </c>
       <c r="AR17" s="13" t="n">
-        <v>2012</v>
+        <v>1333</v>
       </c>
       <c r="AS17" s="13" t="n">
-        <v>1333</v>
+        <v>241</v>
       </c>
       <c r="AT17" s="13" t="n">
-        <v>241</v>
+        <v>1208</v>
       </c>
       <c r="AU17" s="13" t="n">
-        <v>1208</v>
+        <v>750</v>
       </c>
       <c r="AV17" s="13" t="n">
-        <v>750</v>
+        <v>943</v>
       </c>
       <c r="AW17" s="13" t="n">
-        <v>943</v>
+        <v>1227</v>
       </c>
       <c r="AX17" s="13" t="n">
-        <v>1227</v>
+        <v>1008</v>
       </c>
       <c r="AY17" s="13" t="n">
-        <v>1008</v>
+        <v>507</v>
       </c>
       <c r="AZ17" s="13" t="n">
-        <v>507</v>
+        <v>212</v>
       </c>
       <c r="BA17" s="13" t="n">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="BB17" s="13" t="n">
-        <v>180</v>
+        <v>678</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4604,8 +4604,8 @@
       <c r="Z18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA18" s="16" t="s">
-        <v>58</v>
+      <c r="AA18" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AB18" s="16" t="n">
         <v>0</v>
@@ -4617,22 +4617,22 @@
         <v>0</v>
       </c>
       <c r="AE18" s="16" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF18" s="16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG18" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG18" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AH18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI18" s="16" t="s">
-        <v>58</v>
+      <c r="AI18" s="16" t="n">
+        <v>198</v>
       </c>
       <c r="AJ18" s="16" t="n">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="16" t="n">
         <v>0</v>
@@ -4641,19 +4641,19 @@
         <v>0</v>
       </c>
       <c r="AM18" s="16" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AN18" s="16" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AP18" s="16" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AQ18" s="16" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="16" t="n">
         <v>0</v>
@@ -4662,16 +4662,16 @@
         <v>0</v>
       </c>
       <c r="AT18" s="16" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AU18" s="16" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AV18" s="16" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AW18" s="16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AX18" s="16" t="n">
         <v>0</v>
@@ -4683,10 +4683,10 @@
         <v>0</v>
       </c>
       <c r="BA18" s="16" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="BB18" s="16" t="n">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4802,8 +4802,8 @@
       <c r="AM19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN19" s="13" t="s">
-        <v>58</v>
+      <c r="AN19" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO19" s="13" t="n">
         <v>0</v>
@@ -4835,8 +4835,8 @@
       <c r="AX19" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AY19" s="13" t="n">
-        <v>0</v>
+      <c r="AY19" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ19" s="13" t="s">
         <v>58</v>
@@ -4961,8 +4961,8 @@
       <c r="AM20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AN20" s="16" t="s">
-        <v>58</v>
+      <c r="AN20" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AO20" s="16" t="n">
         <v>0</v>
@@ -4994,8 +4994,8 @@
       <c r="AX20" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY20" s="16" t="n">
-        <v>0</v>
+      <c r="AY20" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AZ20" s="16" t="s">
         <v>58</v>
@@ -5081,89 +5081,89 @@
       <c r="Z21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA21" s="13" t="s">
-        <v>58</v>
+      <c r="AA21" s="13" t="n">
+        <v>480</v>
       </c>
       <c r="AB21" s="13" t="n">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="AC21" s="13" t="n">
-        <v>488</v>
+        <v>406</v>
       </c>
       <c r="AD21" s="13" t="n">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="AE21" s="13" t="n">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="AF21" s="13" t="n">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="AG21" s="13" t="n">
-        <v>348</v>
+        <v>468</v>
       </c>
       <c r="AH21" s="13" t="n">
-        <v>468</v>
+        <v>511</v>
       </c>
       <c r="AI21" s="13" t="n">
-        <v>511</v>
+        <v>477</v>
       </c>
       <c r="AJ21" s="13" t="n">
-        <v>477</v>
+        <v>378</v>
       </c>
       <c r="AK21" s="13" t="n">
-        <v>378</v>
+        <v>497</v>
       </c>
       <c r="AL21" s="13" t="n">
-        <v>497</v>
+        <v>534</v>
       </c>
       <c r="AM21" s="13" t="n">
-        <v>534</v>
+        <v>569</v>
       </c>
       <c r="AN21" s="13" t="n">
-        <v>569</v>
+        <v>422</v>
       </c>
       <c r="AO21" s="13" t="n">
         <v>422</v>
       </c>
       <c r="AP21" s="13" t="n">
-        <v>422</v>
+        <v>517</v>
       </c>
       <c r="AQ21" s="13" t="n">
-        <v>517</v>
+        <v>299</v>
       </c>
       <c r="AR21" s="13" t="n">
-        <v>299</v>
+        <v>559</v>
       </c>
       <c r="AS21" s="13" t="n">
-        <v>559</v>
+        <v>520</v>
       </c>
       <c r="AT21" s="13" t="n">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="AU21" s="13" t="n">
-        <v>524</v>
+        <v>414</v>
       </c>
       <c r="AV21" s="13" t="n">
-        <v>414</v>
+        <v>312</v>
       </c>
       <c r="AW21" s="13" t="n">
-        <v>312</v>
+        <v>599</v>
       </c>
       <c r="AX21" s="13" t="n">
-        <v>599</v>
+        <v>473</v>
       </c>
       <c r="AY21" s="13" t="n">
-        <v>473</v>
+        <v>352</v>
       </c>
       <c r="AZ21" s="13" t="n">
-        <v>352</v>
+        <v>554</v>
       </c>
       <c r="BA21" s="13" t="n">
-        <v>554</v>
+        <v>364</v>
       </c>
       <c r="BB21" s="13" t="n">
-        <v>364</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5279,8 +5279,8 @@
       <c r="AM22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AN22" s="16" t="s">
-        <v>58</v>
+      <c r="AN22" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AO22" s="16" t="n">
         <v>0</v>
@@ -5312,8 +5312,8 @@
       <c r="AX22" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY22" s="16" t="n">
-        <v>0</v>
+      <c r="AY22" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AZ22" s="16" t="s">
         <v>58</v>
@@ -5438,8 +5438,8 @@
       <c r="AM23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN23" s="13" t="s">
-        <v>58</v>
+      <c r="AN23" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO23" s="13" t="n">
         <v>0</v>
@@ -5471,8 +5471,8 @@
       <c r="AX23" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AY23" s="13" t="n">
-        <v>0</v>
+      <c r="AY23" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ23" s="13" t="s">
         <v>58</v>
@@ -5597,8 +5597,8 @@
       <c r="AM24" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AN24" s="16" t="s">
-        <v>58</v>
+      <c r="AN24" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AO24" s="16" t="n">
         <v>0</v>
@@ -5630,8 +5630,8 @@
       <c r="AX24" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY24" s="16" t="n">
-        <v>0</v>
+      <c r="AY24" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AZ24" s="16" t="s">
         <v>58</v>
@@ -5716,88 +5716,88 @@
         <v>0</v>
       </c>
       <c r="AA25" s="18" t="n">
-        <v>0</v>
+        <v>12857</v>
       </c>
       <c r="AB25" s="18" t="n">
-        <v>12857</v>
+        <v>16386</v>
       </c>
       <c r="AC25" s="18" t="n">
-        <v>16386</v>
+        <v>13784</v>
       </c>
       <c r="AD25" s="18" t="n">
-        <v>13784</v>
+        <v>17336</v>
       </c>
       <c r="AE25" s="18" t="n">
-        <v>17336</v>
+        <v>15273</v>
       </c>
       <c r="AF25" s="18" t="n">
-        <v>15273</v>
+        <v>15223</v>
       </c>
       <c r="AG25" s="18" t="n">
-        <v>15223</v>
+        <v>15793</v>
       </c>
       <c r="AH25" s="18" t="n">
-        <v>15793</v>
+        <v>15669</v>
       </c>
       <c r="AI25" s="18" t="n">
-        <v>15669</v>
+        <v>17020</v>
       </c>
       <c r="AJ25" s="18" t="n">
-        <v>17020</v>
+        <v>16415</v>
       </c>
       <c r="AK25" s="18" t="n">
-        <v>16415</v>
+        <v>16150</v>
       </c>
       <c r="AL25" s="18" t="n">
-        <v>16150</v>
+        <v>18014</v>
       </c>
       <c r="AM25" s="18" t="n">
-        <v>18014</v>
+        <v>14732</v>
       </c>
       <c r="AN25" s="18" t="n">
-        <v>14732</v>
+        <v>15381</v>
       </c>
       <c r="AO25" s="18" t="n">
         <v>15381</v>
       </c>
       <c r="AP25" s="18" t="n">
-        <v>15381</v>
+        <v>13657</v>
       </c>
       <c r="AQ25" s="18" t="n">
-        <v>13657</v>
+        <v>14271</v>
       </c>
       <c r="AR25" s="18" t="n">
-        <v>14271</v>
+        <v>19406</v>
       </c>
       <c r="AS25" s="18" t="n">
-        <v>19406</v>
+        <v>11053</v>
       </c>
       <c r="AT25" s="18" t="n">
-        <v>11053</v>
+        <v>16058</v>
       </c>
       <c r="AU25" s="18" t="n">
-        <v>16058</v>
+        <v>13200</v>
       </c>
       <c r="AV25" s="18" t="n">
-        <v>13200</v>
+        <v>13008</v>
       </c>
       <c r="AW25" s="18" t="n">
-        <v>13008</v>
+        <v>14469</v>
       </c>
       <c r="AX25" s="18" t="n">
-        <v>14469</v>
+        <v>20179</v>
       </c>
       <c r="AY25" s="18" t="n">
-        <v>20179</v>
+        <v>12335</v>
       </c>
       <c r="AZ25" s="18" t="n">
-        <v>12335</v>
+        <v>13236</v>
       </c>
       <c r="BA25" s="18" t="n">
-        <v>13236</v>
+        <v>15025</v>
       </c>
       <c r="BB25" s="18" t="n">
-        <v>15025</v>
+        <v>17397</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6143,8 +6143,8 @@
       <c r="Z29" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AA29" s="18" t="s">
-        <v>58</v>
+      <c r="AA29" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AB29" s="18" t="n">
         <v>0</v>
@@ -6188,8 +6188,8 @@
       <c r="AO29" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AP29" s="18" t="n">
-        <v>0</v>
+      <c r="AP29" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="AQ29" s="18" t="s">
         <v>58</v>
@@ -6301,88 +6301,88 @@
         <v>0</v>
       </c>
       <c r="AA30" s="22" t="n">
-        <v>0</v>
+        <v>12857</v>
       </c>
       <c r="AB30" s="22" t="n">
-        <v>12857</v>
+        <v>16386</v>
       </c>
       <c r="AC30" s="22" t="n">
-        <v>16386</v>
+        <v>13784</v>
       </c>
       <c r="AD30" s="22" t="n">
-        <v>13784</v>
+        <v>17336</v>
       </c>
       <c r="AE30" s="22" t="n">
-        <v>17336</v>
+        <v>15273</v>
       </c>
       <c r="AF30" s="22" t="n">
-        <v>15273</v>
+        <v>15223</v>
       </c>
       <c r="AG30" s="22" t="n">
-        <v>15223</v>
+        <v>15793</v>
       </c>
       <c r="AH30" s="22" t="n">
-        <v>15793</v>
+        <v>15669</v>
       </c>
       <c r="AI30" s="22" t="n">
-        <v>15669</v>
+        <v>17020</v>
       </c>
       <c r="AJ30" s="22" t="n">
-        <v>17020</v>
+        <v>16415</v>
       </c>
       <c r="AK30" s="22" t="n">
-        <v>16415</v>
+        <v>16150</v>
       </c>
       <c r="AL30" s="22" t="n">
-        <v>16150</v>
+        <v>18014</v>
       </c>
       <c r="AM30" s="22" t="n">
-        <v>18014</v>
+        <v>14732</v>
       </c>
       <c r="AN30" s="22" t="n">
-        <v>14732</v>
+        <v>15381</v>
       </c>
       <c r="AO30" s="22" t="n">
         <v>15381</v>
       </c>
       <c r="AP30" s="22" t="n">
-        <v>15381</v>
+        <v>13657</v>
       </c>
       <c r="AQ30" s="22" t="n">
-        <v>13657</v>
+        <v>14271</v>
       </c>
       <c r="AR30" s="22" t="n">
-        <v>14271</v>
+        <v>19406</v>
       </c>
       <c r="AS30" s="22" t="n">
-        <v>19406</v>
+        <v>11053</v>
       </c>
       <c r="AT30" s="22" t="n">
-        <v>11053</v>
+        <v>16058</v>
       </c>
       <c r="AU30" s="22" t="n">
-        <v>16058</v>
+        <v>13200</v>
       </c>
       <c r="AV30" s="22" t="n">
-        <v>13200</v>
+        <v>13008</v>
       </c>
       <c r="AW30" s="22" t="n">
-        <v>13008</v>
+        <v>14469</v>
       </c>
       <c r="AX30" s="22" t="n">
-        <v>14469</v>
+        <v>20179</v>
       </c>
       <c r="AY30" s="22" t="n">
-        <v>20179</v>
+        <v>12335</v>
       </c>
       <c r="AZ30" s="22" t="n">
-        <v>12335</v>
+        <v>13236</v>
       </c>
       <c r="BA30" s="22" t="n">
-        <v>13236</v>
+        <v>15025</v>
       </c>
       <c r="BB30" s="22" t="n">
-        <v>15025</v>
+        <v>17397</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6926,14 +6926,14 @@
       <c r="AK37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL37" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM37" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN37" s="13" t="s">
-        <v>58</v>
+      <c r="AL37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN37" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO37" s="13" t="n">
         <v>0</v>
@@ -6942,40 +6942,40 @@
         <v>0</v>
       </c>
       <c r="AQ37" s="13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR37" s="13" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AS37" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AT37" s="13" t="n">
+        <v>114</v>
+      </c>
+      <c r="AU37" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV37" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="AT37" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU37" s="13" t="n">
-        <v>114</v>
-      </c>
-      <c r="AV37" s="13" t="n">
-        <v>9</v>
-      </c>
       <c r="AW37" s="13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX37" s="13" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="AY37" s="13" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="AZ37" s="13" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="BA37" s="13" t="n">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="BB37" s="13" t="n">
-        <v>72</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7055,23 +7055,23 @@
       <c r="AA38" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AB38" s="16" t="s">
-        <v>58</v>
+      <c r="AB38" s="16" t="n">
+        <v>1625</v>
       </c>
       <c r="AC38" s="16" t="n">
-        <v>1625</v>
+        <v>109</v>
       </c>
       <c r="AD38" s="16" t="n">
-        <v>109</v>
+        <v>244</v>
       </c>
       <c r="AE38" s="16" t="n">
-        <v>244</v>
+        <v>1163</v>
       </c>
       <c r="AF38" s="16" t="n">
-        <v>1163</v>
-      </c>
-      <c r="AG38" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG38" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AH38" s="16" t="s">
         <v>58</v>
@@ -7085,11 +7085,11 @@
       <c r="AK38" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AL38" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM38" s="16" t="n">
-        <v>0</v>
+      <c r="AL38" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AN38" s="16" t="s">
         <v>58</v>
@@ -7209,89 +7209,89 @@
       <c r="Z39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA39" s="13" t="s">
-        <v>58</v>
+      <c r="AA39" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AB39" s="13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC39" s="13" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AD39" s="13" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="AE39" s="13" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="AF39" s="13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="13" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="AH39" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI39" s="13" t="n">
+        <v>128</v>
+      </c>
+      <c r="AJ39" s="13" t="n">
+        <v>590</v>
+      </c>
+      <c r="AK39" s="13" t="n">
+        <v>76</v>
+      </c>
+      <c r="AL39" s="13" t="n">
+        <v>39</v>
+      </c>
+      <c r="AM39" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN39" s="13" t="n">
         <v>119</v>
-      </c>
-      <c r="AI39" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ39" s="13" t="n">
-        <v>128</v>
-      </c>
-      <c r="AK39" s="13" t="n">
-        <v>590</v>
-      </c>
-      <c r="AL39" s="13" t="n">
-        <v>76</v>
-      </c>
-      <c r="AM39" s="13" t="n">
-        <v>39</v>
-      </c>
-      <c r="AN39" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AO39" s="13" t="n">
         <v>119</v>
       </c>
       <c r="AP39" s="13" t="n">
-        <v>119</v>
+        <v>7</v>
       </c>
       <c r="AQ39" s="13" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AR39" s="13" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="AS39" s="13" t="n">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="AT39" s="13" t="n">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="AU39" s="13" t="n">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="AV39" s="13" t="n">
-        <v>18</v>
+        <v>430</v>
       </c>
       <c r="AW39" s="13" t="n">
-        <v>430</v>
+        <v>38</v>
       </c>
       <c r="AX39" s="13" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AY39" s="13" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AZ39" s="13" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BA39" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB39" s="13" t="n">
         <v>10</v>
-      </c>
-      <c r="BB39" s="13" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7368,89 +7368,89 @@
       <c r="Z40" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA40" s="16" t="s">
-        <v>58</v>
+      <c r="AA40" s="16" t="n">
+        <v>76</v>
       </c>
       <c r="AB40" s="16" t="n">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="AC40" s="16" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AD40" s="16" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AE40" s="16" t="n">
+        <v>94</v>
+      </c>
+      <c r="AF40" s="16" t="n">
+        <v>59</v>
+      </c>
+      <c r="AG40" s="16" t="n">
+        <v>104</v>
+      </c>
+      <c r="AH40" s="16" t="n">
+        <v>53</v>
+      </c>
+      <c r="AI40" s="16" t="n">
         <v>34</v>
       </c>
-      <c r="AF40" s="16" t="n">
-        <v>94</v>
-      </c>
-      <c r="AG40" s="16" t="n">
-        <v>59</v>
-      </c>
-      <c r="AH40" s="16" t="n">
-        <v>104</v>
-      </c>
-      <c r="AI40" s="16" t="n">
-        <v>53</v>
-      </c>
       <c r="AJ40" s="16" t="n">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="AK40" s="16" t="n">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AL40" s="16" t="n">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="AM40" s="16" t="n">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="AN40" s="16" t="n">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="AO40" s="16" t="n">
         <v>126</v>
       </c>
       <c r="AP40" s="16" t="n">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="AQ40" s="16" t="n">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="AR40" s="16" t="n">
-        <v>143</v>
+        <v>72</v>
       </c>
       <c r="AS40" s="16" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AT40" s="16" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="AU40" s="16" t="n">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="AV40" s="16" t="n">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="AW40" s="16" t="n">
-        <v>118</v>
+        <v>319</v>
       </c>
       <c r="AX40" s="16" t="n">
-        <v>319</v>
+        <v>262</v>
       </c>
       <c r="AY40" s="16" t="n">
-        <v>262</v>
+        <v>138</v>
       </c>
       <c r="AZ40" s="16" t="n">
-        <v>138</v>
+        <v>207</v>
       </c>
       <c r="BA40" s="16" t="n">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="BB40" s="16" t="n">
-        <v>201</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7527,89 +7527,89 @@
       <c r="Z41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA41" s="13" t="s">
-        <v>58</v>
+      <c r="AA41" s="13" t="n">
+        <v>4583</v>
       </c>
       <c r="AB41" s="13" t="n">
-        <v>4583</v>
+        <v>6039</v>
       </c>
       <c r="AC41" s="13" t="n">
-        <v>6039</v>
+        <v>7333</v>
       </c>
       <c r="AD41" s="13" t="n">
-        <v>7333</v>
+        <v>9209</v>
       </c>
       <c r="AE41" s="13" t="n">
-        <v>9209</v>
+        <v>4504</v>
       </c>
       <c r="AF41" s="13" t="n">
-        <v>4504</v>
+        <v>5452</v>
       </c>
       <c r="AG41" s="13" t="n">
-        <v>5452</v>
+        <v>5674</v>
       </c>
       <c r="AH41" s="13" t="n">
-        <v>5674</v>
+        <v>5052</v>
       </c>
       <c r="AI41" s="13" t="n">
-        <v>5052</v>
+        <v>6215</v>
       </c>
       <c r="AJ41" s="13" t="n">
-        <v>6215</v>
+        <v>5661</v>
       </c>
       <c r="AK41" s="13" t="n">
-        <v>5661</v>
+        <v>5396</v>
       </c>
       <c r="AL41" s="13" t="n">
-        <v>5396</v>
+        <v>8097</v>
       </c>
       <c r="AM41" s="13" t="n">
-        <v>8097</v>
+        <v>4636</v>
       </c>
       <c r="AN41" s="13" t="n">
-        <v>4636</v>
+        <v>5678</v>
       </c>
       <c r="AO41" s="13" t="n">
         <v>5678</v>
       </c>
       <c r="AP41" s="13" t="n">
-        <v>5678</v>
+        <v>4126</v>
       </c>
       <c r="AQ41" s="13" t="n">
-        <v>4126</v>
+        <v>5874</v>
       </c>
       <c r="AR41" s="13" t="n">
-        <v>5874</v>
+        <v>11586</v>
       </c>
       <c r="AS41" s="13" t="n">
-        <v>11586</v>
+        <v>3695</v>
       </c>
       <c r="AT41" s="13" t="n">
-        <v>3695</v>
+        <v>7498</v>
       </c>
       <c r="AU41" s="13" t="n">
-        <v>7498</v>
+        <v>5631</v>
       </c>
       <c r="AV41" s="13" t="n">
-        <v>5631</v>
+        <v>7783</v>
       </c>
       <c r="AW41" s="13" t="n">
-        <v>7783</v>
+        <v>7649</v>
       </c>
       <c r="AX41" s="13" t="n">
-        <v>7649</v>
+        <v>11569</v>
       </c>
       <c r="AY41" s="13" t="n">
-        <v>11569</v>
+        <v>4202</v>
       </c>
       <c r="AZ41" s="13" t="n">
-        <v>4202</v>
+        <v>4471</v>
       </c>
       <c r="BA41" s="13" t="n">
-        <v>4471</v>
+        <v>6159</v>
       </c>
       <c r="BB41" s="13" t="n">
-        <v>6159</v>
+        <v>7587</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7686,89 +7686,89 @@
       <c r="Z42" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA42" s="16" t="s">
-        <v>58</v>
+      <c r="AA42" s="16" t="n">
+        <v>5422</v>
       </c>
       <c r="AB42" s="16" t="n">
-        <v>5422</v>
+        <v>5089</v>
       </c>
       <c r="AC42" s="16" t="n">
-        <v>5089</v>
+        <v>4699</v>
       </c>
       <c r="AD42" s="16" t="n">
-        <v>4699</v>
+        <v>4734</v>
       </c>
       <c r="AE42" s="16" t="n">
-        <v>4734</v>
+        <v>5849</v>
       </c>
       <c r="AF42" s="16" t="n">
-        <v>5849</v>
+        <v>6095</v>
       </c>
       <c r="AG42" s="16" t="n">
-        <v>6095</v>
+        <v>5933</v>
       </c>
       <c r="AH42" s="16" t="n">
-        <v>5933</v>
+        <v>6295</v>
       </c>
       <c r="AI42" s="16" t="n">
-        <v>6295</v>
+        <v>6928</v>
       </c>
       <c r="AJ42" s="16" t="n">
-        <v>6928</v>
+        <v>6374</v>
       </c>
       <c r="AK42" s="16" t="n">
-        <v>6374</v>
+        <v>6697</v>
       </c>
       <c r="AL42" s="16" t="n">
-        <v>6697</v>
+        <v>6458</v>
       </c>
       <c r="AM42" s="16" t="n">
-        <v>6458</v>
+        <v>6204</v>
       </c>
       <c r="AN42" s="16" t="n">
-        <v>6204</v>
+        <v>5822</v>
       </c>
       <c r="AO42" s="16" t="n">
         <v>5822</v>
       </c>
       <c r="AP42" s="16" t="n">
-        <v>5822</v>
+        <v>5109</v>
       </c>
       <c r="AQ42" s="16" t="n">
-        <v>5109</v>
+        <v>4303</v>
       </c>
       <c r="AR42" s="16" t="n">
-        <v>4303</v>
+        <v>4737</v>
       </c>
       <c r="AS42" s="16" t="n">
-        <v>4737</v>
+        <v>4389</v>
       </c>
       <c r="AT42" s="16" t="n">
-        <v>4389</v>
+        <v>4768</v>
       </c>
       <c r="AU42" s="16" t="n">
-        <v>4768</v>
+        <v>5274</v>
       </c>
       <c r="AV42" s="16" t="n">
-        <v>5274</v>
+        <v>4918</v>
       </c>
       <c r="AW42" s="16" t="n">
-        <v>4918</v>
+        <v>5125</v>
       </c>
       <c r="AX42" s="16" t="n">
-        <v>5125</v>
+        <v>4959</v>
       </c>
       <c r="AY42" s="16" t="n">
-        <v>4959</v>
+        <v>4551</v>
       </c>
       <c r="AZ42" s="16" t="n">
-        <v>4551</v>
+        <v>5270</v>
       </c>
       <c r="BA42" s="16" t="n">
-        <v>5270</v>
+        <v>5933</v>
       </c>
       <c r="BB42" s="16" t="n">
-        <v>5933</v>
+        <v>6068</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7845,89 +7845,89 @@
       <c r="Z43" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA43" s="13" t="s">
-        <v>58</v>
+      <c r="AA43" s="13" t="n">
+        <v>946</v>
       </c>
       <c r="AB43" s="13" t="n">
-        <v>946</v>
+        <v>1549</v>
       </c>
       <c r="AC43" s="13" t="n">
-        <v>1549</v>
+        <v>1213</v>
       </c>
       <c r="AD43" s="13" t="n">
-        <v>1213</v>
+        <v>1325</v>
       </c>
       <c r="AE43" s="13" t="n">
-        <v>1325</v>
+        <v>1577</v>
       </c>
       <c r="AF43" s="13" t="n">
-        <v>1577</v>
+        <v>1758</v>
       </c>
       <c r="AG43" s="13" t="n">
-        <v>1758</v>
+        <v>1087</v>
       </c>
       <c r="AH43" s="13" t="n">
-        <v>1087</v>
+        <v>2379</v>
       </c>
       <c r="AI43" s="13" t="n">
-        <v>2379</v>
+        <v>1791</v>
       </c>
       <c r="AJ43" s="13" t="n">
-        <v>1791</v>
+        <v>1511</v>
       </c>
       <c r="AK43" s="13" t="n">
-        <v>1511</v>
+        <v>1695</v>
       </c>
       <c r="AL43" s="13" t="n">
-        <v>1695</v>
+        <v>1406</v>
       </c>
       <c r="AM43" s="13" t="n">
-        <v>1406</v>
+        <v>1105</v>
       </c>
       <c r="AN43" s="13" t="n">
-        <v>1105</v>
+        <v>1434</v>
       </c>
       <c r="AO43" s="13" t="n">
         <v>1434</v>
       </c>
       <c r="AP43" s="13" t="n">
-        <v>1434</v>
+        <v>2084</v>
       </c>
       <c r="AQ43" s="13" t="n">
-        <v>2084</v>
+        <v>1683</v>
       </c>
       <c r="AR43" s="13" t="n">
-        <v>1683</v>
+        <v>1092</v>
       </c>
       <c r="AS43" s="13" t="n">
-        <v>1092</v>
+        <v>241</v>
       </c>
       <c r="AT43" s="13" t="n">
-        <v>241</v>
+        <v>1156</v>
       </c>
       <c r="AU43" s="13" t="n">
-        <v>1156</v>
+        <v>750</v>
       </c>
       <c r="AV43" s="13" t="n">
-        <v>750</v>
+        <v>943</v>
       </c>
       <c r="AW43" s="13" t="n">
-        <v>943</v>
+        <v>1227</v>
       </c>
       <c r="AX43" s="13" t="n">
-        <v>1227</v>
+        <v>1000</v>
       </c>
       <c r="AY43" s="13" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AZ43" s="13" t="n">
-        <v>500</v>
+        <v>213</v>
       </c>
       <c r="BA43" s="13" t="n">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="BB43" s="13" t="n">
-        <v>180</v>
+        <v>678</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8004,35 +8004,35 @@
       <c r="Z44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA44" s="16" t="s">
-        <v>58</v>
+      <c r="AA44" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AB44" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AC44" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44" s="16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE44" s="16" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF44" s="16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG44" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG44" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AH44" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI44" s="16" t="s">
-        <v>58</v>
+      <c r="AI44" s="16" t="n">
+        <v>198</v>
       </c>
       <c r="AJ44" s="16" t="n">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="AK44" s="16" t="n">
         <v>0</v>
@@ -8041,19 +8041,19 @@
         <v>0</v>
       </c>
       <c r="AM44" s="16" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AN44" s="16" t="n">
-        <v>71</v>
+        <v>230</v>
       </c>
       <c r="AO44" s="16" t="n">
         <v>230</v>
       </c>
       <c r="AP44" s="16" t="n">
-        <v>230</v>
+        <v>28</v>
       </c>
       <c r="AQ44" s="16" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="16" t="n">
         <v>0</v>
@@ -8062,31 +8062,31 @@
         <v>0</v>
       </c>
       <c r="AT44" s="16" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AU44" s="16" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AV44" s="16" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AW44" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX44" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY44" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ44" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA44" s="16" t="n">
+        <v>89</v>
+      </c>
+      <c r="BB44" s="16" t="n">
         <v>5</v>
-      </c>
-      <c r="AX44" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY44" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ44" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA44" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB44" s="16" t="n">
-        <v>89</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8202,8 +8202,8 @@
       <c r="AM45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN45" s="13" t="s">
-        <v>58</v>
+      <c r="AN45" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO45" s="13" t="n">
         <v>0</v>
@@ -8235,8 +8235,8 @@
       <c r="AX45" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AY45" s="13" t="n">
-        <v>0</v>
+      <c r="AY45" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ45" s="13" t="s">
         <v>58</v>
@@ -8361,8 +8361,8 @@
       <c r="AM46" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AN46" s="16" t="s">
-        <v>58</v>
+      <c r="AN46" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AO46" s="16" t="n">
         <v>0</v>
@@ -8394,8 +8394,8 @@
       <c r="AX46" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY46" s="16" t="n">
-        <v>0</v>
+      <c r="AY46" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AZ46" s="16" t="s">
         <v>58</v>
@@ -8481,89 +8481,89 @@
       <c r="Z47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA47" s="13" t="s">
-        <v>58</v>
+      <c r="AA47" s="13" t="n">
+        <v>292</v>
       </c>
       <c r="AB47" s="13" t="n">
-        <v>292</v>
+        <v>0</v>
       </c>
       <c r="AC47" s="13" t="n">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="AD47" s="13" t="n">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="AE47" s="13" t="n">
-        <v>138</v>
+        <v>239</v>
       </c>
       <c r="AF47" s="13" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG47" s="13" t="n">
-        <v>240</v>
+        <v>353</v>
       </c>
       <c r="AH47" s="13" t="n">
-        <v>353</v>
+        <v>627</v>
       </c>
       <c r="AI47" s="13" t="n">
-        <v>627</v>
+        <v>469</v>
       </c>
       <c r="AJ47" s="13" t="n">
-        <v>469</v>
+        <v>77</v>
       </c>
       <c r="AK47" s="13" t="n">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="AL47" s="13" t="n">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="AM47" s="13" t="n">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="AN47" s="13" t="n">
-        <v>316</v>
+        <v>84</v>
       </c>
       <c r="AO47" s="13" t="n">
         <v>84</v>
       </c>
       <c r="AP47" s="13" t="n">
-        <v>84</v>
+        <v>232</v>
       </c>
       <c r="AQ47" s="13" t="n">
-        <v>232</v>
+        <v>299</v>
       </c>
       <c r="AR47" s="13" t="n">
-        <v>299</v>
+        <v>156</v>
       </c>
       <c r="AS47" s="13" t="n">
-        <v>156</v>
+        <v>520</v>
       </c>
       <c r="AT47" s="13" t="n">
-        <v>520</v>
+        <v>157</v>
       </c>
       <c r="AU47" s="13" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AV47" s="13" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="AW47" s="13" t="n">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="AX47" s="13" t="n">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="AY47" s="13" t="n">
-        <v>75</v>
+        <v>352</v>
       </c>
       <c r="AZ47" s="13" t="n">
-        <v>352</v>
+        <v>496</v>
       </c>
       <c r="BA47" s="13" t="n">
-        <v>496</v>
+        <v>52</v>
       </c>
       <c r="BB47" s="13" t="n">
-        <v>52</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8679,8 +8679,8 @@
       <c r="AM48" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AN48" s="16" t="s">
-        <v>58</v>
+      <c r="AN48" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AO48" s="16" t="n">
         <v>0</v>
@@ -8712,8 +8712,8 @@
       <c r="AX48" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY48" s="16" t="n">
-        <v>0</v>
+      <c r="AY48" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AZ48" s="16" t="s">
         <v>58</v>
@@ -8838,8 +8838,8 @@
       <c r="AM49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN49" s="13" t="s">
-        <v>58</v>
+      <c r="AN49" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AO49" s="13" t="n">
         <v>0</v>
@@ -8871,8 +8871,8 @@
       <c r="AX49" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AY49" s="13" t="n">
-        <v>0</v>
+      <c r="AY49" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ49" s="13" t="s">
         <v>58</v>
@@ -8997,8 +8997,8 @@
       <c r="AM50" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AN50" s="16" t="s">
-        <v>58</v>
+      <c r="AN50" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AO50" s="16" t="n">
         <v>0</v>
@@ -9030,8 +9030,8 @@
       <c r="AX50" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY50" s="16" t="n">
-        <v>0</v>
+      <c r="AY50" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AZ50" s="16" t="s">
         <v>58</v>
@@ -9116,88 +9116,88 @@
         <v>0</v>
       </c>
       <c r="AA51" s="18" t="n">
-        <v>0</v>
+        <v>11319</v>
       </c>
       <c r="AB51" s="18" t="n">
-        <v>11319</v>
+        <v>14412</v>
       </c>
       <c r="AC51" s="18" t="n">
-        <v>14412</v>
+        <v>13621</v>
       </c>
       <c r="AD51" s="18" t="n">
-        <v>13621</v>
+        <v>15713</v>
       </c>
       <c r="AE51" s="18" t="n">
-        <v>15713</v>
+        <v>13456</v>
       </c>
       <c r="AF51" s="18" t="n">
-        <v>13456</v>
+        <v>13604</v>
       </c>
       <c r="AG51" s="18" t="n">
-        <v>13604</v>
+        <v>13270</v>
       </c>
       <c r="AH51" s="18" t="n">
-        <v>13270</v>
+        <v>14414</v>
       </c>
       <c r="AI51" s="18" t="n">
-        <v>14414</v>
+        <v>15763</v>
       </c>
       <c r="AJ51" s="18" t="n">
-        <v>15763</v>
+        <v>14286</v>
       </c>
       <c r="AK51" s="18" t="n">
-        <v>14286</v>
+        <v>14270</v>
       </c>
       <c r="AL51" s="18" t="n">
-        <v>14270</v>
+        <v>16393</v>
       </c>
       <c r="AM51" s="18" t="n">
-        <v>16393</v>
+        <v>12470</v>
       </c>
       <c r="AN51" s="18" t="n">
-        <v>12470</v>
+        <v>13493</v>
       </c>
       <c r="AO51" s="18" t="n">
         <v>13493</v>
       </c>
       <c r="AP51" s="18" t="n">
-        <v>13493</v>
+        <v>11611</v>
       </c>
       <c r="AQ51" s="18" t="n">
-        <v>11611</v>
+        <v>12322</v>
       </c>
       <c r="AR51" s="18" t="n">
-        <v>12322</v>
+        <v>17658</v>
       </c>
       <c r="AS51" s="18" t="n">
-        <v>17658</v>
+        <v>9066</v>
       </c>
       <c r="AT51" s="18" t="n">
-        <v>9066</v>
+        <v>13921</v>
       </c>
       <c r="AU51" s="18" t="n">
-        <v>13921</v>
+        <v>11734</v>
       </c>
       <c r="AV51" s="18" t="n">
-        <v>11734</v>
+        <v>14260</v>
       </c>
       <c r="AW51" s="18" t="n">
-        <v>14260</v>
+        <v>14492</v>
       </c>
       <c r="AX51" s="18" t="n">
-        <v>14492</v>
+        <v>17934</v>
       </c>
       <c r="AY51" s="18" t="n">
-        <v>17934</v>
+        <v>9758</v>
       </c>
       <c r="AZ51" s="18" t="n">
-        <v>9758</v>
+        <v>10722</v>
       </c>
       <c r="BA51" s="18" t="n">
-        <v>10722</v>
+        <v>12688</v>
       </c>
       <c r="BB51" s="18" t="n">
-        <v>12688</v>
+        <v>14660</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9543,8 +9543,8 @@
       <c r="Z55" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AA55" s="18" t="s">
-        <v>58</v>
+      <c r="AA55" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="AB55" s="18" t="n">
         <v>0</v>
@@ -9588,8 +9588,8 @@
       <c r="AO55" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="AP55" s="18" t="n">
-        <v>0</v>
+      <c r="AP55" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="AQ55" s="18" t="s">
         <v>58</v>
@@ -9798,14 +9798,14 @@
       <c r="AM57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN57" s="13" t="s">
-        <v>58</v>
+      <c r="AN57" s="13" t="n">
+        <v>1</v>
       </c>
       <c r="AO57" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="AP57" s="13" t="n">
-        <v>1</v>
+      <c r="AP57" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ57" s="13" t="s">
         <v>58</v>
@@ -9921,50 +9921,50 @@
       <c r="AA58" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AB58" s="16" t="s">
-        <v>58</v>
+      <c r="AB58" s="16" t="n">
+        <v>-1</v>
       </c>
       <c r="AC58" s="16" t="n">
+        <v>-2</v>
+      </c>
+      <c r="AD58" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="16" t="n">
         <v>-1</v>
-      </c>
-      <c r="AD58" s="16" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AE58" s="16" t="n">
-        <v>0</v>
       </c>
       <c r="AF58" s="16" t="n">
         <v>-1</v>
       </c>
-      <c r="AG58" s="16" t="n">
+      <c r="AG58" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH58" s="16" t="n">
+        <v>-41</v>
+      </c>
+      <c r="AI58" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ58" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK58" s="16" t="n">
+        <v>-4</v>
+      </c>
+      <c r="AL58" s="16" t="n">
         <v>-1</v>
       </c>
-      <c r="AH58" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI58" s="16" t="n">
-        <v>-41</v>
-      </c>
-      <c r="AJ58" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK58" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL58" s="16" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AM58" s="16" t="n">
+      <c r="AM58" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN58" s="16" t="n">
         <v>-1</v>
-      </c>
-      <c r="AN58" s="16" t="s">
-        <v>58</v>
       </c>
       <c r="AO58" s="16" t="n">
         <v>-1</v>
       </c>
-      <c r="AP58" s="16" t="n">
-        <v>-1</v>
+      <c r="AP58" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ58" s="16" t="s">
         <v>58</v>
@@ -10080,50 +10080,50 @@
       <c r="AA59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB59" s="13" t="s">
-        <v>58</v>
+      <c r="AB59" s="13" t="n">
+        <v>-16</v>
       </c>
       <c r="AC59" s="13" t="n">
-        <v>-16</v>
+        <v>-3370</v>
       </c>
       <c r="AD59" s="13" t="n">
-        <v>-3370</v>
+        <v>0</v>
       </c>
       <c r="AE59" s="13" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AF59" s="13" t="n">
         <v>-2</v>
       </c>
-      <c r="AG59" s="13" t="n">
+      <c r="AG59" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH59" s="13" t="n">
+        <v>-80</v>
+      </c>
+      <c r="AI59" s="13" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AJ59" s="13" t="n">
+        <v>-10</v>
+      </c>
+      <c r="AK59" s="13" t="n">
+        <v>-29</v>
+      </c>
+      <c r="AL59" s="13" t="n">
+        <v>-28</v>
+      </c>
+      <c r="AM59" s="13" t="n">
         <v>-2</v>
       </c>
-      <c r="AH59" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI59" s="13" t="n">
-        <v>-80</v>
-      </c>
-      <c r="AJ59" s="13" t="n">
-        <v>-100</v>
-      </c>
-      <c r="AK59" s="13" t="n">
-        <v>-10</v>
-      </c>
-      <c r="AL59" s="13" t="n">
-        <v>-29</v>
-      </c>
-      <c r="AM59" s="13" t="n">
-        <v>-28</v>
-      </c>
       <c r="AN59" s="13" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO59" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP59" s="13" t="n">
-        <v>0</v>
+      <c r="AP59" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ59" s="13" t="s">
         <v>58</v>
@@ -10234,53 +10234,53 @@
       <c r="Z60" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AA60" s="22" t="s">
-        <v>58</v>
+      <c r="AA60" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="AB60" s="22" t="n">
-        <v>0</v>
+        <v>-17</v>
       </c>
       <c r="AC60" s="22" t="n">
-        <v>-17</v>
+        <v>-3372</v>
       </c>
       <c r="AD60" s="22" t="n">
-        <v>-3372</v>
+        <v>0</v>
       </c>
       <c r="AE60" s="22" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AF60" s="22" t="n">
         <v>-3</v>
       </c>
       <c r="AG60" s="22" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AH60" s="22" t="n">
-        <v>0</v>
+        <v>-121</v>
       </c>
       <c r="AI60" s="22" t="n">
-        <v>-121</v>
+        <v>-100</v>
       </c>
       <c r="AJ60" s="22" t="n">
-        <v>-100</v>
+        <v>-10</v>
       </c>
       <c r="AK60" s="22" t="n">
-        <v>-10</v>
+        <v>-33</v>
       </c>
       <c r="AL60" s="22" t="n">
-        <v>-33</v>
+        <v>-29</v>
       </c>
       <c r="AM60" s="22" t="n">
-        <v>-29</v>
+        <v>-2</v>
       </c>
       <c r="AN60" s="22" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AO60" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="AP60" s="22" t="n">
-        <v>0</v>
+      <c r="AP60" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="AQ60" s="22" t="s">
         <v>58</v>
@@ -10392,88 +10392,88 @@
         <v>0</v>
       </c>
       <c r="AA61" s="18" t="n">
-        <v>0</v>
+        <v>11319</v>
       </c>
       <c r="AB61" s="18" t="n">
-        <v>11319</v>
+        <v>14395</v>
       </c>
       <c r="AC61" s="18" t="n">
-        <v>14395</v>
+        <v>10249</v>
       </c>
       <c r="AD61" s="18" t="n">
-        <v>10249</v>
+        <v>15713</v>
       </c>
       <c r="AE61" s="18" t="n">
-        <v>15713</v>
+        <v>13453</v>
       </c>
       <c r="AF61" s="18" t="n">
-        <v>13453</v>
+        <v>13601</v>
       </c>
       <c r="AG61" s="18" t="n">
-        <v>13601</v>
+        <v>13270</v>
       </c>
       <c r="AH61" s="18" t="n">
-        <v>13270</v>
+        <v>14293</v>
       </c>
       <c r="AI61" s="18" t="n">
-        <v>14293</v>
+        <v>15663</v>
       </c>
       <c r="AJ61" s="18" t="n">
-        <v>15663</v>
+        <v>14276</v>
       </c>
       <c r="AK61" s="18" t="n">
-        <v>14276</v>
+        <v>14237</v>
       </c>
       <c r="AL61" s="18" t="n">
-        <v>14237</v>
+        <v>16364</v>
       </c>
       <c r="AM61" s="18" t="n">
-        <v>16364</v>
+        <v>12468</v>
       </c>
       <c r="AN61" s="18" t="n">
-        <v>12468</v>
+        <v>13493</v>
       </c>
       <c r="AO61" s="18" t="n">
         <v>13493</v>
       </c>
       <c r="AP61" s="18" t="n">
-        <v>13493</v>
+        <v>11611</v>
       </c>
       <c r="AQ61" s="18" t="n">
-        <v>11611</v>
+        <v>12322</v>
       </c>
       <c r="AR61" s="18" t="n">
-        <v>12322</v>
+        <v>17658</v>
       </c>
       <c r="AS61" s="18" t="n">
-        <v>17658</v>
+        <v>9066</v>
       </c>
       <c r="AT61" s="18" t="n">
-        <v>9066</v>
+        <v>13921</v>
       </c>
       <c r="AU61" s="18" t="n">
-        <v>13921</v>
+        <v>11734</v>
       </c>
       <c r="AV61" s="18" t="n">
-        <v>11734</v>
+        <v>14260</v>
       </c>
       <c r="AW61" s="18" t="n">
-        <v>14260</v>
+        <v>14492</v>
       </c>
       <c r="AX61" s="18" t="n">
-        <v>14492</v>
+        <v>17934</v>
       </c>
       <c r="AY61" s="18" t="n">
-        <v>17934</v>
+        <v>9758</v>
       </c>
       <c r="AZ61" s="18" t="n">
-        <v>9758</v>
+        <v>10722</v>
       </c>
       <c r="BA61" s="18" t="n">
-        <v>10722</v>
+        <v>12688</v>
       </c>
       <c r="BB61" s="18" t="n">
-        <v>12688</v>
+        <v>14660</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11017,11 +11017,11 @@
       <c r="AK68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL68" s="13" t="s">
-        <v>58</v>
+      <c r="AL68" s="13" t="n">
+        <v>202204</v>
       </c>
       <c r="AM68" s="13" t="n">
-        <v>202204</v>
+        <v>0</v>
       </c>
       <c r="AN68" s="13" t="n">
         <v>0</v>
@@ -11033,40 +11033,40 @@
         <v>0</v>
       </c>
       <c r="AQ68" s="13" t="n">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="AR68" s="13" t="n">
-        <v>312</v>
+        <v>765</v>
       </c>
       <c r="AS68" s="13" t="n">
+        <v>442</v>
+      </c>
+      <c r="AT68" s="13" t="n">
+        <v>24409</v>
+      </c>
+      <c r="AU68" s="13" t="n">
         <v>765</v>
       </c>
-      <c r="AT68" s="13" t="n">
-        <v>442</v>
-      </c>
-      <c r="AU68" s="13" t="n">
-        <v>24409</v>
-      </c>
       <c r="AV68" s="13" t="n">
-        <v>765</v>
+        <v>693</v>
       </c>
       <c r="AW68" s="13" t="n">
-        <v>693</v>
+        <v>601</v>
       </c>
       <c r="AX68" s="13" t="n">
-        <v>601</v>
+        <v>3594</v>
       </c>
       <c r="AY68" s="13" t="n">
-        <v>3594</v>
+        <v>0</v>
       </c>
       <c r="AZ68" s="13" t="n">
-        <v>0</v>
+        <v>20085</v>
       </c>
       <c r="BA68" s="13" t="n">
-        <v>20085</v>
+        <v>26497</v>
       </c>
       <c r="BB68" s="13" t="n">
-        <v>26165</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11146,20 +11146,20 @@
       <c r="AA69" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AB69" s="16" t="s">
-        <v>58</v>
+      <c r="AB69" s="16" t="n">
+        <v>2623</v>
       </c>
       <c r="AC69" s="16" t="n">
-        <v>2623</v>
+        <v>413</v>
       </c>
       <c r="AD69" s="16" t="n">
-        <v>413</v>
+        <v>1305</v>
       </c>
       <c r="AE69" s="16" t="n">
-        <v>1305</v>
+        <v>6862</v>
       </c>
       <c r="AF69" s="16" t="n">
-        <v>6862</v>
+        <v>0</v>
       </c>
       <c r="AG69" s="16" t="n">
         <v>0</v>
@@ -11179,8 +11179,8 @@
       <c r="AL69" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AM69" s="16" t="n">
-        <v>0</v>
+      <c r="AM69" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AN69" s="16" t="s">
         <v>58</v>
@@ -11302,89 +11302,89 @@
       <c r="Z70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA70" s="13" t="s">
-        <v>58</v>
+      <c r="AA70" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AB70" s="13" t="n">
-        <v>0</v>
+        <v>15289</v>
       </c>
       <c r="AC70" s="13" t="n">
-        <v>15289</v>
+        <v>526</v>
       </c>
       <c r="AD70" s="13" t="n">
-        <v>526</v>
+        <v>23786</v>
       </c>
       <c r="AE70" s="13" t="n">
-        <v>23786</v>
+        <v>17</v>
       </c>
       <c r="AF70" s="13" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AG70" s="13" t="n">
-        <v>0</v>
+        <v>5518</v>
       </c>
       <c r="AH70" s="13" t="n">
-        <v>5518</v>
+        <v>390</v>
       </c>
       <c r="AI70" s="13" t="n">
-        <v>390</v>
+        <v>33338</v>
       </c>
       <c r="AJ70" s="13" t="n">
-        <v>33338</v>
+        <v>40127</v>
       </c>
       <c r="AK70" s="13" t="n">
-        <v>40127</v>
+        <v>68589</v>
       </c>
       <c r="AL70" s="13" t="n">
-        <v>68589</v>
+        <v>52971</v>
       </c>
       <c r="AM70" s="13" t="n">
-        <v>52971</v>
+        <v>0</v>
       </c>
       <c r="AN70" s="13" t="n">
-        <v>0</v>
+        <v>70141</v>
       </c>
       <c r="AO70" s="13" t="n">
         <v>70141</v>
       </c>
       <c r="AP70" s="13" t="n">
-        <v>70141</v>
+        <v>15755</v>
       </c>
       <c r="AQ70" s="13" t="n">
-        <v>15755</v>
+        <v>36363</v>
       </c>
       <c r="AR70" s="13" t="n">
-        <v>36363</v>
+        <v>12665</v>
       </c>
       <c r="AS70" s="13" t="n">
-        <v>12665</v>
+        <v>41713</v>
       </c>
       <c r="AT70" s="13" t="n">
-        <v>41713</v>
+        <v>11465</v>
       </c>
       <c r="AU70" s="13" t="n">
-        <v>11465</v>
+        <v>27928</v>
       </c>
       <c r="AV70" s="13" t="n">
-        <v>27928</v>
+        <v>35739</v>
       </c>
       <c r="AW70" s="13" t="n">
-        <v>35739</v>
+        <v>40929</v>
       </c>
       <c r="AX70" s="13" t="n">
-        <v>40929</v>
+        <v>23516</v>
       </c>
       <c r="AY70" s="13" t="n">
-        <v>23516</v>
+        <v>45507</v>
       </c>
       <c r="AZ70" s="13" t="n">
-        <v>45507</v>
+        <v>33460</v>
       </c>
       <c r="BA70" s="13" t="n">
-        <v>33460</v>
+        <v>5396</v>
       </c>
       <c r="BB70" s="13" t="n">
-        <v>5396</v>
+        <v>39956</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11461,89 +11461,89 @@
       <c r="Z71" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA71" s="16" t="s">
-        <v>58</v>
+      <c r="AA71" s="16" t="n">
+        <v>4641</v>
       </c>
       <c r="AB71" s="16" t="n">
-        <v>4641</v>
+        <v>5695</v>
       </c>
       <c r="AC71" s="16" t="n">
-        <v>5695</v>
+        <v>6436</v>
       </c>
       <c r="AD71" s="16" t="n">
-        <v>6436</v>
+        <v>2033</v>
       </c>
       <c r="AE71" s="16" t="n">
-        <v>2033</v>
+        <v>5828</v>
       </c>
       <c r="AF71" s="16" t="n">
-        <v>5828</v>
+        <v>3588</v>
       </c>
       <c r="AG71" s="16" t="n">
-        <v>3588</v>
+        <v>6161</v>
       </c>
       <c r="AH71" s="16" t="n">
-        <v>6161</v>
+        <v>3187</v>
       </c>
       <c r="AI71" s="16" t="n">
-        <v>3187</v>
+        <v>2148</v>
       </c>
       <c r="AJ71" s="16" t="n">
-        <v>2148</v>
+        <v>4480</v>
       </c>
       <c r="AK71" s="16" t="n">
-        <v>4480</v>
+        <v>9474</v>
       </c>
       <c r="AL71" s="16" t="n">
-        <v>9474</v>
+        <v>6352</v>
       </c>
       <c r="AM71" s="16" t="n">
-        <v>6352</v>
+        <v>9214</v>
       </c>
       <c r="AN71" s="16" t="n">
-        <v>9214</v>
+        <v>10939</v>
       </c>
       <c r="AO71" s="16" t="n">
         <v>10939</v>
       </c>
       <c r="AP71" s="16" t="n">
-        <v>10939</v>
+        <v>2451</v>
       </c>
       <c r="AQ71" s="16" t="n">
-        <v>2451</v>
+        <v>13980</v>
       </c>
       <c r="AR71" s="16" t="n">
-        <v>13980</v>
+        <v>11774</v>
       </c>
       <c r="AS71" s="16" t="n">
-        <v>11774</v>
+        <v>10660</v>
       </c>
       <c r="AT71" s="16" t="n">
-        <v>10660</v>
+        <v>9227</v>
       </c>
       <c r="AU71" s="16" t="n">
-        <v>9227</v>
+        <v>5752</v>
       </c>
       <c r="AV71" s="16" t="n">
-        <v>5752</v>
+        <v>17765</v>
       </c>
       <c r="AW71" s="16" t="n">
-        <v>17765</v>
+        <v>48705</v>
       </c>
       <c r="AX71" s="16" t="n">
-        <v>48705</v>
+        <v>40981</v>
       </c>
       <c r="AY71" s="16" t="n">
-        <v>40981</v>
+        <v>21273</v>
       </c>
       <c r="AZ71" s="16" t="n">
-        <v>21273</v>
+        <v>34742</v>
       </c>
       <c r="BA71" s="16" t="n">
-        <v>34742</v>
+        <v>34595</v>
       </c>
       <c r="BB71" s="16" t="n">
-        <v>34595</v>
+        <v>14590</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11620,89 +11620,89 @@
       <c r="Z72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA72" s="13" t="s">
-        <v>58</v>
+      <c r="AA72" s="13" t="n">
+        <v>10916</v>
       </c>
       <c r="AB72" s="13" t="n">
-        <v>10916</v>
+        <v>20075</v>
       </c>
       <c r="AC72" s="13" t="n">
-        <v>20075</v>
+        <v>39049</v>
       </c>
       <c r="AD72" s="13" t="n">
-        <v>39049</v>
+        <v>48529</v>
       </c>
       <c r="AE72" s="13" t="n">
-        <v>48529</v>
+        <v>14368</v>
       </c>
       <c r="AF72" s="13" t="n">
-        <v>14368</v>
+        <v>22143</v>
       </c>
       <c r="AG72" s="13" t="n">
-        <v>22143</v>
+        <v>23716</v>
       </c>
       <c r="AH72" s="13" t="n">
-        <v>23716</v>
+        <v>19191</v>
       </c>
       <c r="AI72" s="13" t="n">
-        <v>19191</v>
+        <v>27200</v>
       </c>
       <c r="AJ72" s="13" t="n">
-        <v>27200</v>
+        <v>26365</v>
       </c>
       <c r="AK72" s="13" t="n">
-        <v>26365</v>
+        <v>25246</v>
       </c>
       <c r="AL72" s="13" t="n">
-        <v>25246</v>
+        <v>37888</v>
       </c>
       <c r="AM72" s="13" t="n">
-        <v>37888</v>
+        <v>23369</v>
       </c>
       <c r="AN72" s="13" t="n">
-        <v>23369</v>
+        <v>24602</v>
       </c>
       <c r="AO72" s="13" t="n">
         <v>24602</v>
       </c>
       <c r="AP72" s="13" t="n">
-        <v>24602</v>
+        <v>14049</v>
       </c>
       <c r="AQ72" s="13" t="n">
-        <v>14049</v>
+        <v>22041</v>
       </c>
       <c r="AR72" s="13" t="n">
-        <v>22041</v>
+        <v>66451</v>
       </c>
       <c r="AS72" s="13" t="n">
-        <v>66451</v>
+        <v>15361</v>
       </c>
       <c r="AT72" s="13" t="n">
-        <v>15361</v>
+        <v>45289</v>
       </c>
       <c r="AU72" s="13" t="n">
-        <v>45289</v>
+        <v>27761</v>
       </c>
       <c r="AV72" s="13" t="n">
-        <v>27761</v>
+        <v>44998</v>
       </c>
       <c r="AW72" s="13" t="n">
-        <v>44998</v>
+        <v>43345</v>
       </c>
       <c r="AX72" s="13" t="n">
-        <v>43345</v>
+        <v>79602</v>
       </c>
       <c r="AY72" s="13" t="n">
-        <v>79602</v>
+        <v>22400</v>
       </c>
       <c r="AZ72" s="13" t="n">
-        <v>22400</v>
+        <v>22553</v>
       </c>
       <c r="BA72" s="13" t="n">
-        <v>22553</v>
+        <v>43840</v>
       </c>
       <c r="BB72" s="13" t="n">
-        <v>43840</v>
+        <v>43933</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11779,89 +11779,89 @@
       <c r="Z73" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA73" s="16" t="s">
-        <v>58</v>
+      <c r="AA73" s="16" t="n">
+        <v>805480</v>
       </c>
       <c r="AB73" s="16" t="n">
-        <v>805480</v>
+        <v>789675</v>
       </c>
       <c r="AC73" s="16" t="n">
-        <v>789675</v>
+        <v>723495</v>
       </c>
       <c r="AD73" s="16" t="n">
-        <v>723495</v>
+        <v>615606</v>
       </c>
       <c r="AE73" s="16" t="n">
-        <v>615606</v>
+        <v>703849</v>
       </c>
       <c r="AF73" s="16" t="n">
-        <v>703849</v>
+        <v>899754</v>
       </c>
       <c r="AG73" s="16" t="n">
-        <v>899754</v>
+        <v>973523</v>
       </c>
       <c r="AH73" s="16" t="n">
-        <v>973523</v>
+        <v>1134605</v>
       </c>
       <c r="AI73" s="16" t="n">
-        <v>1134605</v>
+        <v>1376566</v>
       </c>
       <c r="AJ73" s="16" t="n">
-        <v>1376566</v>
+        <v>1434485</v>
       </c>
       <c r="AK73" s="16" t="n">
-        <v>1434485</v>
+        <v>1445782</v>
       </c>
       <c r="AL73" s="16" t="n">
-        <v>1445782</v>
+        <v>1272054</v>
       </c>
       <c r="AM73" s="16" t="n">
-        <v>1272054</v>
+        <v>1250935</v>
       </c>
       <c r="AN73" s="16" t="n">
-        <v>1250935</v>
+        <v>1180027</v>
       </c>
       <c r="AO73" s="16" t="n">
         <v>1180027</v>
       </c>
       <c r="AP73" s="16" t="n">
-        <v>1180027</v>
+        <v>1031621</v>
       </c>
       <c r="AQ73" s="16" t="n">
-        <v>1031621</v>
+        <v>1004586</v>
       </c>
       <c r="AR73" s="16" t="n">
-        <v>1004586</v>
+        <v>1462938</v>
       </c>
       <c r="AS73" s="16" t="n">
-        <v>1462938</v>
+        <v>1564939</v>
       </c>
       <c r="AT73" s="16" t="n">
-        <v>1564939</v>
+        <v>1722211</v>
       </c>
       <c r="AU73" s="16" t="n">
-        <v>1722211</v>
+        <v>1927498</v>
       </c>
       <c r="AV73" s="16" t="n">
-        <v>1927498</v>
+        <v>1926767</v>
       </c>
       <c r="AW73" s="16" t="n">
-        <v>1926767</v>
+        <v>2020241</v>
       </c>
       <c r="AX73" s="16" t="n">
-        <v>2020241</v>
+        <v>2035508</v>
       </c>
       <c r="AY73" s="16" t="n">
-        <v>2035508</v>
+        <v>1928217</v>
       </c>
       <c r="AZ73" s="16" t="n">
-        <v>1928217</v>
+        <v>2148434</v>
       </c>
       <c r="BA73" s="16" t="n">
-        <v>2148434</v>
+        <v>2410243</v>
       </c>
       <c r="BB73" s="16" t="n">
-        <v>2410243</v>
+        <v>2307595</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11938,89 +11938,89 @@
       <c r="Z74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA74" s="13" t="s">
-        <v>58</v>
+      <c r="AA74" s="13" t="n">
+        <v>36616</v>
       </c>
       <c r="AB74" s="13" t="n">
-        <v>36616</v>
+        <v>64672</v>
       </c>
       <c r="AC74" s="13" t="n">
-        <v>64672</v>
+        <v>47625</v>
       </c>
       <c r="AD74" s="13" t="n">
-        <v>47625</v>
+        <v>70891</v>
       </c>
       <c r="AE74" s="13" t="n">
-        <v>70891</v>
+        <v>100962</v>
       </c>
       <c r="AF74" s="13" t="n">
-        <v>100962</v>
+        <v>106499</v>
       </c>
       <c r="AG74" s="13" t="n">
-        <v>106499</v>
+        <v>63343</v>
       </c>
       <c r="AH74" s="13" t="n">
-        <v>63343</v>
+        <v>155271</v>
       </c>
       <c r="AI74" s="13" t="n">
-        <v>155271</v>
+        <v>135826</v>
       </c>
       <c r="AJ74" s="13" t="n">
-        <v>135826</v>
+        <v>102755</v>
       </c>
       <c r="AK74" s="13" t="n">
-        <v>102755</v>
+        <v>123826</v>
       </c>
       <c r="AL74" s="13" t="n">
-        <v>123826</v>
+        <v>94962</v>
       </c>
       <c r="AM74" s="13" t="n">
-        <v>94962</v>
+        <v>71986</v>
       </c>
       <c r="AN74" s="13" t="n">
-        <v>71986</v>
+        <v>51561</v>
       </c>
       <c r="AO74" s="13" t="n">
         <v>51561</v>
       </c>
       <c r="AP74" s="13" t="n">
-        <v>51561</v>
+        <v>140965</v>
       </c>
       <c r="AQ74" s="13" t="n">
-        <v>140965</v>
+        <v>132712</v>
       </c>
       <c r="AR74" s="13" t="n">
-        <v>132712</v>
+        <v>24541</v>
       </c>
       <c r="AS74" s="13" t="n">
-        <v>24541</v>
+        <v>10498</v>
       </c>
       <c r="AT74" s="13" t="n">
-        <v>10498</v>
+        <v>28394</v>
       </c>
       <c r="AU74" s="13" t="n">
-        <v>28394</v>
+        <v>75331</v>
       </c>
       <c r="AV74" s="13" t="n">
-        <v>75331</v>
+        <v>115670</v>
       </c>
       <c r="AW74" s="13" t="n">
-        <v>115670</v>
+        <v>130196</v>
       </c>
       <c r="AX74" s="13" t="n">
-        <v>130196</v>
+        <v>51222</v>
       </c>
       <c r="AY74" s="13" t="n">
-        <v>51222</v>
+        <v>15599</v>
       </c>
       <c r="AZ74" s="13" t="n">
-        <v>15599</v>
+        <v>11187</v>
       </c>
       <c r="BA74" s="13" t="n">
-        <v>11187</v>
+        <v>29157</v>
       </c>
       <c r="BB74" s="13" t="n">
-        <v>29157</v>
+        <v>125373</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12097,23 +12097,23 @@
       <c r="Z75" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA75" s="16" t="s">
-        <v>58</v>
+      <c r="AA75" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AB75" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AC75" s="16" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AD75" s="16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AE75" s="16" t="n">
-        <v>0</v>
+        <v>11115</v>
       </c>
       <c r="AF75" s="16" t="n">
-        <v>11115</v>
+        <v>0</v>
       </c>
       <c r="AG75" s="16" t="n">
         <v>0</v>
@@ -12122,10 +12122,10 @@
         <v>0</v>
       </c>
       <c r="AI75" s="16" t="n">
-        <v>0</v>
+        <v>107988</v>
       </c>
       <c r="AJ75" s="16" t="n">
-        <v>107988</v>
+        <v>0</v>
       </c>
       <c r="AK75" s="16" t="n">
         <v>0</v>
@@ -12134,37 +12134,37 @@
         <v>0</v>
       </c>
       <c r="AM75" s="16" t="n">
-        <v>0</v>
+        <v>42310</v>
       </c>
       <c r="AN75" s="16" t="n">
-        <v>42310</v>
+        <v>146970</v>
       </c>
       <c r="AO75" s="16" t="n">
         <v>146970</v>
       </c>
       <c r="AP75" s="16" t="n">
-        <v>146970</v>
+        <v>21243</v>
       </c>
       <c r="AQ75" s="16" t="n">
-        <v>21243</v>
+        <v>6</v>
       </c>
       <c r="AR75" s="16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AS75" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AT75" s="16" t="n">
-        <v>0</v>
+        <v>26100</v>
       </c>
       <c r="AU75" s="16" t="n">
-        <v>26100</v>
+        <v>14550</v>
       </c>
       <c r="AV75" s="16" t="n">
-        <v>14550</v>
+        <v>6000</v>
       </c>
       <c r="AW75" s="16" t="n">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="AX75" s="16" t="n">
         <v>0</v>
@@ -12176,10 +12176,10 @@
         <v>0</v>
       </c>
       <c r="BA75" s="16" t="n">
-        <v>0</v>
+        <v>99380</v>
       </c>
       <c r="BB75" s="16" t="n">
-        <v>99380</v>
+        <v>6552</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12292,8 +12292,8 @@
       <c r="AL76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM76" s="13" t="s">
-        <v>58</v>
+      <c r="AM76" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AN76" s="13" t="n">
         <v>0</v>
@@ -12328,8 +12328,8 @@
       <c r="AX76" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AY76" s="13" t="n">
-        <v>0</v>
+      <c r="AY76" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ76" s="13" t="s">
         <v>58</v>
@@ -12451,8 +12451,8 @@
       <c r="AL77" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM77" s="16" t="s">
-        <v>58</v>
+      <c r="AM77" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AN77" s="16" t="n">
         <v>0</v>
@@ -12487,8 +12487,8 @@
       <c r="AX77" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY77" s="16" t="n">
-        <v>0</v>
+      <c r="AY77" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AZ77" s="16" t="s">
         <v>58</v>
@@ -12574,89 +12574,89 @@
       <c r="Z78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA78" s="13" t="s">
-        <v>58</v>
+      <c r="AA78" s="13" t="n">
+        <v>21871</v>
       </c>
       <c r="AB78" s="13" t="n">
-        <v>21871</v>
+        <v>0</v>
       </c>
       <c r="AC78" s="13" t="n">
-        <v>0</v>
+        <v>18649</v>
       </c>
       <c r="AD78" s="13" t="n">
-        <v>18649</v>
+        <v>16575</v>
       </c>
       <c r="AE78" s="13" t="n">
-        <v>16575</v>
+        <v>28660</v>
       </c>
       <c r="AF78" s="13" t="n">
-        <v>28660</v>
+        <v>28880</v>
       </c>
       <c r="AG78" s="13" t="n">
-        <v>28880</v>
+        <v>42262</v>
       </c>
       <c r="AH78" s="13" t="n">
-        <v>42262</v>
+        <v>75148</v>
       </c>
       <c r="AI78" s="13" t="n">
-        <v>75148</v>
+        <v>57154</v>
       </c>
       <c r="AJ78" s="13" t="n">
-        <v>57154</v>
+        <v>10307</v>
       </c>
       <c r="AK78" s="13" t="n">
-        <v>10307</v>
+        <v>34900</v>
       </c>
       <c r="AL78" s="13" t="n">
-        <v>34900</v>
+        <v>40415</v>
       </c>
       <c r="AM78" s="13" t="n">
-        <v>40415</v>
+        <v>44271</v>
       </c>
       <c r="AN78" s="13" t="n">
-        <v>44271</v>
+        <v>11648</v>
       </c>
       <c r="AO78" s="13" t="n">
         <v>11648</v>
       </c>
       <c r="AP78" s="13" t="n">
-        <v>11648</v>
+        <v>32452</v>
       </c>
       <c r="AQ78" s="13" t="n">
-        <v>32452</v>
+        <v>13341</v>
       </c>
       <c r="AR78" s="13" t="n">
-        <v>13341</v>
+        <v>27424</v>
       </c>
       <c r="AS78" s="13" t="n">
-        <v>27424</v>
+        <v>91757</v>
       </c>
       <c r="AT78" s="13" t="n">
-        <v>91757</v>
+        <v>27602</v>
       </c>
       <c r="AU78" s="13" t="n">
-        <v>27602</v>
+        <v>0</v>
       </c>
       <c r="AV78" s="13" t="n">
-        <v>0</v>
+        <v>12964</v>
       </c>
       <c r="AW78" s="13" t="n">
-        <v>12964</v>
+        <v>31132</v>
       </c>
       <c r="AX78" s="13" t="n">
-        <v>31132</v>
+        <v>17429</v>
       </c>
       <c r="AY78" s="13" t="n">
-        <v>17429</v>
+        <v>65844</v>
       </c>
       <c r="AZ78" s="13" t="n">
-        <v>65844</v>
+        <v>74644</v>
       </c>
       <c r="BA78" s="13" t="n">
-        <v>74644</v>
+        <v>7597</v>
       </c>
       <c r="BB78" s="13" t="n">
-        <v>7597</v>
+        <v>30591</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12769,8 +12769,8 @@
       <c r="AL79" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM79" s="16" t="s">
-        <v>58</v>
+      <c r="AM79" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AN79" s="16" t="n">
         <v>0</v>
@@ -12805,8 +12805,8 @@
       <c r="AX79" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY79" s="16" t="n">
-        <v>0</v>
+      <c r="AY79" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AZ79" s="16" t="s">
         <v>58</v>
@@ -12928,8 +12928,8 @@
       <c r="AL80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM80" s="13" t="s">
-        <v>58</v>
+      <c r="AM80" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AN80" s="13" t="n">
         <v>0</v>
@@ -12964,8 +12964,8 @@
       <c r="AX80" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AY80" s="13" t="n">
-        <v>0</v>
+      <c r="AY80" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ80" s="13" t="s">
         <v>58</v>
@@ -13087,8 +13087,8 @@
       <c r="AL81" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM81" s="16" t="s">
-        <v>58</v>
+      <c r="AM81" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AN81" s="16" t="n">
         <v>0</v>
@@ -13123,8 +13123,8 @@
       <c r="AX81" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AY81" s="16" t="n">
-        <v>0</v>
+      <c r="AY81" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AZ81" s="16" t="s">
         <v>58</v>
@@ -13209,88 +13209,88 @@
         <v>0</v>
       </c>
       <c r="AA82" s="18" t="n">
-        <v>0</v>
+        <v>879524</v>
       </c>
       <c r="AB82" s="18" t="n">
-        <v>879524</v>
+        <v>898029</v>
       </c>
       <c r="AC82" s="18" t="n">
-        <v>898029</v>
+        <v>836205</v>
       </c>
       <c r="AD82" s="18" t="n">
-        <v>836205</v>
+        <v>778725</v>
       </c>
       <c r="AE82" s="18" t="n">
-        <v>778725</v>
+        <v>871661</v>
       </c>
       <c r="AF82" s="18" t="n">
-        <v>871661</v>
+        <v>1060864</v>
       </c>
       <c r="AG82" s="18" t="n">
-        <v>1060864</v>
+        <v>1114523</v>
       </c>
       <c r="AH82" s="18" t="n">
-        <v>1114523</v>
+        <v>1387792</v>
       </c>
       <c r="AI82" s="18" t="n">
-        <v>1387792</v>
+        <v>1740220</v>
       </c>
       <c r="AJ82" s="18" t="n">
-        <v>1740220</v>
+        <v>1618519</v>
       </c>
       <c r="AK82" s="18" t="n">
-        <v>1618519</v>
+        <v>1707817</v>
       </c>
       <c r="AL82" s="18" t="n">
-        <v>1707817</v>
+        <v>1706846</v>
       </c>
       <c r="AM82" s="18" t="n">
-        <v>1706846</v>
+        <v>1442085</v>
       </c>
       <c r="AN82" s="18" t="n">
-        <v>1442085</v>
+        <v>1495888</v>
       </c>
       <c r="AO82" s="18" t="n">
         <v>1495888</v>
       </c>
       <c r="AP82" s="18" t="n">
-        <v>1495888</v>
+        <v>1258536</v>
       </c>
       <c r="AQ82" s="18" t="n">
-        <v>1258536</v>
+        <v>1223341</v>
       </c>
       <c r="AR82" s="18" t="n">
-        <v>1223341</v>
+        <v>1606558</v>
       </c>
       <c r="AS82" s="18" t="n">
-        <v>1606558</v>
+        <v>1735370</v>
       </c>
       <c r="AT82" s="18" t="n">
-        <v>1735370</v>
+        <v>1894697</v>
       </c>
       <c r="AU82" s="18" t="n">
-        <v>1894697</v>
+        <v>2079585</v>
       </c>
       <c r="AV82" s="18" t="n">
-        <v>2079585</v>
+        <v>2160596</v>
       </c>
       <c r="AW82" s="18" t="n">
-        <v>2160596</v>
+        <v>2315149</v>
       </c>
       <c r="AX82" s="18" t="n">
-        <v>2315149</v>
+        <v>2251852</v>
       </c>
       <c r="AY82" s="18" t="n">
-        <v>2251852</v>
+        <v>2098840</v>
       </c>
       <c r="AZ82" s="18" t="n">
-        <v>2098840</v>
+        <v>2345105</v>
       </c>
       <c r="BA82" s="18" t="n">
-        <v>2345105</v>
+        <v>2656705</v>
       </c>
       <c r="BB82" s="18" t="n">
-        <v>2656373</v>
+        <v>2573243</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13683,8 +13683,8 @@
       <c r="AO86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP86" s="13" t="s">
-        <v>58</v>
+      <c r="AP86" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ86" s="13" t="n">
         <v>0</v>
@@ -13708,16 +13708,16 @@
         <v>0</v>
       </c>
       <c r="AX86" s="13" t="n">
-        <v>0</v>
+        <v>20211983</v>
       </c>
       <c r="AY86" s="13" t="n">
-        <v>20211983</v>
+        <v>0</v>
       </c>
       <c r="AZ86" s="13" t="n">
         <v>0</v>
       </c>
       <c r="BA86" s="13" t="n">
-        <v>0</v>
+        <v>6870003</v>
       </c>
       <c r="BB86" s="13" t="n">
         <v>0</v>
@@ -13842,8 +13842,8 @@
       <c r="AO87" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP87" s="16" t="s">
-        <v>58</v>
+      <c r="AP87" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ87" s="16" t="n">
         <v>0</v>
@@ -13867,16 +13867,16 @@
         <v>0</v>
       </c>
       <c r="AX87" s="16" t="n">
-        <v>0</v>
+        <v>-20164306</v>
       </c>
       <c r="AY87" s="16" t="n">
-        <v>-20164306</v>
+        <v>0</v>
       </c>
       <c r="AZ87" s="16" t="n">
         <v>0</v>
       </c>
       <c r="BA87" s="16" t="n">
-        <v>0</v>
+        <v>-6916931</v>
       </c>
       <c r="BB87" s="16" t="n">
         <v>0</v>
@@ -14001,8 +14001,8 @@
       <c r="AO88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP88" s="13" t="s">
-        <v>58</v>
+      <c r="AP88" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ88" s="13" t="n">
         <v>0</v>
@@ -14172,8 +14172,8 @@
       <c r="Z90" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AA90" s="18" t="s">
-        <v>58</v>
+      <c r="AA90" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="AB90" s="23" t="n">
         <v>0</v>
@@ -14217,8 +14217,8 @@
       <c r="AO90" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="AP90" s="23" t="n">
-        <v>0</v>
+      <c r="AP90" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="AQ90" s="18" t="s">
         <v>58</v>
@@ -14427,14 +14427,14 @@
       <c r="AM92" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN92" s="13" t="s">
-        <v>58</v>
+      <c r="AN92" s="13" t="n">
+        <v>2048</v>
       </c>
       <c r="AO92" s="13" t="n">
         <v>2048</v>
       </c>
-      <c r="AP92" s="13" t="n">
-        <v>2048</v>
+      <c r="AP92" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ92" s="13" t="s">
         <v>58</v>
@@ -14550,50 +14550,50 @@
       <c r="AA93" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AB93" s="16" t="s">
-        <v>58</v>
+      <c r="AB93" s="16" t="n">
+        <v>-90</v>
       </c>
       <c r="AC93" s="16" t="n">
-        <v>-90</v>
+        <v>-205</v>
       </c>
       <c r="AD93" s="16" t="n">
-        <v>-205</v>
+        <v>0</v>
       </c>
       <c r="AE93" s="16" t="n">
-        <v>0</v>
+        <v>-113</v>
       </c>
       <c r="AF93" s="16" t="n">
-        <v>-113</v>
+        <v>-11</v>
       </c>
       <c r="AG93" s="16" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="AH93" s="16" t="n">
-        <v>0</v>
+        <v>-407</v>
       </c>
       <c r="AI93" s="16" t="n">
-        <v>-407</v>
+        <v>-5</v>
       </c>
       <c r="AJ93" s="16" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AK93" s="16" t="n">
-        <v>0</v>
+        <v>-144</v>
       </c>
       <c r="AL93" s="16" t="n">
-        <v>-144</v>
-      </c>
-      <c r="AM93" s="16" t="n">
         <v>-12</v>
       </c>
-      <c r="AN93" s="16" t="s">
-        <v>58</v>
+      <c r="AM93" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN93" s="16" t="n">
+        <v>-432</v>
       </c>
       <c r="AO93" s="16" t="n">
         <v>-432</v>
       </c>
-      <c r="AP93" s="16" t="n">
-        <v>-432</v>
+      <c r="AP93" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ93" s="16" t="s">
         <v>58</v>
@@ -14709,50 +14709,50 @@
       <c r="AA94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB94" s="13" t="s">
-        <v>58</v>
+      <c r="AB94" s="13" t="n">
+        <v>-889</v>
       </c>
       <c r="AC94" s="13" t="n">
-        <v>-889</v>
+        <v>-780</v>
       </c>
       <c r="AD94" s="13" t="n">
-        <v>-780</v>
+        <v>0</v>
       </c>
       <c r="AE94" s="13" t="n">
-        <v>0</v>
+        <v>-146</v>
       </c>
       <c r="AF94" s="13" t="n">
-        <v>-146</v>
+        <v>-289</v>
       </c>
       <c r="AG94" s="13" t="n">
-        <v>-289</v>
+        <v>0</v>
       </c>
       <c r="AH94" s="13" t="n">
-        <v>0</v>
+        <v>-967</v>
       </c>
       <c r="AI94" s="13" t="n">
-        <v>-967</v>
+        <v>-2670</v>
       </c>
       <c r="AJ94" s="13" t="n">
-        <v>-2670</v>
+        <v>-134</v>
       </c>
       <c r="AK94" s="13" t="n">
-        <v>-134</v>
+        <v>-417</v>
       </c>
       <c r="AL94" s="13" t="n">
-        <v>-417</v>
+        <v>-944</v>
       </c>
       <c r="AM94" s="13" t="n">
-        <v>-944</v>
+        <v>-331</v>
       </c>
       <c r="AN94" s="13" t="n">
-        <v>-331</v>
+        <v>-46</v>
       </c>
       <c r="AO94" s="13" t="n">
         <v>-46</v>
       </c>
-      <c r="AP94" s="13" t="n">
-        <v>-46</v>
+      <c r="AP94" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ94" s="13" t="s">
         <v>58</v>
@@ -14865,53 +14865,53 @@
       <c r="Z95" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AA95" s="22" t="s">
-        <v>58</v>
+      <c r="AA95" s="24" t="n">
+        <v>0</v>
       </c>
       <c r="AB95" s="24" t="n">
-        <v>0</v>
+        <v>-979</v>
       </c>
       <c r="AC95" s="24" t="n">
-        <v>-979</v>
+        <v>-985</v>
       </c>
       <c r="AD95" s="24" t="n">
-        <v>-985</v>
+        <v>0</v>
       </c>
       <c r="AE95" s="24" t="n">
-        <v>0</v>
+        <v>-259</v>
       </c>
       <c r="AF95" s="24" t="n">
-        <v>-259</v>
+        <v>-300</v>
       </c>
       <c r="AG95" s="24" t="n">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="AH95" s="24" t="n">
-        <v>0</v>
+        <v>-1374</v>
       </c>
       <c r="AI95" s="24" t="n">
-        <v>-1374</v>
+        <v>-2675</v>
       </c>
       <c r="AJ95" s="24" t="n">
-        <v>-2675</v>
+        <v>-134</v>
       </c>
       <c r="AK95" s="24" t="n">
-        <v>-134</v>
+        <v>-561</v>
       </c>
       <c r="AL95" s="24" t="n">
-        <v>-561</v>
+        <v>-956</v>
       </c>
       <c r="AM95" s="24" t="n">
-        <v>-956</v>
+        <v>-331</v>
       </c>
       <c r="AN95" s="24" t="n">
-        <v>-331</v>
+        <v>1570</v>
       </c>
       <c r="AO95" s="24" t="n">
         <v>1570</v>
       </c>
-      <c r="AP95" s="24" t="n">
-        <v>1570</v>
+      <c r="AP95" s="22" t="s">
+        <v>58</v>
       </c>
       <c r="AQ95" s="22" t="s">
         <v>58</v>
@@ -15081,53 +15081,53 @@
       <c r="Z97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA97" s="13" t="s">
-        <v>58</v>
+      <c r="AA97" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AB97" s="13" t="n">
-        <v>0</v>
+        <v>-67667</v>
       </c>
       <c r="AC97" s="13" t="n">
-        <v>-67667</v>
+        <v>-2136</v>
       </c>
       <c r="AD97" s="13" t="n">
-        <v>-2136</v>
+        <v>-1595</v>
       </c>
       <c r="AE97" s="13" t="n">
-        <v>-1595</v>
+        <v>-586</v>
       </c>
       <c r="AF97" s="13" t="n">
-        <v>-586</v>
+        <v>-774</v>
       </c>
       <c r="AG97" s="13" t="n">
-        <v>-774</v>
+        <v>-485</v>
       </c>
       <c r="AH97" s="13" t="n">
-        <v>-485</v>
+        <v>-517</v>
       </c>
       <c r="AI97" s="13" t="n">
-        <v>-517</v>
+        <v>-1526</v>
       </c>
       <c r="AJ97" s="13" t="n">
-        <v>-1526</v>
+        <v>-167</v>
       </c>
       <c r="AK97" s="13" t="n">
-        <v>-167</v>
+        <v>-495</v>
       </c>
       <c r="AL97" s="13" t="n">
-        <v>-495</v>
+        <v>-585</v>
       </c>
       <c r="AM97" s="13" t="n">
-        <v>-585</v>
+        <v>-555</v>
       </c>
       <c r="AN97" s="13" t="n">
-        <v>-555</v>
+        <v>-541</v>
       </c>
       <c r="AO97" s="13" t="n">
         <v>-541</v>
       </c>
-      <c r="AP97" s="13" t="n">
-        <v>-541</v>
+      <c r="AP97" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ97" s="13" t="s">
         <v>58</v>
@@ -15239,88 +15239,88 @@
         <v>0</v>
       </c>
       <c r="AA98" s="24" t="n">
-        <v>0</v>
+        <v>879524</v>
       </c>
       <c r="AB98" s="24" t="n">
-        <v>879524</v>
+        <v>829383</v>
       </c>
       <c r="AC98" s="24" t="n">
-        <v>829383</v>
+        <v>833084</v>
       </c>
       <c r="AD98" s="24" t="n">
-        <v>833084</v>
+        <v>777130</v>
       </c>
       <c r="AE98" s="24" t="n">
-        <v>777130</v>
+        <v>870816</v>
       </c>
       <c r="AF98" s="24" t="n">
-        <v>870816</v>
+        <v>1059790</v>
       </c>
       <c r="AG98" s="24" t="n">
-        <v>1059790</v>
+        <v>1114038</v>
       </c>
       <c r="AH98" s="24" t="n">
-        <v>1114038</v>
+        <v>1385901</v>
       </c>
       <c r="AI98" s="24" t="n">
-        <v>1385901</v>
+        <v>1736019</v>
       </c>
       <c r="AJ98" s="24" t="n">
-        <v>1736019</v>
+        <v>1618218</v>
       </c>
       <c r="AK98" s="24" t="n">
-        <v>1618218</v>
+        <v>1706761</v>
       </c>
       <c r="AL98" s="24" t="n">
-        <v>1706761</v>
+        <v>1705305</v>
       </c>
       <c r="AM98" s="24" t="n">
-        <v>1705305</v>
+        <v>1441199</v>
       </c>
       <c r="AN98" s="24" t="n">
-        <v>1441199</v>
+        <v>1496917</v>
       </c>
       <c r="AO98" s="24" t="n">
         <v>1496917</v>
       </c>
       <c r="AP98" s="24" t="n">
-        <v>1496917</v>
+        <v>1258536</v>
       </c>
       <c r="AQ98" s="24" t="n">
-        <v>1258536</v>
+        <v>1223341</v>
       </c>
       <c r="AR98" s="24" t="n">
-        <v>1223341</v>
+        <v>1606558</v>
       </c>
       <c r="AS98" s="24" t="n">
-        <v>1606558</v>
+        <v>1735370</v>
       </c>
       <c r="AT98" s="24" t="n">
-        <v>1735370</v>
+        <v>1894697</v>
       </c>
       <c r="AU98" s="24" t="n">
-        <v>1894697</v>
+        <v>2079585</v>
       </c>
       <c r="AV98" s="24" t="n">
-        <v>2079585</v>
+        <v>2160596</v>
       </c>
       <c r="AW98" s="24" t="n">
-        <v>2160596</v>
+        <v>2315149</v>
       </c>
       <c r="AX98" s="24" t="n">
-        <v>2315149</v>
+        <v>2299529</v>
       </c>
       <c r="AY98" s="24" t="n">
-        <v>2299529</v>
+        <v>2098840</v>
       </c>
       <c r="AZ98" s="24" t="n">
-        <v>2098840</v>
+        <v>2345105</v>
       </c>
       <c r="BA98" s="24" t="n">
-        <v>2345105</v>
+        <v>2609777</v>
       </c>
       <c r="BB98" s="24" t="n">
-        <v>2656373</v>
+        <v>2573243</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15879,41 +15879,41 @@
       <c r="AP105" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ105" s="13" t="s">
-        <v>58</v>
+      <c r="AQ105" s="13" t="n">
+        <v>78000000</v>
       </c>
       <c r="AR105" s="13" t="n">
-        <v>78000000</v>
+        <v>76500000</v>
       </c>
       <c r="AS105" s="13" t="n">
-        <v>76500000</v>
+        <v>73666667</v>
       </c>
       <c r="AT105" s="13" t="n">
-        <v>73666667</v>
+        <v>214114035</v>
       </c>
       <c r="AU105" s="13" t="n">
-        <v>214114035</v>
+        <v>85000000</v>
       </c>
       <c r="AV105" s="13" t="n">
-        <v>85000000</v>
+        <v>69300000</v>
       </c>
       <c r="AW105" s="13" t="n">
-        <v>69300000</v>
+        <v>75125000</v>
       </c>
       <c r="AX105" s="13" t="n">
-        <v>75125000</v>
-      </c>
-      <c r="AY105" s="13" t="n">
         <v>83581395</v>
       </c>
-      <c r="AZ105" s="13" t="s">
-        <v>58</v>
+      <c r="AY105" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ105" s="13" t="n">
+        <v>365181818</v>
       </c>
       <c r="BA105" s="13" t="n">
-        <v>365181818</v>
+        <v>368013889</v>
       </c>
       <c r="BB105" s="13" t="n">
-        <v>363402778</v>
+        <v>244894737</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15993,20 +15993,20 @@
       <c r="AA106" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AB106" s="16" t="s">
-        <v>58</v>
+      <c r="AB106" s="16" t="n">
+        <v>1614154</v>
       </c>
       <c r="AC106" s="16" t="n">
-        <v>1614154</v>
+        <v>3788991</v>
       </c>
       <c r="AD106" s="16" t="n">
-        <v>3788991</v>
+        <v>5348361</v>
       </c>
       <c r="AE106" s="16" t="n">
-        <v>5348361</v>
-      </c>
-      <c r="AF106" s="16" t="n">
         <v>5900258</v>
+      </c>
+      <c r="AF106" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AG106" s="16" t="s">
         <v>58</v>
@@ -16152,86 +16152,86 @@
       <c r="AA107" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB107" s="13" t="s">
-        <v>58</v>
+      <c r="AB107" s="13" t="n">
+        <v>1019266667</v>
       </c>
       <c r="AC107" s="13" t="n">
-        <v>1019266667</v>
+        <v>526000000</v>
       </c>
       <c r="AD107" s="13" t="n">
-        <v>526000000</v>
+        <v>820206897</v>
       </c>
       <c r="AE107" s="13" t="n">
-        <v>820206897</v>
-      </c>
-      <c r="AF107" s="13" t="n">
         <v>3400000</v>
       </c>
-      <c r="AG107" s="13" t="s">
-        <v>58</v>
+      <c r="AF107" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG107" s="13" t="n">
+        <v>46369748</v>
       </c>
       <c r="AH107" s="13" t="n">
-        <v>46369748</v>
+        <v>48750000</v>
       </c>
       <c r="AI107" s="13" t="n">
-        <v>48750000</v>
+        <v>260453125</v>
       </c>
       <c r="AJ107" s="13" t="n">
-        <v>260453125</v>
+        <v>68011864</v>
       </c>
       <c r="AK107" s="13" t="n">
-        <v>68011864</v>
+        <v>902486842</v>
       </c>
       <c r="AL107" s="13" t="n">
-        <v>902486842</v>
-      </c>
-      <c r="AM107" s="13" t="n">
         <v>1358230769</v>
       </c>
-      <c r="AN107" s="13" t="s">
-        <v>58</v>
+      <c r="AM107" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN107" s="13" t="n">
+        <v>589420168</v>
       </c>
       <c r="AO107" s="13" t="n">
         <v>589420168</v>
       </c>
       <c r="AP107" s="13" t="n">
-        <v>589420168</v>
+        <v>2250714286</v>
       </c>
       <c r="AQ107" s="13" t="n">
-        <v>2250714286</v>
+        <v>2272687500</v>
       </c>
       <c r="AR107" s="13" t="n">
-        <v>2272687500</v>
+        <v>2533000000</v>
       </c>
       <c r="AS107" s="13" t="n">
-        <v>2533000000</v>
+        <v>281844595</v>
       </c>
       <c r="AT107" s="13" t="n">
-        <v>281844595</v>
+        <v>81892857</v>
       </c>
       <c r="AU107" s="13" t="n">
-        <v>81892857</v>
+        <v>1551555556</v>
       </c>
       <c r="AV107" s="13" t="n">
-        <v>1551555556</v>
+        <v>83113953</v>
       </c>
       <c r="AW107" s="13" t="n">
-        <v>83113953</v>
+        <v>1077078947</v>
       </c>
       <c r="AX107" s="13" t="n">
-        <v>1077078947</v>
+        <v>904461538</v>
       </c>
       <c r="AY107" s="13" t="n">
-        <v>904461538</v>
+        <v>3033800000</v>
       </c>
       <c r="AZ107" s="13" t="n">
-        <v>3033800000</v>
+        <v>3346000000</v>
       </c>
       <c r="BA107" s="13" t="n">
-        <v>3346000000</v>
+        <v>2698000000</v>
       </c>
       <c r="BB107" s="13" t="n">
-        <v>2698000000</v>
+        <v>3995600000</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16308,89 +16308,89 @@
       <c r="Z108" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA108" s="16" t="s">
-        <v>58</v>
+      <c r="AA108" s="16" t="n">
+        <v>61065789</v>
       </c>
       <c r="AB108" s="16" t="n">
-        <v>61065789</v>
+        <v>59947368</v>
       </c>
       <c r="AC108" s="16" t="n">
-        <v>59947368</v>
+        <v>58509091</v>
       </c>
       <c r="AD108" s="16" t="n">
-        <v>58509091</v>
+        <v>59794118</v>
       </c>
       <c r="AE108" s="16" t="n">
-        <v>59794118</v>
+        <v>62000000</v>
       </c>
       <c r="AF108" s="16" t="n">
-        <v>62000000</v>
+        <v>60813559</v>
       </c>
       <c r="AG108" s="16" t="n">
-        <v>60813559</v>
+        <v>59240385</v>
       </c>
       <c r="AH108" s="16" t="n">
-        <v>59240385</v>
+        <v>60132075</v>
       </c>
       <c r="AI108" s="16" t="n">
-        <v>60132075</v>
+        <v>63176471</v>
       </c>
       <c r="AJ108" s="16" t="n">
-        <v>63176471</v>
+        <v>61369863</v>
       </c>
       <c r="AK108" s="16" t="n">
-        <v>61369863</v>
+        <v>60343949</v>
       </c>
       <c r="AL108" s="16" t="n">
-        <v>60343949</v>
+        <v>60495238</v>
       </c>
       <c r="AM108" s="16" t="n">
-        <v>60495238</v>
+        <v>66768116</v>
       </c>
       <c r="AN108" s="16" t="n">
-        <v>66768116</v>
+        <v>86817460</v>
       </c>
       <c r="AO108" s="16" t="n">
         <v>86817460</v>
       </c>
       <c r="AP108" s="16" t="n">
-        <v>86817460</v>
+        <v>98040000</v>
       </c>
       <c r="AQ108" s="16" t="n">
-        <v>98040000</v>
+        <v>97762238</v>
       </c>
       <c r="AR108" s="16" t="n">
-        <v>97762238</v>
+        <v>163527778</v>
       </c>
       <c r="AS108" s="16" t="n">
-        <v>163527778</v>
+        <v>159104478</v>
       </c>
       <c r="AT108" s="16" t="n">
-        <v>159104478</v>
+        <v>159086207</v>
       </c>
       <c r="AU108" s="16" t="n">
-        <v>159086207</v>
+        <v>155459459</v>
       </c>
       <c r="AV108" s="16" t="n">
-        <v>155459459</v>
+        <v>150550847</v>
       </c>
       <c r="AW108" s="16" t="n">
-        <v>150550847</v>
+        <v>152680251</v>
       </c>
       <c r="AX108" s="16" t="n">
-        <v>152680251</v>
+        <v>156416031</v>
       </c>
       <c r="AY108" s="16" t="n">
-        <v>156416031</v>
+        <v>154152174</v>
       </c>
       <c r="AZ108" s="16" t="n">
-        <v>154152174</v>
+        <v>167835749</v>
       </c>
       <c r="BA108" s="16" t="n">
-        <v>167835749</v>
+        <v>172114428</v>
       </c>
       <c r="BB108" s="16" t="n">
-        <v>172114428</v>
+        <v>173690476</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16467,89 +16467,89 @@
       <c r="Z109" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA109" s="13" t="s">
-        <v>58</v>
+      <c r="AA109" s="13" t="n">
+        <v>2381846</v>
       </c>
       <c r="AB109" s="13" t="n">
-        <v>2381846</v>
+        <v>3324226</v>
       </c>
       <c r="AC109" s="13" t="n">
-        <v>3324226</v>
+        <v>5325106</v>
       </c>
       <c r="AD109" s="13" t="n">
-        <v>5325106</v>
+        <v>5269736</v>
       </c>
       <c r="AE109" s="13" t="n">
-        <v>5269736</v>
+        <v>3190053</v>
       </c>
       <c r="AF109" s="13" t="n">
-        <v>3190053</v>
+        <v>4061445</v>
       </c>
       <c r="AG109" s="13" t="n">
-        <v>4061445</v>
+        <v>4179767</v>
       </c>
       <c r="AH109" s="13" t="n">
-        <v>4179767</v>
+        <v>3798694</v>
       </c>
       <c r="AI109" s="13" t="n">
-        <v>3798694</v>
+        <v>4376508</v>
       </c>
       <c r="AJ109" s="13" t="n">
-        <v>4376508</v>
+        <v>4657304</v>
       </c>
       <c r="AK109" s="13" t="n">
-        <v>4657304</v>
+        <v>4678651</v>
       </c>
       <c r="AL109" s="13" t="n">
-        <v>4678651</v>
+        <v>4679264</v>
       </c>
       <c r="AM109" s="13" t="n">
-        <v>4679264</v>
+        <v>5040768</v>
       </c>
       <c r="AN109" s="13" t="n">
-        <v>5040768</v>
+        <v>4332864</v>
       </c>
       <c r="AO109" s="13" t="n">
         <v>4332864</v>
       </c>
       <c r="AP109" s="13" t="n">
-        <v>4332864</v>
+        <v>3404993</v>
       </c>
       <c r="AQ109" s="13" t="n">
-        <v>3404993</v>
+        <v>3752298</v>
       </c>
       <c r="AR109" s="13" t="n">
-        <v>3752298</v>
+        <v>5735457</v>
       </c>
       <c r="AS109" s="13" t="n">
-        <v>5735457</v>
+        <v>4157240</v>
       </c>
       <c r="AT109" s="13" t="n">
-        <v>4157240</v>
+        <v>6040144</v>
       </c>
       <c r="AU109" s="13" t="n">
-        <v>6040144</v>
+        <v>4930030</v>
       </c>
       <c r="AV109" s="13" t="n">
-        <v>4930030</v>
+        <v>5781575</v>
       </c>
       <c r="AW109" s="13" t="n">
-        <v>5781575</v>
+        <v>5666754</v>
       </c>
       <c r="AX109" s="13" t="n">
-        <v>5666754</v>
+        <v>6880629</v>
       </c>
       <c r="AY109" s="13" t="n">
-        <v>6880629</v>
+        <v>5330795</v>
       </c>
       <c r="AZ109" s="13" t="n">
-        <v>5330795</v>
+        <v>5044285</v>
       </c>
       <c r="BA109" s="13" t="n">
-        <v>5044285</v>
+        <v>7118039</v>
       </c>
       <c r="BB109" s="13" t="n">
-        <v>7118039</v>
+        <v>5790563</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16626,89 +16626,89 @@
       <c r="Z110" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA110" s="16" t="s">
-        <v>58</v>
+      <c r="AA110" s="16" t="n">
+        <v>148557728</v>
       </c>
       <c r="AB110" s="16" t="n">
-        <v>148557728</v>
+        <v>155172922</v>
       </c>
       <c r="AC110" s="16" t="n">
-        <v>155172922</v>
+        <v>153967866</v>
       </c>
       <c r="AD110" s="16" t="n">
-        <v>153967866</v>
+        <v>130039290</v>
       </c>
       <c r="AE110" s="16" t="n">
-        <v>130039290</v>
+        <v>120336639</v>
       </c>
       <c r="AF110" s="16" t="n">
-        <v>120336639</v>
+        <v>147621657</v>
       </c>
       <c r="AG110" s="16" t="n">
-        <v>147621657</v>
+        <v>164086128</v>
       </c>
       <c r="AH110" s="16" t="n">
-        <v>164086128</v>
+        <v>180239079</v>
       </c>
       <c r="AI110" s="16" t="n">
-        <v>180239079</v>
+        <v>198696016</v>
       </c>
       <c r="AJ110" s="16" t="n">
-        <v>198696016</v>
+        <v>225052557</v>
       </c>
       <c r="AK110" s="16" t="n">
-        <v>225052557</v>
+        <v>215885023</v>
       </c>
       <c r="AL110" s="16" t="n">
-        <v>215885023</v>
+        <v>196973366</v>
       </c>
       <c r="AM110" s="16" t="n">
-        <v>196973366</v>
+        <v>201633623</v>
       </c>
       <c r="AN110" s="16" t="n">
-        <v>201633623</v>
+        <v>202684129</v>
       </c>
       <c r="AO110" s="16" t="n">
         <v>202684129</v>
       </c>
       <c r="AP110" s="16" t="n">
-        <v>202684129</v>
+        <v>201922294</v>
       </c>
       <c r="AQ110" s="16" t="n">
-        <v>201922294</v>
+        <v>233461771</v>
       </c>
       <c r="AR110" s="16" t="n">
-        <v>233461771</v>
+        <v>308832172</v>
       </c>
       <c r="AS110" s="16" t="n">
-        <v>308832172</v>
+        <v>356559353</v>
       </c>
       <c r="AT110" s="16" t="n">
-        <v>356559353</v>
+        <v>361201971</v>
       </c>
       <c r="AU110" s="16" t="n">
-        <v>361201971</v>
+        <v>365471748</v>
       </c>
       <c r="AV110" s="16" t="n">
-        <v>365471748</v>
+        <v>391778569</v>
       </c>
       <c r="AW110" s="16" t="n">
-        <v>391778569</v>
+        <v>394193366</v>
       </c>
       <c r="AX110" s="16" t="n">
-        <v>394193366</v>
+        <v>410467433</v>
       </c>
       <c r="AY110" s="16" t="n">
-        <v>410467433</v>
+        <v>423690837</v>
       </c>
       <c r="AZ110" s="16" t="n">
-        <v>423690837</v>
+        <v>407672486</v>
       </c>
       <c r="BA110" s="16" t="n">
-        <v>407672486</v>
+        <v>406243553</v>
       </c>
       <c r="BB110" s="16" t="n">
-        <v>406243553</v>
+        <v>380289222</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16785,89 +16785,89 @@
       <c r="Z111" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA111" s="13" t="s">
-        <v>58</v>
+      <c r="AA111" s="13" t="n">
+        <v>38706131</v>
       </c>
       <c r="AB111" s="13" t="n">
-        <v>38706131</v>
+        <v>41750807</v>
       </c>
       <c r="AC111" s="13" t="n">
-        <v>41750807</v>
+        <v>39262160</v>
       </c>
       <c r="AD111" s="13" t="n">
-        <v>39262160</v>
+        <v>53502642</v>
       </c>
       <c r="AE111" s="13" t="n">
-        <v>53502642</v>
+        <v>64021560</v>
       </c>
       <c r="AF111" s="13" t="n">
-        <v>64021560</v>
+        <v>60579636</v>
       </c>
       <c r="AG111" s="13" t="n">
-        <v>60579636</v>
+        <v>58273229</v>
       </c>
       <c r="AH111" s="13" t="n">
-        <v>58273229</v>
+        <v>65267339</v>
       </c>
       <c r="AI111" s="13" t="n">
-        <v>65267339</v>
+        <v>75838079</v>
       </c>
       <c r="AJ111" s="13" t="n">
-        <v>75838079</v>
+        <v>68004633</v>
       </c>
       <c r="AK111" s="13" t="n">
-        <v>68004633</v>
+        <v>73053687</v>
       </c>
       <c r="AL111" s="13" t="n">
-        <v>73053687</v>
+        <v>67540541</v>
       </c>
       <c r="AM111" s="13" t="n">
-        <v>67540541</v>
+        <v>65145701</v>
       </c>
       <c r="AN111" s="13" t="n">
-        <v>65145701</v>
+        <v>35956067</v>
       </c>
       <c r="AO111" s="13" t="n">
         <v>35956067</v>
       </c>
       <c r="AP111" s="13" t="n">
-        <v>35956067</v>
+        <v>67641555</v>
       </c>
       <c r="AQ111" s="13" t="n">
-        <v>67641555</v>
+        <v>78854427</v>
       </c>
       <c r="AR111" s="13" t="n">
-        <v>78854427</v>
+        <v>22473443</v>
       </c>
       <c r="AS111" s="13" t="n">
-        <v>22473443</v>
+        <v>43560166</v>
       </c>
       <c r="AT111" s="13" t="n">
-        <v>43560166</v>
+        <v>24562284</v>
       </c>
       <c r="AU111" s="13" t="n">
-        <v>24562284</v>
+        <v>100441333</v>
       </c>
       <c r="AV111" s="13" t="n">
-        <v>100441333</v>
+        <v>122661718</v>
       </c>
       <c r="AW111" s="13" t="n">
-        <v>122661718</v>
+        <v>106109209</v>
       </c>
       <c r="AX111" s="13" t="n">
-        <v>106109209</v>
+        <v>51222000</v>
       </c>
       <c r="AY111" s="13" t="n">
-        <v>51222000</v>
+        <v>31198000</v>
       </c>
       <c r="AZ111" s="13" t="n">
-        <v>31198000</v>
+        <v>52521127</v>
       </c>
       <c r="BA111" s="13" t="n">
-        <v>52521127</v>
+        <v>161983333</v>
       </c>
       <c r="BB111" s="13" t="n">
-        <v>161983333</v>
+        <v>184915929</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16950,69 +16950,69 @@
       <c r="AB112" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AC112" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD112" s="16" t="n">
+      <c r="AC112" s="16" t="n">
         <v>12000000</v>
       </c>
-      <c r="AE112" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF112" s="16" t="n">
+      <c r="AD112" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE112" s="16" t="n">
         <v>444600000</v>
       </c>
+      <c r="AF112" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AG112" s="16" t="s">
         <v>58</v>
       </c>
       <c r="AH112" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI112" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ112" s="16" t="n">
+      <c r="AI112" s="16" t="n">
         <v>545393939</v>
       </c>
+      <c r="AJ112" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AK112" s="16" t="s">
         <v>58</v>
       </c>
       <c r="AL112" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM112" s="16" t="s">
-        <v>58</v>
+      <c r="AM112" s="16" t="n">
+        <v>595915493</v>
       </c>
       <c r="AN112" s="16" t="n">
-        <v>595915493</v>
+        <v>639000000</v>
       </c>
       <c r="AO112" s="16" t="n">
         <v>639000000</v>
       </c>
       <c r="AP112" s="16" t="n">
-        <v>639000000</v>
-      </c>
-      <c r="AQ112" s="16" t="n">
         <v>758678571</v>
       </c>
+      <c r="AQ112" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AR112" s="16" t="s">
         <v>58</v>
       </c>
       <c r="AS112" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AT112" s="16" t="s">
-        <v>58</v>
+      <c r="AT112" s="16" t="n">
+        <v>870000000</v>
       </c>
       <c r="AU112" s="16" t="n">
-        <v>870000000</v>
+        <v>970000000</v>
       </c>
       <c r="AV112" s="16" t="n">
-        <v>970000000</v>
-      </c>
-      <c r="AW112" s="16" t="n">
         <v>1200000000</v>
       </c>
+      <c r="AW112" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AX112" s="16" t="s">
         <v>58</v>
       </c>
@@ -17022,11 +17022,11 @@
       <c r="AZ112" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="BA112" s="16" t="s">
-        <v>58</v>
+      <c r="BA112" s="16" t="n">
+        <v>1116629213</v>
       </c>
       <c r="BB112" s="16" t="n">
-        <v>1116629213</v>
+        <v>1310400000</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17103,89 +17103,89 @@
       <c r="Z113" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA113" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB113" s="13" t="n">
+      <c r="AA113" s="13" t="n">
         <v>74900685</v>
       </c>
-      <c r="AC113" s="13" t="s">
-        <v>58</v>
+      <c r="AB113" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC113" s="13" t="n">
+        <v>120316129</v>
       </c>
       <c r="AD113" s="13" t="n">
-        <v>120316129</v>
+        <v>120108696</v>
       </c>
       <c r="AE113" s="13" t="n">
-        <v>120108696</v>
+        <v>119916318</v>
       </c>
       <c r="AF113" s="13" t="n">
-        <v>119916318</v>
+        <v>120333333</v>
       </c>
       <c r="AG113" s="13" t="n">
-        <v>120333333</v>
+        <v>119722380</v>
       </c>
       <c r="AH113" s="13" t="n">
-        <v>119722380</v>
+        <v>119853270</v>
       </c>
       <c r="AI113" s="13" t="n">
-        <v>119853270</v>
+        <v>121863539</v>
       </c>
       <c r="AJ113" s="13" t="n">
-        <v>121863539</v>
+        <v>133857143</v>
       </c>
       <c r="AK113" s="13" t="n">
-        <v>133857143</v>
+        <v>140160643</v>
       </c>
       <c r="AL113" s="13" t="n">
-        <v>140160643</v>
+        <v>140329861</v>
       </c>
       <c r="AM113" s="13" t="n">
-        <v>140329861</v>
+        <v>140098101</v>
       </c>
       <c r="AN113" s="13" t="n">
-        <v>140098101</v>
+        <v>138666667</v>
       </c>
       <c r="AO113" s="13" t="n">
         <v>138666667</v>
       </c>
       <c r="AP113" s="13" t="n">
-        <v>138666667</v>
+        <v>139879310</v>
       </c>
       <c r="AQ113" s="13" t="n">
-        <v>139879310</v>
+        <v>44618729</v>
       </c>
       <c r="AR113" s="13" t="n">
-        <v>44618729</v>
+        <v>175794872</v>
       </c>
       <c r="AS113" s="13" t="n">
-        <v>175794872</v>
+        <v>176455769</v>
       </c>
       <c r="AT113" s="13" t="n">
-        <v>176455769</v>
-      </c>
-      <c r="AU113" s="13" t="n">
         <v>175808917</v>
       </c>
-      <c r="AV113" s="13" t="s">
-        <v>58</v>
+      <c r="AU113" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV113" s="13" t="n">
+        <v>244603774</v>
       </c>
       <c r="AW113" s="13" t="n">
-        <v>244603774</v>
+        <v>247079365</v>
       </c>
       <c r="AX113" s="13" t="n">
-        <v>247079365</v>
+        <v>232386667</v>
       </c>
       <c r="AY113" s="13" t="n">
-        <v>232386667</v>
+        <v>187056818</v>
       </c>
       <c r="AZ113" s="13" t="n">
-        <v>187056818</v>
+        <v>150491935</v>
       </c>
       <c r="BA113" s="13" t="n">
-        <v>150491935</v>
+        <v>146096154</v>
       </c>
       <c r="BB113" s="13" t="n">
-        <v>146096154</v>
+        <v>146368421</v>
       </c>
     </row>
   </sheetData>
